--- a/datas/shared/HouseLevelUp.xlsx
+++ b/datas/shared/HouseLevelUp.xlsx
@@ -1,41 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
     <sheet name="woodcutter" sheetId="22" r:id="rId2"/>
-    <sheet name="farmer" sheetId="26" r:id="rId3"/>
-    <sheet name="quarrier" sheetId="24" r:id="rId4"/>
-    <sheet name="miner" sheetId="25" r:id="rId5"/>
+    <sheet name="quarrier" sheetId="24" r:id="rId3"/>
+    <sheet name="miner" sheetId="25" r:id="rId4"/>
+    <sheet name="farmer" sheetId="26" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
@@ -192,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -233,6 +233,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -442,7 +466,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,6 +475,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1103,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1148,16 +1178,16 @@
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1172,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -1180,31 +1210,31 @@
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="C3" s="1">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="D3" s="1">
-        <v>500</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
+        <v>360</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1212,31 +1242,31 @@
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="C4" s="1">
-        <v>1000</v>
+        <v>720</v>
       </c>
       <c r="D4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
+        <v>720</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -1244,31 +1274,31 @@
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>3000</v>
+        <v>1440</v>
       </c>
       <c r="C5" s="1">
-        <v>3000</v>
+        <v>1080</v>
       </c>
       <c r="D5" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
+        <v>1080</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1276,31 +1306,31 @@
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>6000</v>
+        <v>1920</v>
       </c>
       <c r="C6" s="1">
-        <v>6000</v>
+        <v>1440</v>
       </c>
       <c r="D6" s="1">
-        <v>6000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
+        <v>1440</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>210</v>
+        <v>480</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1308,31 +1338,31 @@
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>18000</v>
+        <v>2400</v>
       </c>
       <c r="C7" s="1">
-        <v>18000</v>
+        <v>1800</v>
       </c>
       <c r="D7" s="1">
-        <v>18000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
+        <v>1800</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>270</v>
+        <v>960</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1340,31 +1370,31 @@
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>36000</v>
+        <v>2880</v>
       </c>
       <c r="C8" s="1">
-        <v>36000</v>
+        <v>2160</v>
       </c>
       <c r="D8" s="1">
-        <v>36000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
+        <v>2160</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>900</v>
+        <v>1440</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1372,31 +1402,31 @@
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>54000</v>
+        <v>3744</v>
       </c>
       <c r="C9" s="1">
-        <v>54000</v>
+        <v>2808</v>
       </c>
       <c r="D9" s="1">
-        <v>54000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10</v>
+        <v>2808</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1350</v>
+        <v>2880</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1404,31 +1434,31 @@
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>72000</v>
+        <v>9216</v>
       </c>
       <c r="C10" s="1">
-        <v>72000</v>
+        <v>6912</v>
       </c>
       <c r="D10" s="1">
-        <v>72000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1">
-        <v>40</v>
+        <v>6912</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>1800</v>
+        <v>5760</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1436,31 +1466,31 @@
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>90000</v>
+        <v>16704</v>
       </c>
       <c r="C11" s="1">
-        <v>90000</v>
+        <v>12528</v>
       </c>
       <c r="D11" s="1">
-        <v>90000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>120</v>
-      </c>
-      <c r="F11" s="1">
-        <v>120</v>
-      </c>
-      <c r="G11" s="1">
-        <v>120</v>
-      </c>
-      <c r="H11" s="1">
-        <v>120</v>
+        <v>12528</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>2700</v>
+        <v>8640</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1468,31 +1498,31 @@
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>108000</v>
+        <v>42394</v>
       </c>
       <c r="C12" s="1">
-        <v>108000</v>
+        <v>31796</v>
       </c>
       <c r="D12" s="1">
-        <v>108000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>360</v>
-      </c>
-      <c r="F12" s="1">
-        <v>360</v>
-      </c>
-      <c r="G12" s="1">
-        <v>360</v>
-      </c>
-      <c r="H12" s="1">
-        <v>360</v>
+        <v>31796</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>3600</v>
+        <v>11520</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1500,31 +1530,31 @@
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>126000</v>
+        <v>62208</v>
       </c>
       <c r="C13" s="1">
-        <v>126000</v>
+        <v>46656</v>
       </c>
       <c r="D13" s="1">
-        <v>126000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>600</v>
-      </c>
-      <c r="F13" s="1">
-        <v>600</v>
-      </c>
-      <c r="G13" s="1">
-        <v>600</v>
-      </c>
-      <c r="H13" s="1">
-        <v>600</v>
+        <v>46656</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1532,31 +1562,31 @@
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>144000</v>
+        <v>86631</v>
       </c>
       <c r="C14" s="1">
-        <v>144000</v>
+        <v>64973</v>
       </c>
       <c r="D14" s="1">
-        <v>144000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1200</v>
+        <v>64973</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>10800</v>
+        <v>17280</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1564,31 +1594,31 @@
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>162000</v>
+        <v>116122</v>
       </c>
       <c r="C15" s="1">
-        <v>162000</v>
+        <v>87092</v>
       </c>
       <c r="D15" s="1">
-        <v>162000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1800</v>
+        <v>87092</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>14400</v>
+        <v>20160</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -1596,31 +1626,31 @@
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>180000</v>
+        <v>135143</v>
       </c>
       <c r="C16" s="1">
-        <v>180000</v>
+        <v>101357</v>
       </c>
       <c r="D16" s="1">
-        <v>180000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2400</v>
+        <v>101357</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>21600</v>
+        <v>23040</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -1628,31 +1658,31 @@
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>240000</v>
+        <v>208192</v>
       </c>
       <c r="C17" s="1">
-        <v>240000</v>
+        <v>156144</v>
       </c>
       <c r="D17" s="1">
-        <v>240000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3000</v>
+        <v>156144</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>28800</v>
+        <v>25920</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -1660,31 +1690,31 @@
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>300000</v>
+        <v>247520</v>
       </c>
       <c r="C18" s="1">
-        <v>300000</v>
+        <v>185640</v>
       </c>
       <c r="D18" s="1">
-        <v>300000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F18" s="1">
-        <v>3600</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3600</v>
-      </c>
-      <c r="H18" s="1">
-        <v>3600</v>
+        <v>185640</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="H18" s="4">
+        <v>3</v>
       </c>
       <c r="I18" s="1">
-        <v>36000</v>
+        <v>28800</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -1692,31 +1722,31 @@
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>360000</v>
+        <v>287488</v>
       </c>
       <c r="C19" s="1">
-        <v>360000</v>
+        <v>215616</v>
       </c>
       <c r="D19" s="1">
-        <v>360000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="F19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4200</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4200</v>
+        <v>215616</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>5</v>
       </c>
       <c r="I19" s="1">
-        <v>43200</v>
+        <v>31680</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -1724,31 +1754,31 @@
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>420000</v>
+        <v>324672</v>
       </c>
       <c r="C20" s="1">
-        <v>420000</v>
+        <v>243504</v>
       </c>
       <c r="D20" s="1">
-        <v>420000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="F20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="G20" s="1">
-        <v>4800</v>
-      </c>
-      <c r="H20" s="1">
-        <v>4800</v>
+        <v>243504</v>
+      </c>
+      <c r="E20" s="4">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4">
+        <v>7</v>
+      </c>
+      <c r="G20" s="4">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4">
+        <v>7</v>
       </c>
       <c r="I20" s="1">
-        <v>57600</v>
+        <v>34560</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -1756,31 +1786,31 @@
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>480000</v>
+        <v>355648</v>
       </c>
       <c r="C21" s="1">
-        <v>480000</v>
+        <v>266736</v>
       </c>
       <c r="D21" s="1">
-        <v>480000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="G21" s="1">
-        <v>5400</v>
-      </c>
-      <c r="H21" s="1">
-        <v>5400</v>
+        <v>266736</v>
+      </c>
+      <c r="E21" s="4">
+        <v>11</v>
+      </c>
+      <c r="F21" s="4">
+        <v>11</v>
+      </c>
+      <c r="G21" s="4">
+        <v>11</v>
+      </c>
+      <c r="H21" s="4">
+        <v>11</v>
       </c>
       <c r="I21" s="1">
-        <v>72000</v>
+        <v>37440</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -1788,33 +1818,641 @@
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>900000</v>
+        <v>628589</v>
       </c>
       <c r="C22" s="1">
-        <v>900000</v>
+        <v>471442</v>
       </c>
       <c r="D22" s="1">
-        <v>900000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>6000</v>
-      </c>
-      <c r="H22" s="1">
-        <v>6000</v>
+        <v>471442</v>
+      </c>
+      <c r="E22" s="4">
+        <v>15</v>
+      </c>
+      <c r="F22" s="4">
+        <v>15</v>
+      </c>
+      <c r="G22" s="4">
+        <v>15</v>
+      </c>
+      <c r="H22" s="4">
+        <v>15</v>
       </c>
       <c r="I22" s="1">
+        <v>40320</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>680192</v>
+      </c>
+      <c r="C23" s="1">
+        <v>510144</v>
+      </c>
+      <c r="D23" s="1">
+        <v>510144</v>
+      </c>
+      <c r="E23" s="4">
+        <v>22</v>
+      </c>
+      <c r="F23" s="4">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4">
+        <v>22</v>
+      </c>
+      <c r="H23" s="4">
+        <v>22</v>
+      </c>
+      <c r="I23" s="1">
+        <v>43200</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>719924</v>
+      </c>
+      <c r="C24" s="1">
+        <v>539943</v>
+      </c>
+      <c r="D24" s="1">
+        <v>539943</v>
+      </c>
+      <c r="E24" s="4">
+        <v>30</v>
+      </c>
+      <c r="F24" s="4">
+        <v>30</v>
+      </c>
+      <c r="G24" s="4">
+        <v>30</v>
+      </c>
+      <c r="H24" s="4">
+        <v>30</v>
+      </c>
+      <c r="I24" s="1">
+        <v>46080</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>826036</v>
+      </c>
+      <c r="C25" s="1">
+        <v>619527</v>
+      </c>
+      <c r="D25" s="1">
+        <v>619527</v>
+      </c>
+      <c r="E25" s="4">
+        <v>40</v>
+      </c>
+      <c r="F25" s="4">
+        <v>40</v>
+      </c>
+      <c r="G25" s="4">
+        <v>40</v>
+      </c>
+      <c r="H25" s="4">
+        <v>40</v>
+      </c>
+      <c r="I25" s="1">
+        <v>51840</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>927328</v>
+      </c>
+      <c r="C26" s="1">
+        <v>695496</v>
+      </c>
+      <c r="D26" s="1">
+        <v>695496</v>
+      </c>
+      <c r="E26" s="4">
+        <v>52</v>
+      </c>
+      <c r="F26" s="4">
+        <v>52</v>
+      </c>
+      <c r="G26" s="4">
+        <v>52</v>
+      </c>
+      <c r="H26" s="4">
+        <v>52</v>
+      </c>
+      <c r="I26" s="1">
+        <v>57600</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1719220</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1289415</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1289415</v>
+      </c>
+      <c r="E27" s="4">
+        <v>67</v>
+      </c>
+      <c r="F27" s="4">
+        <v>67</v>
+      </c>
+      <c r="G27" s="4">
+        <v>67</v>
+      </c>
+      <c r="H27" s="4">
+        <v>67</v>
+      </c>
+      <c r="I27" s="1">
+        <v>63360</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1925210</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1443908</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1443908</v>
+      </c>
+      <c r="E28" s="4">
+        <v>84</v>
+      </c>
+      <c r="F28" s="4">
+        <v>84</v>
+      </c>
+      <c r="G28" s="4">
+        <v>84</v>
+      </c>
+      <c r="H28" s="4">
+        <v>84</v>
+      </c>
+      <c r="I28" s="1">
+        <v>69120</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2131226</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1598420</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1598420</v>
+      </c>
+      <c r="E29" s="4">
+        <v>105</v>
+      </c>
+      <c r="F29" s="4">
+        <v>105</v>
+      </c>
+      <c r="G29" s="4">
+        <v>105</v>
+      </c>
+      <c r="H29" s="4">
+        <v>105</v>
+      </c>
+      <c r="I29" s="1">
+        <v>74880</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2335418</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1751564</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1751564</v>
+      </c>
+      <c r="E30" s="4">
+        <v>128</v>
+      </c>
+      <c r="F30" s="4">
+        <v>128</v>
+      </c>
+      <c r="G30" s="4">
+        <v>128</v>
+      </c>
+      <c r="H30" s="4">
+        <v>128</v>
+      </c>
+      <c r="I30" s="1">
+        <v>80640</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2535936</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1901952</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1901952</v>
+      </c>
+      <c r="E31" s="4">
+        <v>156</v>
+      </c>
+      <c r="F31" s="4">
+        <v>156</v>
+      </c>
+      <c r="G31" s="4">
+        <v>156</v>
+      </c>
+      <c r="H31" s="4">
+        <v>156</v>
+      </c>
+      <c r="I31" s="1">
         <v>86400</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4366055</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3274541</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3274541</v>
+      </c>
+      <c r="E32" s="4">
+        <v>187</v>
+      </c>
+      <c r="F32" s="4">
+        <v>187</v>
+      </c>
+      <c r="G32" s="4">
+        <v>187</v>
+      </c>
+      <c r="H32" s="4">
+        <v>187</v>
+      </c>
+      <c r="I32" s="1">
+        <v>92160</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4767284</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3575463</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3575463</v>
+      </c>
+      <c r="E33" s="4">
+        <v>222</v>
+      </c>
+      <c r="F33" s="4">
+        <v>222</v>
+      </c>
+      <c r="G33" s="4">
+        <v>222</v>
+      </c>
+      <c r="H33" s="4">
+        <v>222</v>
+      </c>
+      <c r="I33" s="1">
+        <v>97920</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5176084</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3882063</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3882063</v>
+      </c>
+      <c r="E34" s="4">
+        <v>261</v>
+      </c>
+      <c r="F34" s="4">
+        <v>261</v>
+      </c>
+      <c r="G34" s="4">
+        <v>261</v>
+      </c>
+      <c r="H34" s="4">
+        <v>261</v>
+      </c>
+      <c r="I34" s="1">
+        <v>103680</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5591220</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4193415</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4193415</v>
+      </c>
+      <c r="E35" s="4">
+        <v>305</v>
+      </c>
+      <c r="F35" s="4">
+        <v>305</v>
+      </c>
+      <c r="G35" s="4">
+        <v>305</v>
+      </c>
+      <c r="H35" s="4">
+        <v>305</v>
+      </c>
+      <c r="I35" s="1">
+        <v>109440</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6011456</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4508592</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4508592</v>
+      </c>
+      <c r="E36" s="4">
+        <v>353</v>
+      </c>
+      <c r="F36" s="4">
+        <v>353</v>
+      </c>
+      <c r="G36" s="4">
+        <v>353</v>
+      </c>
+      <c r="H36" s="4">
+        <v>353</v>
+      </c>
+      <c r="I36" s="1">
+        <v>115200</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9672448</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7254336</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7254336</v>
+      </c>
+      <c r="E37" s="4">
+        <v>407</v>
+      </c>
+      <c r="F37" s="4">
+        <v>407</v>
+      </c>
+      <c r="G37" s="4">
+        <v>407</v>
+      </c>
+      <c r="H37" s="4">
+        <v>407</v>
+      </c>
+      <c r="I37" s="1">
+        <v>120960</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10440864</v>
+      </c>
+      <c r="C38" s="1">
+        <v>7830648</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7830648</v>
+      </c>
+      <c r="E38" s="4">
+        <v>465</v>
+      </c>
+      <c r="F38" s="4">
+        <v>465</v>
+      </c>
+      <c r="G38" s="4">
+        <v>465</v>
+      </c>
+      <c r="H38" s="4">
+        <v>465</v>
+      </c>
+      <c r="I38" s="1">
+        <v>126720</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>11233024</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8424768</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8424768</v>
+      </c>
+      <c r="E39" s="4">
+        <v>530</v>
+      </c>
+      <c r="F39" s="4">
+        <v>530</v>
+      </c>
+      <c r="G39" s="4">
+        <v>530</v>
+      </c>
+      <c r="H39" s="4">
+        <v>530</v>
+      </c>
+      <c r="I39" s="1">
+        <v>132480</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>12048384</v>
+      </c>
+      <c r="C40" s="1">
+        <v>9036288</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9036288</v>
+      </c>
+      <c r="E40" s="4">
+        <v>600</v>
+      </c>
+      <c r="F40" s="4">
+        <v>600</v>
+      </c>
+      <c r="G40" s="4">
+        <v>600</v>
+      </c>
+      <c r="H40" s="4">
+        <v>600</v>
+      </c>
+      <c r="I40" s="1">
+        <v>138240</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>17968000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>13476000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>13476000</v>
+      </c>
+      <c r="E41" s="4">
+        <v>680</v>
+      </c>
+      <c r="F41" s="4">
+        <v>680</v>
+      </c>
+      <c r="G41" s="4">
+        <v>680</v>
+      </c>
+      <c r="H41" s="4">
+        <v>680</v>
+      </c>
+      <c r="I41" s="1">
+        <v>144000</v>
+      </c>
+      <c r="J41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1832,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1877,674 +2515,1282 @@
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1">
-        <v>300</v>
+        <v>511</v>
       </c>
       <c r="D3" s="1">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>600</v>
+        <v>409</v>
       </c>
       <c r="C4" s="1">
-        <v>600</v>
+        <v>1021</v>
       </c>
       <c r="D4" s="1">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="J4" s="1">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1800</v>
+        <v>612</v>
       </c>
       <c r="C5" s="1">
-        <v>1800</v>
+        <v>1530</v>
       </c>
       <c r="D5" s="1">
-        <v>1800</v>
+        <v>918</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="J5" s="1">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3600</v>
+        <v>817</v>
       </c>
       <c r="C6" s="1">
-        <v>3600</v>
+        <v>2041</v>
       </c>
       <c r="D6" s="1">
-        <v>3600</v>
+        <v>1224</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>170</v>
+        <v>408</v>
       </c>
       <c r="J6" s="1">
-        <v>360</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>10800</v>
+        <v>1020</v>
       </c>
       <c r="C7" s="1">
-        <v>10800</v>
+        <v>2550</v>
       </c>
       <c r="D7" s="1">
-        <v>10800</v>
+        <v>1530</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>230</v>
+        <v>816</v>
       </c>
       <c r="J7" s="1">
-        <v>600</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>21600</v>
+        <v>1224</v>
       </c>
       <c r="C8" s="1">
-        <v>21600</v>
+        <v>3060</v>
       </c>
       <c r="D8" s="1">
-        <v>21600</v>
+        <v>1836</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>540</v>
+        <v>1224</v>
       </c>
       <c r="J8" s="1">
-        <v>1200</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>32400</v>
+        <v>1592</v>
       </c>
       <c r="C9" s="1">
-        <v>32400</v>
+        <v>3979</v>
       </c>
       <c r="D9" s="1">
-        <v>32400</v>
+        <v>2387</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>810</v>
+        <v>2448</v>
       </c>
       <c r="J9" s="1">
-        <v>1800</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>43200</v>
+        <v>3917</v>
       </c>
       <c r="C10" s="1">
-        <v>43200</v>
+        <v>9792</v>
       </c>
       <c r="D10" s="1">
-        <v>43200</v>
+        <v>5876</v>
       </c>
       <c r="E10" s="1">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>1080</v>
+        <v>4896</v>
       </c>
       <c r="J10" s="1">
-        <v>2400</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>54000</v>
+        <v>7100</v>
       </c>
       <c r="C11" s="1">
-        <v>54000</v>
+        <v>17748</v>
       </c>
       <c r="D11" s="1">
-        <v>54000</v>
+        <v>10649</v>
       </c>
       <c r="E11" s="1">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1">
-        <v>60</v>
-      </c>
-      <c r="G11" s="1">
-        <v>60</v>
-      </c>
-      <c r="H11" s="1">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>1620</v>
+        <v>7344</v>
       </c>
       <c r="J11" s="1">
-        <v>3000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>64800</v>
+        <v>18018</v>
       </c>
       <c r="C12" s="1">
-        <v>64800</v>
+        <v>45044</v>
       </c>
       <c r="D12" s="1">
-        <v>64800</v>
+        <v>27026</v>
       </c>
       <c r="E12" s="1">
-        <v>180</v>
-      </c>
-      <c r="F12" s="1">
-        <v>180</v>
-      </c>
-      <c r="G12" s="1">
-        <v>180</v>
-      </c>
-      <c r="H12" s="1">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>2160</v>
+        <v>9792</v>
       </c>
       <c r="J12" s="1">
-        <v>3600</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>75600</v>
+        <v>26439</v>
       </c>
       <c r="C13" s="1">
-        <v>75600</v>
+        <v>66096</v>
       </c>
       <c r="D13" s="1">
-        <v>75600</v>
+        <v>39658</v>
       </c>
       <c r="E13" s="1">
-        <v>300</v>
-      </c>
-      <c r="F13" s="1">
-        <v>300</v>
-      </c>
-      <c r="G13" s="1">
-        <v>300</v>
-      </c>
-      <c r="H13" s="1">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>4320</v>
+        <v>12240</v>
       </c>
       <c r="J13" s="1">
-        <v>4200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>86400</v>
+        <v>36818</v>
       </c>
       <c r="C14" s="1">
-        <v>86400</v>
+        <v>92045</v>
       </c>
       <c r="D14" s="1">
-        <v>86400</v>
+        <v>55227</v>
       </c>
       <c r="E14" s="1">
-        <v>600</v>
-      </c>
-      <c r="F14" s="1">
-        <v>600</v>
-      </c>
-      <c r="G14" s="1">
-        <v>600</v>
-      </c>
-      <c r="H14" s="1">
-        <v>600</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>6480</v>
+        <v>14688</v>
       </c>
       <c r="J14" s="1">
-        <v>4800</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>97200</v>
+        <v>49352</v>
       </c>
       <c r="C15" s="1">
-        <v>97200</v>
+        <v>123380</v>
       </c>
       <c r="D15" s="1">
-        <v>97200</v>
+        <v>74028</v>
       </c>
       <c r="E15" s="1">
-        <v>900</v>
-      </c>
-      <c r="F15" s="1">
-        <v>900</v>
-      </c>
-      <c r="G15" s="1">
-        <v>900</v>
-      </c>
-      <c r="H15" s="1">
-        <v>900</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>8640</v>
+        <v>17136</v>
       </c>
       <c r="J15" s="1">
-        <v>5400</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>108000</v>
+        <v>64236</v>
       </c>
       <c r="C16" s="1">
-        <v>108000</v>
+        <v>160589</v>
       </c>
       <c r="D16" s="1">
-        <v>108000</v>
+        <v>96354</v>
       </c>
       <c r="E16" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1200</v>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>12960</v>
+        <v>19584</v>
       </c>
       <c r="J16" s="1">
-        <v>6000</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>144000</v>
+        <v>94082</v>
       </c>
       <c r="C17" s="1">
-        <v>144000</v>
+        <v>235205</v>
       </c>
       <c r="D17" s="1">
-        <v>144000</v>
+        <v>141123</v>
       </c>
       <c r="E17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1500</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>17280</v>
+        <v>22032</v>
       </c>
       <c r="J17" s="1">
-        <v>6600</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>180000</v>
+        <v>115296</v>
       </c>
       <c r="C18" s="1">
-        <v>180000</v>
+        <v>288240</v>
       </c>
       <c r="D18" s="1">
-        <v>180000</v>
+        <v>172944</v>
       </c>
       <c r="E18" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1800</v>
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>21600</v>
+        <v>24480</v>
       </c>
       <c r="J18" s="1">
-        <v>7200</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>216000</v>
+        <v>138183</v>
       </c>
       <c r="C19" s="1">
-        <v>216000</v>
+        <v>345456</v>
       </c>
       <c r="D19" s="1">
-        <v>216000</v>
+        <v>207274</v>
       </c>
       <c r="E19" s="1">
-        <v>2100</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2100</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2100</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2100</v>
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
       </c>
       <c r="I19" s="1">
-        <v>25920</v>
+        <v>26928</v>
       </c>
       <c r="J19" s="1">
-        <v>7800</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>252000</v>
+        <v>160986</v>
       </c>
       <c r="C20" s="1">
-        <v>252000</v>
+        <v>402465</v>
       </c>
       <c r="D20" s="1">
-        <v>252000</v>
+        <v>241479</v>
       </c>
       <c r="E20" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2400</v>
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3</v>
       </c>
       <c r="I20" s="1">
-        <v>34560</v>
+        <v>29376</v>
       </c>
       <c r="J20" s="1">
-        <v>8400</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>288000</v>
+        <v>181951</v>
       </c>
       <c r="C21" s="1">
-        <v>288000</v>
+        <v>454876</v>
       </c>
       <c r="D21" s="1">
-        <v>288000</v>
+        <v>272926</v>
       </c>
       <c r="E21" s="1">
-        <v>2700</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2700</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2700</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2700</v>
+        <v>5</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5</v>
       </c>
       <c r="I21" s="1">
-        <v>43200</v>
+        <v>31824</v>
       </c>
       <c r="J21" s="1">
-        <v>9000</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>540000</v>
+        <v>306251</v>
       </c>
       <c r="C22" s="1">
-        <v>540000</v>
+        <v>765626</v>
       </c>
       <c r="D22" s="1">
-        <v>540000</v>
+        <v>459376</v>
       </c>
       <c r="E22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H22" s="1">
-        <v>3000</v>
+        <v>8</v>
+      </c>
+      <c r="F22" s="4">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4">
+        <v>8</v>
+      </c>
+      <c r="H22" s="4">
+        <v>8</v>
       </c>
       <c r="I22" s="1">
-        <v>51840</v>
+        <v>34272</v>
       </c>
       <c r="J22" s="1">
-        <v>9600</v>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>336682</v>
+      </c>
+      <c r="C23" s="1">
+        <v>841704</v>
+      </c>
+      <c r="D23" s="1">
+        <v>505023</v>
+      </c>
+      <c r="E23" s="1">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4">
+        <v>12</v>
+      </c>
+      <c r="G23" s="4">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1">
+        <v>36720</v>
+      </c>
+      <c r="J23" s="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>361968</v>
+      </c>
+      <c r="C24" s="1">
+        <v>904919</v>
+      </c>
+      <c r="D24" s="1">
+        <v>542952</v>
+      </c>
+      <c r="E24" s="1">
+        <v>18</v>
+      </c>
+      <c r="F24" s="4">
+        <v>18</v>
+      </c>
+      <c r="G24" s="4">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1">
+        <v>39168</v>
+      </c>
+      <c r="J24" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>415065</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1037663</v>
+      </c>
+      <c r="D25" s="1">
+        <v>622598</v>
+      </c>
+      <c r="E25" s="1">
+        <v>26</v>
+      </c>
+      <c r="F25" s="4">
+        <v>26</v>
+      </c>
+      <c r="G25" s="4">
+        <v>26</v>
+      </c>
+      <c r="H25" s="4">
+        <v>26</v>
+      </c>
+      <c r="I25" s="1">
+        <v>44064</v>
+      </c>
+      <c r="J25" s="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>465415</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1163537</v>
+      </c>
+      <c r="D26" s="1">
+        <v>698122</v>
+      </c>
+      <c r="E26" s="1">
+        <v>35</v>
+      </c>
+      <c r="F26" s="4">
+        <v>35</v>
+      </c>
+      <c r="G26" s="4">
+        <v>35</v>
+      </c>
+      <c r="H26" s="4">
+        <v>35</v>
+      </c>
+      <c r="I26" s="1">
+        <v>48960</v>
+      </c>
+      <c r="J26" s="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>808269</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2020671</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1212403</v>
+      </c>
+      <c r="E27" s="1">
+        <v>47</v>
+      </c>
+      <c r="F27" s="4">
+        <v>47</v>
+      </c>
+      <c r="G27" s="4">
+        <v>47</v>
+      </c>
+      <c r="H27" s="4">
+        <v>47</v>
+      </c>
+      <c r="I27" s="1">
+        <v>53856</v>
+      </c>
+      <c r="J27" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>900815</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2252036</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1351222</v>
+      </c>
+      <c r="E28" s="1">
+        <v>61</v>
+      </c>
+      <c r="F28" s="4">
+        <v>61</v>
+      </c>
+      <c r="G28" s="4">
+        <v>61</v>
+      </c>
+      <c r="H28" s="4">
+        <v>61</v>
+      </c>
+      <c r="I28" s="1">
+        <v>58752</v>
+      </c>
+      <c r="J28" s="1">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>991771</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2479428</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1487657</v>
+      </c>
+      <c r="E29" s="1">
+        <v>78</v>
+      </c>
+      <c r="F29" s="4">
+        <v>78</v>
+      </c>
+      <c r="G29" s="4">
+        <v>78</v>
+      </c>
+      <c r="H29" s="4">
+        <v>78</v>
+      </c>
+      <c r="I29" s="1">
+        <v>63648</v>
+      </c>
+      <c r="J29" s="1">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1080053</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2700132</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1620079</v>
+      </c>
+      <c r="E30" s="1">
+        <v>98</v>
+      </c>
+      <c r="F30" s="4">
+        <v>98</v>
+      </c>
+      <c r="G30" s="4">
+        <v>98</v>
+      </c>
+      <c r="H30" s="4">
+        <v>98</v>
+      </c>
+      <c r="I30" s="1">
+        <v>68544</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1164573</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2911432</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1746860</v>
+      </c>
+      <c r="E31" s="1">
+        <v>121</v>
+      </c>
+      <c r="F31" s="4">
+        <v>121</v>
+      </c>
+      <c r="G31" s="4">
+        <v>121</v>
+      </c>
+      <c r="H31" s="4">
+        <v>121</v>
+      </c>
+      <c r="I31" s="1">
+        <v>73440</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1939174</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4847933</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2908760</v>
+      </c>
+      <c r="E32" s="1">
+        <v>148</v>
+      </c>
+      <c r="F32" s="4">
+        <v>148</v>
+      </c>
+      <c r="G32" s="4">
+        <v>148</v>
+      </c>
+      <c r="H32" s="4">
+        <v>148</v>
+      </c>
+      <c r="I32" s="1">
+        <v>78336</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2103696</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5259239</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3155544</v>
+      </c>
+      <c r="E33" s="1">
+        <v>179</v>
+      </c>
+      <c r="F33" s="4">
+        <v>179</v>
+      </c>
+      <c r="G33" s="4">
+        <v>179</v>
+      </c>
+      <c r="H33" s="4">
+        <v>179</v>
+      </c>
+      <c r="I33" s="1">
+        <v>83232</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2268336</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5670839</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3402504</v>
+      </c>
+      <c r="E34" s="1">
+        <v>213</v>
+      </c>
+      <c r="F34" s="4">
+        <v>213</v>
+      </c>
+      <c r="G34" s="4">
+        <v>213</v>
+      </c>
+      <c r="H34" s="4">
+        <v>213</v>
+      </c>
+      <c r="I34" s="1">
+        <v>88128</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2432269</v>
+      </c>
+      <c r="C35" s="1">
+        <v>6080671</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3648403</v>
+      </c>
+      <c r="E35" s="1">
+        <v>252</v>
+      </c>
+      <c r="F35" s="4">
+        <v>252</v>
+      </c>
+      <c r="G35" s="4">
+        <v>252</v>
+      </c>
+      <c r="H35" s="4">
+        <v>252</v>
+      </c>
+      <c r="I35" s="1">
+        <v>93024</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2594669</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6486672</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3892004</v>
+      </c>
+      <c r="E36" s="1">
+        <v>295</v>
+      </c>
+      <c r="F36" s="4">
+        <v>295</v>
+      </c>
+      <c r="G36" s="4">
+        <v>295</v>
+      </c>
+      <c r="H36" s="4">
+        <v>295</v>
+      </c>
+      <c r="I36" s="1">
+        <v>97920</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4130391</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10325976</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6195586</v>
+      </c>
+      <c r="E37" s="1">
+        <v>343</v>
+      </c>
+      <c r="F37" s="4">
+        <v>343</v>
+      </c>
+      <c r="G37" s="4">
+        <v>343</v>
+      </c>
+      <c r="H37" s="4">
+        <v>343</v>
+      </c>
+      <c r="I37" s="1">
+        <v>102816</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4432468</v>
+      </c>
+      <c r="C38" s="1">
+        <v>11081168</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6648701</v>
+      </c>
+      <c r="E38" s="1">
+        <v>396</v>
+      </c>
+      <c r="F38" s="4">
+        <v>396</v>
+      </c>
+      <c r="G38" s="4">
+        <v>396</v>
+      </c>
+      <c r="H38" s="4">
+        <v>396</v>
+      </c>
+      <c r="I38" s="1">
+        <v>107712</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4740036</v>
+      </c>
+      <c r="C39" s="1">
+        <v>11850088</v>
+      </c>
+      <c r="D39" s="1">
+        <v>7110053</v>
+      </c>
+      <c r="E39" s="1">
+        <v>454</v>
+      </c>
+      <c r="F39" s="4">
+        <v>454</v>
+      </c>
+      <c r="G39" s="4">
+        <v>454</v>
+      </c>
+      <c r="H39" s="4">
+        <v>454</v>
+      </c>
+      <c r="I39" s="1">
+        <v>112608</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5052564</v>
+      </c>
+      <c r="C40" s="1">
+        <v>12631408</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7578845</v>
+      </c>
+      <c r="E40" s="1">
+        <v>518</v>
+      </c>
+      <c r="F40" s="4">
+        <v>518</v>
+      </c>
+      <c r="G40" s="4">
+        <v>518</v>
+      </c>
+      <c r="H40" s="4">
+        <v>518</v>
+      </c>
+      <c r="I40" s="1">
+        <v>117504</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7522001</v>
+      </c>
+      <c r="C41" s="1">
+        <v>18805001</v>
+      </c>
+      <c r="D41" s="1">
+        <v>11283001</v>
+      </c>
+      <c r="E41" s="1">
+        <v>590</v>
+      </c>
+      <c r="F41" s="4">
+        <v>590</v>
+      </c>
+      <c r="G41" s="4">
+        <v>590</v>
+      </c>
+      <c r="H41" s="4">
+        <v>590</v>
+      </c>
+      <c r="I41" s="1">
+        <v>122400</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -2561,10 +3807,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2605,675 +3851,1283 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>180</v>
+      </c>
+      <c r="C2" s="5">
+        <v>90</v>
+      </c>
+      <c r="D2" s="5">
+        <v>180</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>432</v>
+      </c>
+      <c r="C3" s="5">
+        <v>216</v>
+      </c>
+      <c r="D3" s="5">
+        <v>432</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45</v>
+      </c>
+      <c r="J3" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>864</v>
+      </c>
+      <c r="C4" s="5">
+        <v>432</v>
+      </c>
+      <c r="D4" s="5">
+        <v>864</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>108</v>
+      </c>
+      <c r="J4" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1296</v>
+      </c>
+      <c r="C5" s="5">
+        <v>648</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1296</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>216</v>
+      </c>
+      <c r="J5" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1728</v>
+      </c>
+      <c r="C6" s="5">
+        <v>864</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1728</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>432</v>
+      </c>
+      <c r="J6" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2160</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1080</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2160</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>864</v>
+      </c>
+      <c r="J7" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2592</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1296</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2592</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1296</v>
+      </c>
+      <c r="J8" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20" customHeight="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3370</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1685</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3370</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2592</v>
+      </c>
+      <c r="J9" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20" customHeight="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8295</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4148</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8295</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>5184</v>
+      </c>
+      <c r="J10" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20" customHeight="1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>15034</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7517</v>
+      </c>
+      <c r="D11" s="5">
+        <v>15034</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>7776</v>
+      </c>
+      <c r="J11" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20" customHeight="1">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>38155</v>
+      </c>
+      <c r="C12" s="5">
+        <v>19078</v>
+      </c>
+      <c r="D12" s="5">
+        <v>38155</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>10368</v>
+      </c>
+      <c r="J12" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20" customHeight="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>55988</v>
+      </c>
+      <c r="C13" s="5">
+        <v>27994</v>
+      </c>
+      <c r="D13" s="5">
+        <v>55988</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>12960</v>
+      </c>
+      <c r="J13" s="5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20" customHeight="1">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>77968</v>
+      </c>
+      <c r="C14" s="5">
+        <v>38984</v>
+      </c>
+      <c r="D14" s="5">
+        <v>77968</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>15552</v>
+      </c>
+      <c r="J14" s="5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20" customHeight="1">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>104510</v>
+      </c>
+      <c r="C15" s="5">
+        <v>52255</v>
+      </c>
+      <c r="D15" s="5">
+        <v>104510</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>18144</v>
+      </c>
+      <c r="J15" s="5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20" customHeight="1">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>136029</v>
+      </c>
+      <c r="C16" s="5">
+        <v>68015</v>
+      </c>
+      <c r="D16" s="5">
+        <v>136029</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>20736</v>
+      </c>
+      <c r="J16" s="5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20" customHeight="1">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>200173</v>
+      </c>
+      <c r="C17" s="5">
+        <v>100087</v>
+      </c>
+      <c r="D17" s="5">
+        <v>200173</v>
+      </c>
+      <c r="E17" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>450</v>
-      </c>
-      <c r="C3" s="1">
-        <v>450</v>
-      </c>
-      <c r="D3" s="1">
-        <v>450</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1">
-      <c r="A4" s="1">
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>23328</v>
+      </c>
+      <c r="J17" s="5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20" customHeight="1">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>245568</v>
+      </c>
+      <c r="C18" s="5">
+        <v>122784</v>
+      </c>
+      <c r="D18" s="5">
+        <v>245568</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>25920</v>
+      </c>
+      <c r="J18" s="5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20" customHeight="1">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>294740</v>
+      </c>
+      <c r="C19" s="5">
+        <v>147370</v>
+      </c>
+      <c r="D19" s="5">
+        <v>294740</v>
+      </c>
+      <c r="E19" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>900</v>
-      </c>
-      <c r="C4" s="1">
-        <v>900</v>
-      </c>
-      <c r="D4" s="1">
-        <v>900</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>80</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>28512</v>
+      </c>
+      <c r="J19" s="5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20" customHeight="1">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>344205</v>
+      </c>
+      <c r="C20" s="5">
+        <v>172103</v>
+      </c>
+      <c r="D20" s="5">
+        <v>344205</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3</v>
+      </c>
+      <c r="I20" s="5">
+        <v>31104</v>
+      </c>
+      <c r="J20" s="5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20" customHeight="1">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>390484</v>
+      </c>
+      <c r="C21" s="5">
+        <v>195242</v>
+      </c>
+      <c r="D21" s="5">
+        <v>390484</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5">
+        <v>5</v>
+      </c>
+      <c r="I21" s="5">
+        <v>33696</v>
+      </c>
+      <c r="J21" s="5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20" customHeight="1">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>656530</v>
+      </c>
+      <c r="C22" s="5">
+        <v>328265</v>
+      </c>
+      <c r="D22" s="5">
+        <v>656530</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5">
+        <v>8</v>
+      </c>
+      <c r="I22" s="5">
+        <v>36288</v>
+      </c>
+      <c r="J22" s="5">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20" customHeight="1">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>724973</v>
+      </c>
+      <c r="C23" s="5">
+        <v>362487</v>
+      </c>
+      <c r="D23" s="5">
+        <v>724973</v>
+      </c>
+      <c r="E23" s="5">
+        <v>12</v>
+      </c>
+      <c r="F23" s="5">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5">
+        <v>12</v>
+      </c>
+      <c r="H23" s="5">
+        <v>12</v>
+      </c>
+      <c r="I23" s="5">
+        <v>38880</v>
+      </c>
+      <c r="J23" s="5">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20" customHeight="1">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>783931</v>
+      </c>
+      <c r="C24" s="5">
+        <v>391966</v>
+      </c>
+      <c r="D24" s="5">
+        <v>783931</v>
+      </c>
+      <c r="E24" s="5">
+        <v>18</v>
+      </c>
+      <c r="F24" s="5">
+        <v>18</v>
+      </c>
+      <c r="G24" s="5">
+        <v>18</v>
+      </c>
+      <c r="H24" s="5">
+        <v>18</v>
+      </c>
+      <c r="I24" s="5">
+        <v>41472</v>
+      </c>
+      <c r="J24" s="5">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="20" customHeight="1">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>903432</v>
+      </c>
+      <c r="C25" s="5">
+        <v>451716</v>
+      </c>
+      <c r="D25" s="5">
+        <v>903432</v>
+      </c>
+      <c r="E25" s="5">
+        <v>26</v>
+      </c>
+      <c r="F25" s="5">
+        <v>26</v>
+      </c>
+      <c r="G25" s="5">
+        <v>26</v>
+      </c>
+      <c r="H25" s="5">
+        <v>26</v>
+      </c>
+      <c r="I25" s="5">
+        <v>46656</v>
+      </c>
+      <c r="J25" s="5">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="20" customHeight="1">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1018996</v>
+      </c>
+      <c r="C26" s="5">
+        <v>509498</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1018996</v>
+      </c>
+      <c r="E26" s="5">
+        <v>35</v>
+      </c>
+      <c r="F26" s="5">
+        <v>35</v>
+      </c>
+      <c r="G26" s="5">
+        <v>35</v>
+      </c>
+      <c r="H26" s="5">
+        <v>35</v>
+      </c>
+      <c r="I26" s="5">
+        <v>51840</v>
+      </c>
+      <c r="J26" s="5">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="20" customHeight="1">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1756098</v>
+      </c>
+      <c r="C27" s="5">
+        <v>878049</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1756098</v>
+      </c>
+      <c r="E27" s="5">
+        <v>47</v>
+      </c>
+      <c r="F27" s="5">
+        <v>47</v>
+      </c>
+      <c r="G27" s="5">
+        <v>47</v>
+      </c>
+      <c r="H27" s="5">
+        <v>47</v>
+      </c>
+      <c r="I27" s="5">
+        <v>57024</v>
+      </c>
+      <c r="J27" s="5">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20" customHeight="1">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1965489</v>
+      </c>
+      <c r="C28" s="5">
+        <v>982745</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1965489</v>
+      </c>
+      <c r="E28" s="5">
+        <v>61</v>
+      </c>
+      <c r="F28" s="5">
+        <v>61</v>
+      </c>
+      <c r="G28" s="5">
+        <v>61</v>
+      </c>
+      <c r="H28" s="5">
+        <v>61</v>
+      </c>
+      <c r="I28" s="5">
+        <v>62208</v>
+      </c>
+      <c r="J28" s="5">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20" customHeight="1">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2174104</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1087052</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2174104</v>
+      </c>
+      <c r="E29" s="5">
+        <v>78</v>
+      </c>
+      <c r="F29" s="5">
+        <v>78</v>
+      </c>
+      <c r="G29" s="5">
+        <v>78</v>
+      </c>
+      <c r="H29" s="5">
+        <v>78</v>
+      </c>
+      <c r="I29" s="5">
+        <v>67392</v>
+      </c>
+      <c r="J29" s="5">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20" customHeight="1">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2379876</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1189938</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2379876</v>
+      </c>
+      <c r="E30" s="5">
+        <v>98</v>
+      </c>
+      <c r="F30" s="5">
+        <v>98</v>
+      </c>
+      <c r="G30" s="5">
+        <v>98</v>
+      </c>
+      <c r="H30" s="5">
+        <v>98</v>
+      </c>
+      <c r="I30" s="5">
+        <v>72576</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="20" customHeight="1">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2580743</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1290372</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2580743</v>
+      </c>
+      <c r="E31" s="5">
+        <v>121</v>
+      </c>
+      <c r="F31" s="5">
+        <v>121</v>
+      </c>
+      <c r="G31" s="5">
+        <v>121</v>
+      </c>
+      <c r="H31" s="5">
+        <v>121</v>
+      </c>
+      <c r="I31" s="5">
+        <v>77760</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20" customHeight="1">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
+        <v>4246249</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2123125</v>
+      </c>
+      <c r="D32" s="5">
+        <v>4246249</v>
+      </c>
+      <c r="E32" s="5">
+        <v>148</v>
+      </c>
+      <c r="F32" s="5">
+        <v>148</v>
+      </c>
+      <c r="G32" s="5">
+        <v>148</v>
+      </c>
+      <c r="H32" s="5">
+        <v>148</v>
+      </c>
+      <c r="I32" s="5">
+        <v>82944</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20" customHeight="1">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
+        <v>4623355</v>
+      </c>
+      <c r="C33" s="5">
+        <v>2311678</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4623355</v>
+      </c>
+      <c r="E33" s="5">
+        <v>179</v>
+      </c>
+      <c r="F33" s="5">
+        <v>179</v>
+      </c>
+      <c r="G33" s="5">
+        <v>179</v>
+      </c>
+      <c r="H33" s="5">
+        <v>179</v>
+      </c>
+      <c r="I33" s="5">
+        <v>88128</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20" customHeight="1">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
+        <v>5004475</v>
+      </c>
+      <c r="C34" s="5">
+        <v>2502238</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5004475</v>
+      </c>
+      <c r="E34" s="5">
+        <v>213</v>
+      </c>
+      <c r="F34" s="5">
+        <v>213</v>
+      </c>
+      <c r="G34" s="5">
+        <v>213</v>
+      </c>
+      <c r="H34" s="5">
+        <v>213</v>
+      </c>
+      <c r="I34" s="5">
+        <v>93312</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20" customHeight="1">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
+        <v>5388098</v>
+      </c>
+      <c r="C35" s="5">
+        <v>2694049</v>
+      </c>
+      <c r="D35" s="5">
+        <v>5388098</v>
+      </c>
+      <c r="E35" s="5">
+        <v>252</v>
+      </c>
+      <c r="F35" s="5">
+        <v>252</v>
+      </c>
+      <c r="G35" s="5">
+        <v>252</v>
+      </c>
+      <c r="H35" s="5">
+        <v>252</v>
+      </c>
+      <c r="I35" s="5">
+        <v>98496</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20" customHeight="1">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
+        <v>5772711</v>
+      </c>
+      <c r="C36" s="5">
+        <v>2886356</v>
+      </c>
+      <c r="D36" s="5">
+        <v>5772711</v>
+      </c>
+      <c r="E36" s="5">
+        <v>295</v>
+      </c>
+      <c r="F36" s="5">
+        <v>295</v>
+      </c>
+      <c r="G36" s="5">
+        <v>295</v>
+      </c>
+      <c r="H36" s="5">
+        <v>295</v>
+      </c>
+      <c r="I36" s="5">
+        <v>103680</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="20" customHeight="1">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
+        <v>9070004</v>
+      </c>
+      <c r="C37" s="5">
+        <v>4535002</v>
+      </c>
+      <c r="D37" s="5">
+        <v>9070004</v>
+      </c>
+      <c r="E37" s="5">
+        <v>343</v>
+      </c>
+      <c r="F37" s="5">
+        <v>343</v>
+      </c>
+      <c r="G37" s="5">
+        <v>343</v>
+      </c>
+      <c r="H37" s="5">
+        <v>343</v>
+      </c>
+      <c r="I37" s="5">
+        <v>108864</v>
+      </c>
+      <c r="J37" s="5">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="20" customHeight="1">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5">
+        <v>9759578</v>
+      </c>
+      <c r="C38" s="5">
+        <v>4879789</v>
+      </c>
+      <c r="D38" s="5">
+        <v>9759578</v>
+      </c>
+      <c r="E38" s="5">
+        <v>396</v>
+      </c>
+      <c r="F38" s="5">
+        <v>396</v>
+      </c>
+      <c r="G38" s="5">
+        <v>396</v>
+      </c>
+      <c r="H38" s="5">
+        <v>396</v>
+      </c>
+      <c r="I38" s="5">
+        <v>114048</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20" customHeight="1">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
+        <v>10465722</v>
+      </c>
+      <c r="C39" s="5">
+        <v>5232861</v>
+      </c>
+      <c r="D39" s="5">
+        <v>10465722</v>
+      </c>
+      <c r="E39" s="5">
+        <v>454</v>
+      </c>
+      <c r="F39" s="5">
+        <v>454</v>
+      </c>
+      <c r="G39" s="5">
+        <v>454</v>
+      </c>
+      <c r="H39" s="5">
+        <v>454</v>
+      </c>
+      <c r="I39" s="5">
+        <v>119232</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="20" customHeight="1">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
+        <v>11187546</v>
+      </c>
+      <c r="C40" s="5">
+        <v>5593773</v>
+      </c>
+      <c r="D40" s="5">
+        <v>11187546</v>
+      </c>
+      <c r="E40" s="5">
+        <v>518</v>
+      </c>
+      <c r="F40" s="5">
+        <v>518</v>
+      </c>
+      <c r="G40" s="5">
+        <v>518</v>
+      </c>
+      <c r="H40" s="5">
+        <v>518</v>
+      </c>
+      <c r="I40" s="5">
+        <v>124416</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20" customHeight="1">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="20" customHeight="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2700</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2700</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2700</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>140</v>
-      </c>
-      <c r="J5" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5400</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5400</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5400</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>200</v>
-      </c>
-      <c r="J6" s="1">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>16200</v>
-      </c>
-      <c r="C7" s="1">
-        <v>16200</v>
-      </c>
-      <c r="D7" s="1">
-        <v>16200</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>260</v>
-      </c>
-      <c r="J7" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20" customHeight="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>32400</v>
-      </c>
-      <c r="C8" s="1">
-        <v>32400</v>
-      </c>
-      <c r="D8" s="1">
-        <v>32400</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>810</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>48600</v>
-      </c>
-      <c r="C9" s="1">
-        <v>48600</v>
-      </c>
-      <c r="D9" s="1">
-        <v>48600</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1215</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20" customHeight="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>64800</v>
-      </c>
-      <c r="C10" s="1">
-        <v>64800</v>
-      </c>
-      <c r="D10" s="1">
-        <v>64800</v>
-      </c>
-      <c r="E10" s="1">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1">
-        <v>20</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1620</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20" customHeight="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>81000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>81000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>81000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1">
-        <v>60</v>
-      </c>
-      <c r="G11" s="1">
-        <v>60</v>
-      </c>
-      <c r="H11" s="1">
-        <v>60</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2430</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20" customHeight="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>97200</v>
-      </c>
-      <c r="C12" s="1">
-        <v>97200</v>
-      </c>
-      <c r="D12" s="1">
-        <v>97200</v>
-      </c>
-      <c r="E12" s="1">
-        <v>180</v>
-      </c>
-      <c r="F12" s="1">
-        <v>180</v>
-      </c>
-      <c r="G12" s="1">
-        <v>180</v>
-      </c>
-      <c r="H12" s="1">
-        <v>180</v>
-      </c>
-      <c r="I12" s="1">
-        <v>3240</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="20" customHeight="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>113400</v>
-      </c>
-      <c r="C13" s="1">
-        <v>113400</v>
-      </c>
-      <c r="D13" s="1">
-        <v>113400</v>
-      </c>
-      <c r="E13" s="1">
-        <v>300</v>
-      </c>
-      <c r="F13" s="1">
-        <v>300</v>
-      </c>
-      <c r="G13" s="1">
-        <v>300</v>
-      </c>
-      <c r="H13" s="1">
-        <v>300</v>
-      </c>
-      <c r="I13" s="1">
-        <v>6480</v>
-      </c>
-      <c r="J13" s="1">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20" customHeight="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="B41" s="5">
+        <v>16476000</v>
+      </c>
+      <c r="C41" s="5">
+        <v>8238000</v>
+      </c>
+      <c r="D41" s="5">
+        <v>16476000</v>
+      </c>
+      <c r="E41" s="5">
+        <v>590</v>
+      </c>
+      <c r="F41" s="5">
+        <v>590</v>
+      </c>
+      <c r="G41" s="5">
+        <v>590</v>
+      </c>
+      <c r="H41" s="5">
+        <v>590</v>
+      </c>
+      <c r="I41" s="5">
         <v>129600</v>
       </c>
-      <c r="C14" s="1">
-        <v>129600</v>
-      </c>
-      <c r="D14" s="1">
-        <v>129600</v>
-      </c>
-      <c r="E14" s="1">
-        <v>600</v>
-      </c>
-      <c r="F14" s="1">
-        <v>600</v>
-      </c>
-      <c r="G14" s="1">
-        <v>600</v>
-      </c>
-      <c r="H14" s="1">
-        <v>600</v>
-      </c>
-      <c r="I14" s="1">
-        <v>9720</v>
-      </c>
-      <c r="J14" s="1">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="20" customHeight="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>145800</v>
-      </c>
-      <c r="C15" s="1">
-        <v>145800</v>
-      </c>
-      <c r="D15" s="1">
-        <v>145800</v>
-      </c>
-      <c r="E15" s="1">
-        <v>900</v>
-      </c>
-      <c r="F15" s="1">
-        <v>900</v>
-      </c>
-      <c r="G15" s="1">
-        <v>900</v>
-      </c>
-      <c r="H15" s="1">
-        <v>900</v>
-      </c>
-      <c r="I15" s="1">
-        <v>12960</v>
-      </c>
-      <c r="J15" s="1">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>162000</v>
-      </c>
-      <c r="C16" s="1">
-        <v>162000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>162000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I16" s="1">
-        <v>19440</v>
-      </c>
-      <c r="J16" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20" customHeight="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>216000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>216000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>216000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="I17" s="1">
-        <v>25920</v>
-      </c>
-      <c r="J17" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20" customHeight="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>270000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>270000</v>
-      </c>
-      <c r="D18" s="1">
-        <v>270000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I18" s="1">
-        <v>32400</v>
-      </c>
-      <c r="J18" s="1">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20" customHeight="1">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>324000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>324000</v>
-      </c>
-      <c r="D19" s="1">
-        <v>324000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2100</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2100</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2100</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2100</v>
-      </c>
-      <c r="I19" s="1">
-        <v>38880</v>
-      </c>
-      <c r="J19" s="1">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20" customHeight="1">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>378000</v>
-      </c>
-      <c r="C20" s="1">
-        <v>378000</v>
-      </c>
-      <c r="D20" s="1">
-        <v>378000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2400</v>
-      </c>
-      <c r="I20" s="1">
-        <v>51840</v>
-      </c>
-      <c r="J20" s="1">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20" customHeight="1">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>432000</v>
-      </c>
-      <c r="C21" s="1">
-        <v>432000</v>
-      </c>
-      <c r="D21" s="1">
-        <v>432000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2700</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2700</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2700</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2700</v>
-      </c>
-      <c r="I21" s="1">
-        <v>64800</v>
-      </c>
-      <c r="J21" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>810000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>810000</v>
-      </c>
-      <c r="D22" s="1">
-        <v>810000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>77760</v>
-      </c>
-      <c r="J22" s="1">
-        <v>9600</v>
+      <c r="J41" s="5">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -3290,10 +5144,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3335,674 +5189,1282 @@
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>350</v>
-      </c>
-      <c r="C3" s="1">
-        <v>350</v>
+        <v>456</v>
+      </c>
+      <c r="C3" s="4">
+        <v>456</v>
       </c>
       <c r="D3" s="1">
-        <v>350</v>
+        <v>228</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>700</v>
-      </c>
-      <c r="C4" s="1">
-        <v>700</v>
+        <v>912</v>
+      </c>
+      <c r="C4" s="4">
+        <v>912</v>
       </c>
       <c r="D4" s="1">
-        <v>700</v>
+        <v>456</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="J4" s="1">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2100</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2100</v>
+        <v>1368</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1368</v>
       </c>
       <c r="D5" s="1">
-        <v>2100</v>
+        <v>684</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="J5" s="1">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4200</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4200</v>
+        <v>1824</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1824</v>
       </c>
       <c r="D6" s="1">
-        <v>4200</v>
+        <v>912</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>180</v>
+        <v>456</v>
       </c>
       <c r="J6" s="1">
-        <v>360</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>12600</v>
-      </c>
-      <c r="C7" s="1">
-        <v>12600</v>
+        <v>2280</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2280</v>
       </c>
       <c r="D7" s="1">
-        <v>12600</v>
+        <v>1140</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>240</v>
+        <v>912</v>
       </c>
       <c r="J7" s="1">
-        <v>600</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>25200</v>
-      </c>
-      <c r="C8" s="1">
-        <v>25200</v>
+        <v>2736</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2736</v>
       </c>
       <c r="D8" s="1">
-        <v>25200</v>
+        <v>1368</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>630</v>
+        <v>1368</v>
       </c>
       <c r="J8" s="1">
-        <v>1200</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>37800</v>
-      </c>
-      <c r="C9" s="1">
-        <v>37800</v>
+        <v>3557</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3557</v>
       </c>
       <c r="D9" s="1">
-        <v>37800</v>
+        <v>1779</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>945</v>
+        <v>2736</v>
       </c>
       <c r="J9" s="1">
-        <v>1800</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>50400</v>
-      </c>
-      <c r="C10" s="1">
-        <v>50400</v>
+        <v>8756</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8756</v>
       </c>
       <c r="D10" s="1">
-        <v>50400</v>
+        <v>4378</v>
       </c>
       <c r="E10" s="1">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>1260</v>
+        <v>5472</v>
       </c>
       <c r="J10" s="1">
-        <v>2400</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>62999.999999999993</v>
-      </c>
-      <c r="C11" s="1">
-        <v>62999.999999999993</v>
+        <v>15869</v>
+      </c>
+      <c r="C11" s="4">
+        <v>15869</v>
       </c>
       <c r="D11" s="1">
-        <v>62999.999999999993</v>
+        <v>7935</v>
       </c>
       <c r="E11" s="1">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1">
-        <v>60</v>
-      </c>
-      <c r="G11" s="1">
-        <v>60</v>
-      </c>
-      <c r="H11" s="1">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>1890</v>
+        <v>8208</v>
       </c>
       <c r="J11" s="1">
-        <v>3000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>75600</v>
-      </c>
-      <c r="C12" s="1">
-        <v>75600</v>
+        <v>40274</v>
+      </c>
+      <c r="C12" s="4">
+        <v>40274</v>
       </c>
       <c r="D12" s="1">
-        <v>75600</v>
+        <v>20137</v>
       </c>
       <c r="E12" s="1">
-        <v>180</v>
-      </c>
-      <c r="F12" s="1">
-        <v>180</v>
-      </c>
-      <c r="G12" s="1">
-        <v>180</v>
-      </c>
-      <c r="H12" s="1">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>2520</v>
+        <v>10944</v>
       </c>
       <c r="J12" s="1">
-        <v>3600</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>88200</v>
-      </c>
-      <c r="C13" s="1">
-        <v>88200</v>
+        <v>59098</v>
+      </c>
+      <c r="C13" s="4">
+        <v>59098</v>
       </c>
       <c r="D13" s="1">
-        <v>88200</v>
+        <v>29549</v>
       </c>
       <c r="E13" s="1">
-        <v>300</v>
-      </c>
-      <c r="F13" s="1">
-        <v>300</v>
-      </c>
-      <c r="G13" s="1">
-        <v>300</v>
-      </c>
-      <c r="H13" s="1">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>5040</v>
+        <v>13680</v>
       </c>
       <c r="J13" s="1">
-        <v>4200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>100800</v>
-      </c>
-      <c r="C14" s="1">
-        <v>100800</v>
+        <v>82299</v>
+      </c>
+      <c r="C14" s="4">
+        <v>82299</v>
       </c>
       <c r="D14" s="1">
-        <v>100800</v>
+        <v>41150</v>
       </c>
       <c r="E14" s="1">
-        <v>600</v>
-      </c>
-      <c r="F14" s="1">
-        <v>600</v>
-      </c>
-      <c r="G14" s="1">
-        <v>600</v>
-      </c>
-      <c r="H14" s="1">
-        <v>600</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>7560</v>
+        <v>16416</v>
       </c>
       <c r="J14" s="1">
-        <v>4800</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>113400</v>
-      </c>
-      <c r="C15" s="1">
-        <v>113400</v>
+        <v>110316</v>
+      </c>
+      <c r="C15" s="4">
+        <v>110316</v>
       </c>
       <c r="D15" s="1">
-        <v>113400</v>
+        <v>55158</v>
       </c>
       <c r="E15" s="1">
-        <v>900</v>
-      </c>
-      <c r="F15" s="1">
-        <v>900</v>
-      </c>
-      <c r="G15" s="1">
-        <v>900</v>
-      </c>
-      <c r="H15" s="1">
-        <v>900</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>10080</v>
+        <v>19152</v>
       </c>
       <c r="J15" s="1">
-        <v>5400</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>125999.99999999999</v>
-      </c>
-      <c r="C16" s="1">
-        <v>125999.99999999999</v>
+        <v>143586</v>
+      </c>
+      <c r="C16" s="4">
+        <v>143586</v>
       </c>
       <c r="D16" s="1">
-        <v>125999.99999999999</v>
+        <v>71793</v>
       </c>
       <c r="E16" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1200</v>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>15120</v>
+        <v>21888</v>
       </c>
       <c r="J16" s="1">
-        <v>6000</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>168000</v>
-      </c>
-      <c r="C17" s="1">
-        <v>168000</v>
+        <v>212183</v>
+      </c>
+      <c r="C17" s="4">
+        <v>212183</v>
       </c>
       <c r="D17" s="1">
-        <v>168000</v>
+        <v>106092</v>
       </c>
       <c r="E17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1500</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>20160</v>
+        <v>24624</v>
       </c>
       <c r="J17" s="1">
-        <v>6600</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>210000</v>
-      </c>
-      <c r="C18" s="1">
-        <v>210000</v>
+        <v>260544</v>
+      </c>
+      <c r="C18" s="4">
+        <v>260544</v>
       </c>
       <c r="D18" s="1">
-        <v>210000</v>
+        <v>130272</v>
       </c>
       <c r="E18" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1800</v>
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>25200</v>
+        <v>27360</v>
       </c>
       <c r="J18" s="1">
-        <v>7200</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>251999.99999999997</v>
-      </c>
-      <c r="C19" s="1">
-        <v>251999.99999999997</v>
+        <v>313114</v>
+      </c>
+      <c r="C19" s="4">
+        <v>313114</v>
       </c>
       <c r="D19" s="1">
-        <v>251999.99999999997</v>
+        <v>156557</v>
       </c>
       <c r="E19" s="1">
-        <v>2100</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2100</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2100</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2100</v>
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
       </c>
       <c r="I19" s="1">
-        <v>30240</v>
+        <v>30096</v>
       </c>
       <c r="J19" s="1">
-        <v>7800</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>294000</v>
-      </c>
-      <c r="C20" s="1">
-        <v>294000</v>
+        <v>366439</v>
+      </c>
+      <c r="C20" s="4">
+        <v>366439</v>
       </c>
       <c r="D20" s="1">
-        <v>294000</v>
+        <v>183220</v>
       </c>
       <c r="E20" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2400</v>
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3</v>
       </c>
       <c r="I20" s="1">
-        <v>40320</v>
+        <v>32832</v>
       </c>
       <c r="J20" s="1">
-        <v>8400</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>336000</v>
-      </c>
-      <c r="C21" s="1">
-        <v>336000</v>
+        <v>417066</v>
+      </c>
+      <c r="C21" s="4">
+        <v>417066</v>
       </c>
       <c r="D21" s="1">
-        <v>336000</v>
+        <v>208533</v>
       </c>
       <c r="E21" s="1">
-        <v>2700</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2700</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2700</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2700</v>
+        <v>5</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5</v>
       </c>
       <c r="I21" s="1">
-        <v>50400</v>
+        <v>35568</v>
       </c>
       <c r="J21" s="1">
-        <v>9000</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>630000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>630000</v>
+        <v>700560</v>
+      </c>
+      <c r="C22" s="4">
+        <v>700560</v>
       </c>
       <c r="D22" s="1">
-        <v>630000</v>
+        <v>350280</v>
       </c>
       <c r="E22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H22" s="1">
-        <v>3000</v>
+        <v>8</v>
+      </c>
+      <c r="F22" s="4">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4">
+        <v>8</v>
+      </c>
+      <c r="H22" s="4">
+        <v>8</v>
       </c>
       <c r="I22" s="1">
-        <v>60480</v>
+        <v>38304</v>
       </c>
       <c r="J22" s="1">
-        <v>9600</v>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>776583</v>
+      </c>
+      <c r="C23" s="4">
+        <v>776583</v>
+      </c>
+      <c r="D23" s="1">
+        <v>388292</v>
+      </c>
+      <c r="E23" s="1">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4">
+        <v>12</v>
+      </c>
+      <c r="G23" s="4">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1">
+        <v>41040</v>
+      </c>
+      <c r="J23" s="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>843928</v>
+      </c>
+      <c r="C24" s="4">
+        <v>843928</v>
+      </c>
+      <c r="D24" s="1">
+        <v>421964</v>
+      </c>
+      <c r="E24" s="1">
+        <v>18</v>
+      </c>
+      <c r="F24" s="4">
+        <v>18</v>
+      </c>
+      <c r="G24" s="4">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1">
+        <v>43776</v>
+      </c>
+      <c r="J24" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>976734</v>
+      </c>
+      <c r="C25" s="4">
+        <v>976734</v>
+      </c>
+      <c r="D25" s="1">
+        <v>488367</v>
+      </c>
+      <c r="E25" s="1">
+        <v>26</v>
+      </c>
+      <c r="F25" s="4">
+        <v>26</v>
+      </c>
+      <c r="G25" s="4">
+        <v>26</v>
+      </c>
+      <c r="H25" s="4">
+        <v>26</v>
+      </c>
+      <c r="I25" s="1">
+        <v>49248</v>
+      </c>
+      <c r="J25" s="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1107162</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1107162</v>
+      </c>
+      <c r="D26" s="1">
+        <v>553581</v>
+      </c>
+      <c r="E26" s="1">
+        <v>35</v>
+      </c>
+      <c r="F26" s="4">
+        <v>35</v>
+      </c>
+      <c r="G26" s="4">
+        <v>35</v>
+      </c>
+      <c r="H26" s="4">
+        <v>35</v>
+      </c>
+      <c r="I26" s="1">
+        <v>54720</v>
+      </c>
+      <c r="J26" s="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1895659</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1895659</v>
+      </c>
+      <c r="D27" s="1">
+        <v>947830</v>
+      </c>
+      <c r="E27" s="1">
+        <v>47</v>
+      </c>
+      <c r="F27" s="4">
+        <v>47</v>
+      </c>
+      <c r="G27" s="4">
+        <v>47</v>
+      </c>
+      <c r="H27" s="4">
+        <v>47</v>
+      </c>
+      <c r="I27" s="1">
+        <v>60192</v>
+      </c>
+      <c r="J27" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2129350</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2129350</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1064675</v>
+      </c>
+      <c r="E28" s="1">
+        <v>61</v>
+      </c>
+      <c r="F28" s="4">
+        <v>61</v>
+      </c>
+      <c r="G28" s="4">
+        <v>61</v>
+      </c>
+      <c r="H28" s="4">
+        <v>61</v>
+      </c>
+      <c r="I28" s="1">
+        <v>65664</v>
+      </c>
+      <c r="J28" s="1">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2364665</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2364665</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1182333</v>
+      </c>
+      <c r="E29" s="1">
+        <v>78</v>
+      </c>
+      <c r="F29" s="4">
+        <v>78</v>
+      </c>
+      <c r="G29" s="4">
+        <v>78</v>
+      </c>
+      <c r="H29" s="4">
+        <v>78</v>
+      </c>
+      <c r="I29" s="1">
+        <v>71136</v>
+      </c>
+      <c r="J29" s="1">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2599647</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2599647</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1299824</v>
+      </c>
+      <c r="E30" s="1">
+        <v>98</v>
+      </c>
+      <c r="F30" s="4">
+        <v>98</v>
+      </c>
+      <c r="G30" s="4">
+        <v>98</v>
+      </c>
+      <c r="H30" s="4">
+        <v>98</v>
+      </c>
+      <c r="I30" s="1">
+        <v>76608</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2832340</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2832340</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1416170</v>
+      </c>
+      <c r="E31" s="1">
+        <v>121</v>
+      </c>
+      <c r="F31" s="4">
+        <v>121</v>
+      </c>
+      <c r="G31" s="4">
+        <v>121</v>
+      </c>
+      <c r="H31" s="4">
+        <v>121</v>
+      </c>
+      <c r="I31" s="1">
+        <v>82080</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4614152</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4614152</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2307076</v>
+      </c>
+      <c r="E32" s="1">
+        <v>148</v>
+      </c>
+      <c r="F32" s="4">
+        <v>148</v>
+      </c>
+      <c r="G32" s="4">
+        <v>148</v>
+      </c>
+      <c r="H32" s="4">
+        <v>148</v>
+      </c>
+      <c r="I32" s="1">
+        <v>87552</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5039320</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5039320</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2519660</v>
+      </c>
+      <c r="E33" s="1">
+        <v>179</v>
+      </c>
+      <c r="F33" s="4">
+        <v>179</v>
+      </c>
+      <c r="G33" s="4">
+        <v>179</v>
+      </c>
+      <c r="H33" s="4">
+        <v>179</v>
+      </c>
+      <c r="I33" s="1">
+        <v>93024</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5472280</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5472280</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2736140</v>
+      </c>
+      <c r="E34" s="1">
+        <v>213</v>
+      </c>
+      <c r="F34" s="4">
+        <v>213</v>
+      </c>
+      <c r="G34" s="4">
+        <v>213</v>
+      </c>
+      <c r="H34" s="4">
+        <v>213</v>
+      </c>
+      <c r="I34" s="1">
+        <v>98496</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5911659</v>
+      </c>
+      <c r="C35" s="4">
+        <v>5911659</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2955830</v>
+      </c>
+      <c r="E35" s="1">
+        <v>252</v>
+      </c>
+      <c r="F35" s="4">
+        <v>252</v>
+      </c>
+      <c r="G35" s="4">
+        <v>252</v>
+      </c>
+      <c r="H35" s="4">
+        <v>252</v>
+      </c>
+      <c r="I35" s="1">
+        <v>103968</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6356084</v>
+      </c>
+      <c r="C36" s="4">
+        <v>6356084</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3178042</v>
+      </c>
+      <c r="E36" s="1">
+        <v>295</v>
+      </c>
+      <c r="F36" s="4">
+        <v>295</v>
+      </c>
+      <c r="G36" s="4">
+        <v>295</v>
+      </c>
+      <c r="H36" s="4">
+        <v>295</v>
+      </c>
+      <c r="I36" s="1">
+        <v>109440</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9879226</v>
+      </c>
+      <c r="C37" s="4">
+        <v>9879226</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4939613</v>
+      </c>
+      <c r="E37" s="1">
+        <v>343</v>
+      </c>
+      <c r="F37" s="4">
+        <v>343</v>
+      </c>
+      <c r="G37" s="4">
+        <v>343</v>
+      </c>
+      <c r="H37" s="4">
+        <v>343</v>
+      </c>
+      <c r="I37" s="1">
+        <v>114912</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10654221</v>
+      </c>
+      <c r="C38" s="4">
+        <v>10654221</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5327111</v>
+      </c>
+      <c r="E38" s="1">
+        <v>396</v>
+      </c>
+      <c r="F38" s="4">
+        <v>396</v>
+      </c>
+      <c r="G38" s="4">
+        <v>396</v>
+      </c>
+      <c r="H38" s="4">
+        <v>396</v>
+      </c>
+      <c r="I38" s="1">
+        <v>120384</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>11451373</v>
+      </c>
+      <c r="C39" s="4">
+        <v>11451373</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5725687</v>
+      </c>
+      <c r="E39" s="1">
+        <v>454</v>
+      </c>
+      <c r="F39" s="4">
+        <v>454</v>
+      </c>
+      <c r="G39" s="4">
+        <v>454</v>
+      </c>
+      <c r="H39" s="4">
+        <v>454</v>
+      </c>
+      <c r="I39" s="1">
+        <v>125856</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>12269965</v>
+      </c>
+      <c r="C40" s="4">
+        <v>12269965</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6134983</v>
+      </c>
+      <c r="E40" s="1">
+        <v>518</v>
+      </c>
+      <c r="F40" s="4">
+        <v>518</v>
+      </c>
+      <c r="G40" s="4">
+        <v>518</v>
+      </c>
+      <c r="H40" s="4">
+        <v>518</v>
+      </c>
+      <c r="I40" s="1">
+        <v>131328</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>17884000</v>
+      </c>
+      <c r="C41" s="4">
+        <v>17884000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8942000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>592</v>
+      </c>
+      <c r="F41" s="4">
+        <v>592</v>
+      </c>
+      <c r="G41" s="4">
+        <v>592</v>
+      </c>
+      <c r="H41" s="4">
+        <v>592</v>
+      </c>
+      <c r="I41" s="1">
+        <v>136800</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -4019,10 +6481,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4064,674 +6526,1282 @@
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="C3" s="1">
-        <v>400</v>
+        <v>288</v>
       </c>
       <c r="D3" s="1">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>800</v>
+        <v>960</v>
       </c>
       <c r="C4" s="1">
-        <v>800</v>
+        <v>576</v>
       </c>
       <c r="D4" s="1">
-        <v>800</v>
+        <v>384</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="J4" s="1">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2400</v>
+        <v>1440</v>
       </c>
       <c r="C5" s="1">
-        <v>2400</v>
+        <v>864</v>
       </c>
       <c r="D5" s="1">
-        <v>2400</v>
+        <v>576</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="J5" s="1">
-        <v>120</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4800</v>
+        <v>1920</v>
       </c>
       <c r="C6" s="1">
-        <v>4800</v>
+        <v>1152</v>
       </c>
       <c r="D6" s="1">
-        <v>4800</v>
+        <v>768</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="J6" s="1">
-        <v>360</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>14400</v>
+        <v>2400</v>
       </c>
       <c r="C7" s="1">
-        <v>14400</v>
+        <v>1440</v>
       </c>
       <c r="D7" s="1">
-        <v>14400</v>
+        <v>960</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>250</v>
+        <v>768</v>
       </c>
       <c r="J7" s="1">
-        <v>600</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>28800</v>
+        <v>2880</v>
       </c>
       <c r="C8" s="1">
-        <v>28800</v>
+        <v>1728</v>
       </c>
       <c r="D8" s="1">
-        <v>28800</v>
+        <v>1152</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>720</v>
+        <v>1152</v>
       </c>
       <c r="J8" s="1">
-        <v>1200</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>43200</v>
+        <v>3744</v>
       </c>
       <c r="C9" s="1">
-        <v>43200</v>
+        <v>2247</v>
       </c>
       <c r="D9" s="1">
-        <v>43200</v>
+        <v>1498</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1080</v>
+        <v>2304</v>
       </c>
       <c r="J9" s="1">
-        <v>1800</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>57600</v>
+        <v>9216</v>
       </c>
       <c r="C10" s="1">
-        <v>57600</v>
+        <v>5530</v>
       </c>
       <c r="D10" s="1">
-        <v>57600</v>
+        <v>3687</v>
       </c>
       <c r="E10" s="1">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>1440</v>
+        <v>4608</v>
       </c>
       <c r="J10" s="1">
-        <v>2400</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>72000</v>
+        <v>16704</v>
       </c>
       <c r="C11" s="1">
-        <v>72000</v>
+        <v>10023</v>
       </c>
       <c r="D11" s="1">
-        <v>72000</v>
+        <v>6682</v>
       </c>
       <c r="E11" s="1">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1">
-        <v>60</v>
-      </c>
-      <c r="G11" s="1">
-        <v>60</v>
-      </c>
-      <c r="H11" s="1">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>2160</v>
+        <v>6912</v>
       </c>
       <c r="J11" s="1">
-        <v>3000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>86400</v>
+        <v>42394</v>
       </c>
       <c r="C12" s="1">
-        <v>86400</v>
+        <v>25437</v>
       </c>
       <c r="D12" s="1">
-        <v>86400</v>
+        <v>16958</v>
       </c>
       <c r="E12" s="1">
-        <v>180</v>
-      </c>
-      <c r="F12" s="1">
-        <v>180</v>
-      </c>
-      <c r="G12" s="1">
-        <v>180</v>
-      </c>
-      <c r="H12" s="1">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>2880</v>
+        <v>9216</v>
       </c>
       <c r="J12" s="1">
-        <v>3600</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>100800</v>
+        <v>62208</v>
       </c>
       <c r="C13" s="1">
-        <v>100800</v>
+        <v>37325</v>
       </c>
       <c r="D13" s="1">
-        <v>100800</v>
+        <v>24884</v>
       </c>
       <c r="E13" s="1">
-        <v>300</v>
-      </c>
-      <c r="F13" s="1">
-        <v>300</v>
-      </c>
-      <c r="G13" s="1">
-        <v>300</v>
-      </c>
-      <c r="H13" s="1">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>5760</v>
+        <v>11520</v>
       </c>
       <c r="J13" s="1">
-        <v>4200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>115200</v>
+        <v>86631</v>
       </c>
       <c r="C14" s="1">
-        <v>115200</v>
+        <v>51979</v>
       </c>
       <c r="D14" s="1">
-        <v>115200</v>
+        <v>34653</v>
       </c>
       <c r="E14" s="1">
-        <v>600</v>
-      </c>
-      <c r="F14" s="1">
-        <v>600</v>
-      </c>
-      <c r="G14" s="1">
-        <v>600</v>
-      </c>
-      <c r="H14" s="1">
-        <v>600</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>8640</v>
+        <v>13824</v>
       </c>
       <c r="J14" s="1">
-        <v>4800</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>129600</v>
+        <v>116122</v>
       </c>
       <c r="C15" s="1">
-        <v>129600</v>
+        <v>69673</v>
       </c>
       <c r="D15" s="1">
-        <v>129600</v>
+        <v>46449</v>
       </c>
       <c r="E15" s="1">
-        <v>900</v>
-      </c>
-      <c r="F15" s="1">
-        <v>900</v>
-      </c>
-      <c r="G15" s="1">
-        <v>900</v>
-      </c>
-      <c r="H15" s="1">
-        <v>900</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>11520</v>
+        <v>16128</v>
       </c>
       <c r="J15" s="1">
-        <v>5400</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>144000</v>
+        <v>151143</v>
       </c>
       <c r="C16" s="1">
-        <v>144000</v>
+        <v>90686</v>
       </c>
       <c r="D16" s="1">
-        <v>144000</v>
+        <v>60457</v>
       </c>
       <c r="E16" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1200</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1200</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1200</v>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>17280</v>
+        <v>18432</v>
       </c>
       <c r="J16" s="1">
-        <v>6000</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>192000</v>
+        <v>220192</v>
       </c>
       <c r="C17" s="1">
-        <v>192000</v>
+        <v>132116</v>
       </c>
       <c r="D17" s="1">
-        <v>192000</v>
+        <v>88077</v>
       </c>
       <c r="E17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1500</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>23040</v>
+        <v>20736</v>
       </c>
       <c r="J17" s="1">
-        <v>6600</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>240000</v>
+        <v>269520</v>
       </c>
       <c r="C18" s="1">
-        <v>240000</v>
+        <v>161712</v>
       </c>
       <c r="D18" s="1">
-        <v>240000</v>
+        <v>107808</v>
       </c>
       <c r="E18" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1800</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1800</v>
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>28800</v>
+        <v>23040</v>
       </c>
       <c r="J18" s="1">
-        <v>7200</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>288000</v>
+        <v>322488</v>
       </c>
       <c r="C19" s="1">
-        <v>288000</v>
+        <v>193493</v>
       </c>
       <c r="D19" s="1">
-        <v>288000</v>
+        <v>128996</v>
       </c>
       <c r="E19" s="1">
-        <v>2100</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2100</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2100</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2100</v>
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
       </c>
       <c r="I19" s="1">
-        <v>34560</v>
+        <v>25344</v>
       </c>
       <c r="J19" s="1">
-        <v>7800</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>336000</v>
+        <v>374672</v>
       </c>
       <c r="C20" s="1">
-        <v>336000</v>
+        <v>224804</v>
       </c>
       <c r="D20" s="1">
-        <v>336000</v>
+        <v>149869</v>
       </c>
       <c r="E20" s="1">
-        <v>2400</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2400</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2400</v>
-      </c>
-      <c r="H20" s="1">
-        <v>2400</v>
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3</v>
       </c>
       <c r="I20" s="1">
-        <v>46080</v>
+        <v>27648</v>
       </c>
       <c r="J20" s="1">
-        <v>8400</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>384000</v>
+        <v>421648</v>
       </c>
       <c r="C21" s="1">
-        <v>384000</v>
+        <v>252989</v>
       </c>
       <c r="D21" s="1">
-        <v>384000</v>
+        <v>168660</v>
       </c>
       <c r="E21" s="1">
-        <v>2700</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2700</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2700</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2700</v>
+        <v>5</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5</v>
       </c>
       <c r="I21" s="1">
-        <v>57600</v>
+        <v>29952</v>
       </c>
       <c r="J21" s="1">
-        <v>9000</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>720000</v>
+        <v>710589</v>
       </c>
       <c r="C22" s="1">
-        <v>720000</v>
+        <v>426354</v>
       </c>
       <c r="D22" s="1">
-        <v>720000</v>
+        <v>284236</v>
       </c>
       <c r="E22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H22" s="1">
-        <v>3000</v>
+        <v>8</v>
+      </c>
+      <c r="F22" s="4">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4">
+        <v>8</v>
+      </c>
+      <c r="H22" s="4">
+        <v>8</v>
       </c>
       <c r="I22" s="1">
+        <v>32256</v>
+      </c>
+      <c r="J22" s="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>777192</v>
+      </c>
+      <c r="C23" s="1">
+        <v>466316</v>
+      </c>
+      <c r="D23" s="1">
+        <v>310877</v>
+      </c>
+      <c r="E23" s="1">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4">
+        <v>12</v>
+      </c>
+      <c r="G23" s="4">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1">
+        <v>34560</v>
+      </c>
+      <c r="J23" s="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>829924</v>
+      </c>
+      <c r="C24" s="1">
+        <v>497954</v>
+      </c>
+      <c r="D24" s="1">
+        <v>331970</v>
+      </c>
+      <c r="E24" s="1">
+        <v>18</v>
+      </c>
+      <c r="F24" s="4">
+        <v>18</v>
+      </c>
+      <c r="G24" s="4">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1">
+        <v>36864</v>
+      </c>
+      <c r="J24" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>946036</v>
+      </c>
+      <c r="C25" s="1">
+        <v>567622</v>
+      </c>
+      <c r="D25" s="1">
+        <v>378415</v>
+      </c>
+      <c r="E25" s="1">
+        <v>26</v>
+      </c>
+      <c r="F25" s="4">
+        <v>26</v>
+      </c>
+      <c r="G25" s="4">
+        <v>26</v>
+      </c>
+      <c r="H25" s="4">
+        <v>26</v>
+      </c>
+      <c r="I25" s="1">
+        <v>41472</v>
+      </c>
+      <c r="J25" s="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1053328</v>
+      </c>
+      <c r="C26" s="1">
+        <v>631997</v>
+      </c>
+      <c r="D26" s="1">
+        <v>421332</v>
+      </c>
+      <c r="E26" s="1">
+        <v>35</v>
+      </c>
+      <c r="F26" s="4">
+        <v>35</v>
+      </c>
+      <c r="G26" s="4">
+        <v>35</v>
+      </c>
+      <c r="H26" s="4">
+        <v>35</v>
+      </c>
+      <c r="I26" s="1">
+        <v>46080</v>
+      </c>
+      <c r="J26" s="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1846220</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1107732</v>
+      </c>
+      <c r="D27" s="1">
+        <v>738488</v>
+      </c>
+      <c r="E27" s="1">
+        <v>47</v>
+      </c>
+      <c r="F27" s="4">
+        <v>47</v>
+      </c>
+      <c r="G27" s="4">
+        <v>47</v>
+      </c>
+      <c r="H27" s="4">
+        <v>47</v>
+      </c>
+      <c r="I27" s="1">
+        <v>50688</v>
+      </c>
+      <c r="J27" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2047210</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1228326</v>
+      </c>
+      <c r="D28" s="1">
+        <v>818884</v>
+      </c>
+      <c r="E28" s="1">
+        <v>61</v>
+      </c>
+      <c r="F28" s="4">
+        <v>61</v>
+      </c>
+      <c r="G28" s="4">
+        <v>61</v>
+      </c>
+      <c r="H28" s="4">
+        <v>61</v>
+      </c>
+      <c r="I28" s="1">
+        <v>55296</v>
+      </c>
+      <c r="J28" s="1">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2241226</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1344736</v>
+      </c>
+      <c r="D29" s="1">
+        <v>896491</v>
+      </c>
+      <c r="E29" s="1">
+        <v>78</v>
+      </c>
+      <c r="F29" s="4">
+        <v>78</v>
+      </c>
+      <c r="G29" s="4">
+        <v>78</v>
+      </c>
+      <c r="H29" s="4">
+        <v>78</v>
+      </c>
+      <c r="I29" s="1">
+        <v>59904</v>
+      </c>
+      <c r="J29" s="1">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2425418</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1455251</v>
+      </c>
+      <c r="D30" s="1">
+        <v>970168</v>
+      </c>
+      <c r="E30" s="1">
+        <v>98</v>
+      </c>
+      <c r="F30" s="4">
+        <v>98</v>
+      </c>
+      <c r="G30" s="4">
+        <v>98</v>
+      </c>
+      <c r="H30" s="4">
+        <v>98</v>
+      </c>
+      <c r="I30" s="1">
+        <v>64512</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2596936</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1558162</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1038775</v>
+      </c>
+      <c r="E31" s="1">
+        <v>121</v>
+      </c>
+      <c r="F31" s="4">
+        <v>121</v>
+      </c>
+      <c r="G31" s="4">
+        <v>121</v>
+      </c>
+      <c r="H31" s="4">
+        <v>121</v>
+      </c>
+      <c r="I31" s="1">
         <v>69120</v>
       </c>
-      <c r="J22" s="1">
-        <v>9600</v>
+      <c r="J31" s="1">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4388055</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2632833</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1755222</v>
+      </c>
+      <c r="E32" s="1">
+        <v>148</v>
+      </c>
+      <c r="F32" s="4">
+        <v>148</v>
+      </c>
+      <c r="G32" s="4">
+        <v>148</v>
+      </c>
+      <c r="H32" s="4">
+        <v>148</v>
+      </c>
+      <c r="I32" s="1">
+        <v>73728</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4739284</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2843570</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1895714</v>
+      </c>
+      <c r="E33" s="1">
+        <v>179</v>
+      </c>
+      <c r="F33" s="4">
+        <v>179</v>
+      </c>
+      <c r="G33" s="4">
+        <v>179</v>
+      </c>
+      <c r="H33" s="4">
+        <v>179</v>
+      </c>
+      <c r="I33" s="1">
+        <v>78336</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5086084</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3051650</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2034434</v>
+      </c>
+      <c r="E34" s="1">
+        <v>213</v>
+      </c>
+      <c r="F34" s="4">
+        <v>213</v>
+      </c>
+      <c r="G34" s="4">
+        <v>213</v>
+      </c>
+      <c r="H34" s="4">
+        <v>213</v>
+      </c>
+      <c r="I34" s="1">
+        <v>82944</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5426220</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3255732</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2170488</v>
+      </c>
+      <c r="E35" s="1">
+        <v>252</v>
+      </c>
+      <c r="F35" s="4">
+        <v>252</v>
+      </c>
+      <c r="G35" s="4">
+        <v>252</v>
+      </c>
+      <c r="H35" s="4">
+        <v>252</v>
+      </c>
+      <c r="I35" s="1">
+        <v>87552</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5757456</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3454474</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2302983</v>
+      </c>
+      <c r="E36" s="1">
+        <v>295</v>
+      </c>
+      <c r="F36" s="4">
+        <v>295</v>
+      </c>
+      <c r="G36" s="4">
+        <v>295</v>
+      </c>
+      <c r="H36" s="4">
+        <v>295</v>
+      </c>
+      <c r="I36" s="1">
+        <v>92160</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9314448</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5588669</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3725780</v>
+      </c>
+      <c r="E37" s="1">
+        <v>343</v>
+      </c>
+      <c r="F37" s="4">
+        <v>343</v>
+      </c>
+      <c r="G37" s="4">
+        <v>343</v>
+      </c>
+      <c r="H37" s="4">
+        <v>343</v>
+      </c>
+      <c r="I37" s="1">
+        <v>96768</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9962864</v>
+      </c>
+      <c r="C38" s="1">
+        <v>5977719</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3985146</v>
+      </c>
+      <c r="E38" s="1">
+        <v>396</v>
+      </c>
+      <c r="F38" s="4">
+        <v>396</v>
+      </c>
+      <c r="G38" s="4">
+        <v>396</v>
+      </c>
+      <c r="H38" s="4">
+        <v>396</v>
+      </c>
+      <c r="I38" s="1">
+        <v>101376</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>10618024</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6370815</v>
+      </c>
+      <c r="D39" s="1">
+        <v>4247210</v>
+      </c>
+      <c r="E39" s="1">
+        <v>454</v>
+      </c>
+      <c r="F39" s="4">
+        <v>454</v>
+      </c>
+      <c r="G39" s="4">
+        <v>454</v>
+      </c>
+      <c r="H39" s="4">
+        <v>454</v>
+      </c>
+      <c r="I39" s="1">
+        <v>105984</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>11278384</v>
+      </c>
+      <c r="C40" s="1">
+        <v>6767031</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4511354</v>
+      </c>
+      <c r="E40" s="1">
+        <v>518</v>
+      </c>
+      <c r="F40" s="4">
+        <v>518</v>
+      </c>
+      <c r="G40" s="4">
+        <v>518</v>
+      </c>
+      <c r="H40" s="4">
+        <v>518</v>
+      </c>
+      <c r="I40" s="1">
+        <v>110592</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>16955000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10173000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>6782000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>592</v>
+      </c>
+      <c r="F41" s="4">
+        <v>592</v>
+      </c>
+      <c r="G41" s="4">
+        <v>592</v>
+      </c>
+      <c r="H41" s="4">
+        <v>592</v>
+      </c>
+      <c r="I41" s="1">
+        <v>115200</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/HouseLevelUp.xlsx
+++ b/datas/shared/HouseLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="34740" windowHeight="19960" tabRatio="239" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -192,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -246,19 +246,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="202">
+  <cellStyleXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -465,8 +454,82 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,11 +543,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="202">
+  <cellStyles count="276">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -588,6 +648,43 @@
     <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -684,6 +781,43 @@
     <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1135,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1597,7 +1731,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>116122</v>
+        <v>109722</v>
       </c>
       <c r="C15" s="1">
         <v>87092</v>
@@ -1629,7 +1763,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>135143</v>
+        <v>138343</v>
       </c>
       <c r="C16" s="1">
         <v>101357</v>
@@ -1661,7 +1795,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>208192</v>
+        <v>214592</v>
       </c>
       <c r="C17" s="1">
         <v>156144</v>
@@ -1693,7 +1827,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>247520</v>
+        <v>254720</v>
       </c>
       <c r="C18" s="1">
         <v>185640</v>
@@ -1725,7 +1859,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>287488</v>
+        <v>284288</v>
       </c>
       <c r="C19" s="1">
         <v>215616</v>
@@ -1757,7 +1891,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>324672</v>
+        <v>310272</v>
       </c>
       <c r="C20" s="1">
         <v>243504</v>
@@ -1789,7 +1923,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>355648</v>
+        <v>326848</v>
       </c>
       <c r="C21" s="1">
         <v>266736</v>
@@ -1821,7 +1955,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>628589</v>
+        <v>586189</v>
       </c>
       <c r="C22" s="1">
         <v>471442</v>
@@ -1853,7 +1987,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>680192</v>
+        <v>616192</v>
       </c>
       <c r="C23" s="1">
         <v>510144</v>
@@ -1885,7 +2019,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>719924</v>
+        <v>636724</v>
       </c>
       <c r="C24" s="1">
         <v>539943</v>
@@ -1917,7 +2051,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>826036</v>
+        <v>813236</v>
       </c>
       <c r="C25" s="1">
         <v>619527</v>
@@ -1949,7 +2083,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>927328</v>
+        <v>899328</v>
       </c>
       <c r="C26" s="1">
         <v>695496</v>
@@ -1981,7 +2115,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1719220</v>
+        <v>1581620</v>
       </c>
       <c r="C27" s="1">
         <v>1289415</v>
@@ -2013,7 +2147,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1925210</v>
+        <v>1773210</v>
       </c>
       <c r="C28" s="1">
         <v>1443908</v>
@@ -2045,7 +2179,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>2131226</v>
+        <v>1968026</v>
       </c>
       <c r="C29" s="1">
         <v>1598420</v>
@@ -2077,7 +2211,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>2335418</v>
+        <v>2347418</v>
       </c>
       <c r="C30" s="1">
         <v>1751564</v>
@@ -2141,7 +2275,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4366055</v>
+        <v>4196455</v>
       </c>
       <c r="C32" s="1">
         <v>3274541</v>
@@ -2173,7 +2307,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4767284</v>
+        <v>4607284</v>
       </c>
       <c r="C33" s="1">
         <v>3575463</v>
@@ -2205,7 +2339,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>5176084</v>
+        <v>5036084</v>
       </c>
       <c r="C34" s="1">
         <v>3882063</v>
@@ -2237,7 +2371,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>5591220</v>
+        <v>5472820</v>
       </c>
       <c r="C35" s="1">
         <v>4193415</v>
@@ -2269,7 +2403,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>6011456</v>
+        <v>5926656</v>
       </c>
       <c r="C36" s="1">
         <v>4508592</v>
@@ -2301,7 +2435,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>9672448</v>
+        <v>9630848</v>
       </c>
       <c r="C37" s="1">
         <v>7254336</v>
@@ -2333,7 +2467,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>10440864</v>
+        <v>10456064</v>
       </c>
       <c r="C38" s="1">
         <v>7830648</v>
@@ -2365,7 +2499,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>11233024</v>
+        <v>11309824</v>
       </c>
       <c r="C39" s="1">
         <v>8424768</v>
@@ -2397,7 +2531,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>12048384</v>
+        <v>12201984</v>
       </c>
       <c r="C40" s="1">
         <v>9036288</v>
@@ -2429,7 +2563,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>17968000</v>
+        <v>18227200</v>
       </c>
       <c r="C41" s="1">
         <v>13476000</v>
@@ -2472,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2521,10 +2655,10 @@
         <v>86</v>
       </c>
       <c r="C2" s="1">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="D2" s="1">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -2553,10 +2687,10 @@
         <v>205</v>
       </c>
       <c r="C3" s="1">
-        <v>511</v>
-      </c>
-      <c r="D3" s="1">
-        <v>306</v>
+        <v>409</v>
+      </c>
+      <c r="D3" s="4">
+        <v>409</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2585,10 +2719,10 @@
         <v>409</v>
       </c>
       <c r="C4" s="1">
-        <v>1021</v>
-      </c>
-      <c r="D4" s="1">
-        <v>612</v>
+        <v>817</v>
+      </c>
+      <c r="D4" s="4">
+        <v>817</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2617,10 +2751,10 @@
         <v>612</v>
       </c>
       <c r="C5" s="1">
-        <v>1530</v>
-      </c>
-      <c r="D5" s="1">
-        <v>918</v>
+        <v>1224</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1224</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2649,10 +2783,10 @@
         <v>817</v>
       </c>
       <c r="C6" s="1">
-        <v>2041</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1224</v>
+        <v>1633</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1633</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2681,10 +2815,10 @@
         <v>1020</v>
       </c>
       <c r="C7" s="1">
-        <v>2550</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1530</v>
+        <v>2040</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2040</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2713,10 +2847,10 @@
         <v>1224</v>
       </c>
       <c r="C8" s="1">
-        <v>3060</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1836</v>
+        <v>2448</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2448</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2745,10 +2879,10 @@
         <v>1592</v>
       </c>
       <c r="C9" s="1">
-        <v>3979</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2387</v>
+        <v>3183</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3183</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -2777,10 +2911,10 @@
         <v>3917</v>
       </c>
       <c r="C10" s="1">
-        <v>9792</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5876</v>
+        <v>7834</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7834</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2809,10 +2943,10 @@
         <v>7100</v>
       </c>
       <c r="C11" s="1">
-        <v>17748</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10649</v>
+        <v>14199</v>
+      </c>
+      <c r="D11" s="4">
+        <v>14199</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2841,10 +2975,10 @@
         <v>18018</v>
       </c>
       <c r="C12" s="1">
-        <v>45044</v>
-      </c>
-      <c r="D12" s="1">
-        <v>27026</v>
+        <v>36035</v>
+      </c>
+      <c r="D12" s="4">
+        <v>36035</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2873,10 +3007,10 @@
         <v>26439</v>
       </c>
       <c r="C13" s="1">
-        <v>66096</v>
-      </c>
-      <c r="D13" s="1">
-        <v>39658</v>
+        <v>52877</v>
+      </c>
+      <c r="D13" s="4">
+        <v>52877</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2905,10 +3039,10 @@
         <v>36818</v>
       </c>
       <c r="C14" s="1">
-        <v>92045</v>
-      </c>
-      <c r="D14" s="1">
-        <v>55227</v>
+        <v>73636</v>
+      </c>
+      <c r="D14" s="4">
+        <v>73636</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2937,10 +3071,10 @@
         <v>49352</v>
       </c>
       <c r="C15" s="1">
-        <v>123380</v>
-      </c>
-      <c r="D15" s="1">
-        <v>74028</v>
+        <v>93264</v>
+      </c>
+      <c r="D15" s="4">
+        <v>93264</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2969,10 +3103,10 @@
         <v>64236</v>
       </c>
       <c r="C16" s="1">
-        <v>160589</v>
-      </c>
-      <c r="D16" s="1">
-        <v>96354</v>
+        <v>117592</v>
+      </c>
+      <c r="D16" s="4">
+        <v>117592</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -3001,10 +3135,10 @@
         <v>94082</v>
       </c>
       <c r="C17" s="1">
-        <v>235205</v>
-      </c>
-      <c r="D17" s="1">
-        <v>141123</v>
+        <v>182404</v>
+      </c>
+      <c r="D17" s="4">
+        <v>182404</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -3033,10 +3167,10 @@
         <v>115296</v>
       </c>
       <c r="C18" s="1">
-        <v>288240</v>
-      </c>
-      <c r="D18" s="1">
-        <v>172944</v>
+        <v>216512</v>
+      </c>
+      <c r="D18" s="4">
+        <v>216512</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -3065,10 +3199,10 @@
         <v>138183</v>
       </c>
       <c r="C19" s="1">
-        <v>345456</v>
-      </c>
-      <c r="D19" s="1">
-        <v>207274</v>
+        <v>241645</v>
+      </c>
+      <c r="D19" s="4">
+        <v>241645</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -3097,10 +3231,10 @@
         <v>160986</v>
       </c>
       <c r="C20" s="1">
-        <v>402465</v>
-      </c>
-      <c r="D20" s="1">
-        <v>241479</v>
+        <v>263732</v>
+      </c>
+      <c r="D20" s="4">
+        <v>263732</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -3129,10 +3263,10 @@
         <v>181951</v>
       </c>
       <c r="C21" s="1">
-        <v>454876</v>
-      </c>
-      <c r="D21" s="1">
-        <v>272926</v>
+        <v>277821</v>
+      </c>
+      <c r="D21" s="4">
+        <v>277821</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -3161,10 +3295,10 @@
         <v>306251</v>
       </c>
       <c r="C22" s="1">
-        <v>765626</v>
-      </c>
-      <c r="D22" s="1">
-        <v>459376</v>
+        <v>498261</v>
+      </c>
+      <c r="D22" s="4">
+        <v>498261</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
@@ -3193,10 +3327,10 @@
         <v>336682</v>
       </c>
       <c r="C23" s="1">
-        <v>841704</v>
-      </c>
-      <c r="D23" s="1">
-        <v>505023</v>
+        <v>523764</v>
+      </c>
+      <c r="D23" s="4">
+        <v>523764</v>
       </c>
       <c r="E23" s="1">
         <v>12</v>
@@ -3225,10 +3359,10 @@
         <v>361968</v>
       </c>
       <c r="C24" s="1">
-        <v>904919</v>
-      </c>
-      <c r="D24" s="1">
-        <v>542952</v>
+        <v>541215</v>
+      </c>
+      <c r="D24" s="4">
+        <v>541215</v>
       </c>
       <c r="E24" s="1">
         <v>18</v>
@@ -3257,10 +3391,10 @@
         <v>415065</v>
       </c>
       <c r="C25" s="1">
-        <v>1037663</v>
-      </c>
-      <c r="D25" s="1">
-        <v>622598</v>
+        <v>691250</v>
+      </c>
+      <c r="D25" s="4">
+        <v>691250</v>
       </c>
       <c r="E25" s="1">
         <v>26</v>
@@ -3289,10 +3423,10 @@
         <v>465415</v>
       </c>
       <c r="C26" s="1">
-        <v>1163537</v>
-      </c>
-      <c r="D26" s="1">
-        <v>698122</v>
+        <v>764429</v>
+      </c>
+      <c r="D26" s="4">
+        <v>764429</v>
       </c>
       <c r="E26" s="1">
         <v>35</v>
@@ -3321,10 +3455,10 @@
         <v>808269</v>
       </c>
       <c r="C27" s="1">
-        <v>2020671</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1212403</v>
+        <v>1344377</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1344377</v>
       </c>
       <c r="E27" s="1">
         <v>47</v>
@@ -3353,10 +3487,10 @@
         <v>900815</v>
       </c>
       <c r="C28" s="1">
-        <v>2252036</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1351222</v>
+        <v>1507229</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1507229</v>
       </c>
       <c r="E28" s="1">
         <v>61</v>
@@ -3385,10 +3519,10 @@
         <v>991771</v>
       </c>
       <c r="C29" s="1">
-        <v>2479428</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1487657</v>
+        <v>1672822</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1672822</v>
       </c>
       <c r="E29" s="1">
         <v>78</v>
@@ -3417,10 +3551,10 @@
         <v>1080053</v>
       </c>
       <c r="C30" s="1">
-        <v>2700132</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1620079</v>
+        <v>1995305</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1995305</v>
       </c>
       <c r="E30" s="1">
         <v>98</v>
@@ -3449,10 +3583,10 @@
         <v>1164573</v>
       </c>
       <c r="C31" s="1">
-        <v>2911432</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1746860</v>
+        <v>2155546</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2155546</v>
       </c>
       <c r="E31" s="1">
         <v>121</v>
@@ -3481,10 +3615,10 @@
         <v>1939174</v>
       </c>
       <c r="C32" s="1">
-        <v>4847933</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2908760</v>
+        <v>3566987</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3566987</v>
       </c>
       <c r="E32" s="1">
         <v>148</v>
@@ -3513,10 +3647,10 @@
         <v>2103696</v>
       </c>
       <c r="C33" s="1">
-        <v>5259239</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3155544</v>
+        <v>3916191</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3916191</v>
       </c>
       <c r="E33" s="1">
         <v>179</v>
@@ -3545,10 +3679,10 @@
         <v>2268336</v>
       </c>
       <c r="C34" s="1">
-        <v>5670839</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3402504</v>
+        <v>4280671</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4280671</v>
       </c>
       <c r="E34" s="1">
         <v>213</v>
@@ -3577,10 +3711,10 @@
         <v>2432269</v>
       </c>
       <c r="C35" s="1">
-        <v>6080671</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3648403</v>
+        <v>4651897</v>
+      </c>
+      <c r="D35" s="4">
+        <v>4651897</v>
       </c>
       <c r="E35" s="1">
         <v>252</v>
@@ -3609,10 +3743,10 @@
         <v>2594669</v>
       </c>
       <c r="C36" s="1">
-        <v>6486672</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3892004</v>
+        <v>5037658</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5037658</v>
       </c>
       <c r="E36" s="1">
         <v>295</v>
@@ -3641,10 +3775,10 @@
         <v>4130391</v>
       </c>
       <c r="C37" s="1">
-        <v>10325976</v>
-      </c>
-      <c r="D37" s="1">
-        <v>6195586</v>
+        <v>8186221</v>
+      </c>
+      <c r="D37" s="4">
+        <v>8186221</v>
       </c>
       <c r="E37" s="1">
         <v>343</v>
@@ -3673,10 +3807,10 @@
         <v>4432468</v>
       </c>
       <c r="C38" s="1">
-        <v>11081168</v>
-      </c>
-      <c r="D38" s="1">
-        <v>6648701</v>
+        <v>8887655</v>
+      </c>
+      <c r="D38" s="4">
+        <v>8887655</v>
       </c>
       <c r="E38" s="1">
         <v>396</v>
@@ -3705,10 +3839,10 @@
         <v>4740036</v>
       </c>
       <c r="C39" s="1">
-        <v>11850088</v>
-      </c>
-      <c r="D39" s="1">
-        <v>7110053</v>
+        <v>9613351</v>
+      </c>
+      <c r="D39" s="4">
+        <v>9613351</v>
       </c>
       <c r="E39" s="1">
         <v>454</v>
@@ -3737,10 +3871,10 @@
         <v>5052564</v>
       </c>
       <c r="C40" s="1">
-        <v>12631408</v>
-      </c>
-      <c r="D40" s="1">
-        <v>7578845</v>
+        <v>10371687</v>
+      </c>
+      <c r="D40" s="4">
+        <v>10371687</v>
       </c>
       <c r="E40" s="1">
         <v>518</v>
@@ -3769,10 +3903,10 @@
         <v>7522001</v>
       </c>
       <c r="C41" s="1">
-        <v>18805001</v>
-      </c>
-      <c r="D41" s="1">
-        <v>11283001</v>
+        <v>15493120</v>
+      </c>
+      <c r="D41" s="4">
+        <v>15493120</v>
       </c>
       <c r="E41" s="1">
         <v>590</v>
@@ -3809,7 +3943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -3851,1282 +3985,1282 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>180</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>90</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>180</v>
       </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
         <v>25</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>432</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <v>216</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>432</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>45</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>864</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <v>432</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>864</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>108</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1296</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <v>648</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1296</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>216</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1728</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="1">
         <v>864</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1728</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>432</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="1">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2160</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="1">
         <v>1080</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2160</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>864</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="1">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2592</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="1">
         <v>1296</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2592</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>1296</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="1">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>3370</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="1">
         <v>1685</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>3370</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>2592</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="1">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>8295</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="1">
         <v>4148</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>8295</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>5184</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="1">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>15034</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="1">
         <v>7517</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>15034</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>7776</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="1">
         <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>38155</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="1">
         <v>19078</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>38155</v>
       </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>10368</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="1">
         <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>55988</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="1">
         <v>27994</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>55988</v>
       </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>12960</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="1">
         <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>77968</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="1">
         <v>38984</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>77968</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <v>15552</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="1">
         <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
-        <v>104510</v>
-      </c>
-      <c r="C15" s="5">
-        <v>52255</v>
-      </c>
-      <c r="D15" s="5">
-        <v>104510</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="B15" s="4">
+        <v>98750</v>
+      </c>
+      <c r="C15" s="1">
+        <v>49375</v>
+      </c>
+      <c r="D15" s="4">
+        <v>98750</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>18144</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="1">
         <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
-        <v>136029</v>
-      </c>
-      <c r="C16" s="5">
-        <v>68015</v>
-      </c>
-      <c r="D16" s="5">
-        <v>136029</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="B16" s="4">
+        <v>124509</v>
+      </c>
+      <c r="C16" s="1">
+        <v>62255</v>
+      </c>
+      <c r="D16" s="4">
+        <v>124509</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <v>20736</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="1">
         <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
-        <v>200173</v>
-      </c>
-      <c r="C17" s="5">
-        <v>100087</v>
-      </c>
-      <c r="D17" s="5">
-        <v>200173</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="B17" s="4">
+        <v>193133</v>
+      </c>
+      <c r="C17" s="1">
+        <v>96567</v>
+      </c>
+      <c r="D17" s="4">
+        <v>193133</v>
+      </c>
+      <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>1</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="1">
         <v>23328</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="1">
         <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
-        <v>245568</v>
-      </c>
-      <c r="C18" s="5">
-        <v>122784</v>
-      </c>
-      <c r="D18" s="5">
-        <v>245568</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="B18" s="4">
+        <v>229248</v>
+      </c>
+      <c r="C18" s="1">
+        <v>114624</v>
+      </c>
+      <c r="D18" s="4">
+        <v>229248</v>
+      </c>
+      <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>1</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="1">
         <v>25920</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="1">
         <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
-        <v>294740</v>
-      </c>
-      <c r="C19" s="5">
-        <v>147370</v>
-      </c>
-      <c r="D19" s="5">
-        <v>294740</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="B19" s="4">
+        <v>255860</v>
+      </c>
+      <c r="C19" s="1">
+        <v>127930</v>
+      </c>
+      <c r="D19" s="4">
+        <v>255860</v>
+      </c>
+      <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>2</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>2</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="1">
         <v>28512</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="1">
         <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
-        <v>344205</v>
-      </c>
-      <c r="C20" s="5">
-        <v>172103</v>
-      </c>
-      <c r="D20" s="5">
-        <v>344205</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="B20" s="4">
+        <v>279245</v>
+      </c>
+      <c r="C20" s="1">
+        <v>139623</v>
+      </c>
+      <c r="D20" s="4">
+        <v>279245</v>
+      </c>
+      <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>3</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>3</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>3</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="1">
         <v>31104</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="1">
         <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
-        <v>390484</v>
-      </c>
-      <c r="C21" s="5">
-        <v>195242</v>
-      </c>
-      <c r="D21" s="5">
-        <v>390484</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="B21" s="4">
+        <v>294164</v>
+      </c>
+      <c r="C21" s="1">
+        <v>147082</v>
+      </c>
+      <c r="D21" s="4">
+        <v>294164</v>
+      </c>
+      <c r="E21" s="1">
         <v>5</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>5</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>5</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>5</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="1">
         <v>33696</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="1">
         <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
-        <v>656530</v>
-      </c>
-      <c r="C22" s="5">
-        <v>328265</v>
-      </c>
-      <c r="D22" s="5">
-        <v>656530</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="B22" s="4">
+        <v>527570</v>
+      </c>
+      <c r="C22" s="1">
+        <v>263785</v>
+      </c>
+      <c r="D22" s="4">
+        <v>527570</v>
+      </c>
+      <c r="E22" s="1">
         <v>8</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>8</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>8</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>8</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="1">
         <v>36288</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="1">
         <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20" customHeight="1">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
-        <v>724973</v>
-      </c>
-      <c r="C23" s="5">
-        <v>362487</v>
-      </c>
-      <c r="D23" s="5">
-        <v>724973</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="B23" s="4">
+        <v>554573</v>
+      </c>
+      <c r="C23" s="1">
+        <v>277287</v>
+      </c>
+      <c r="D23" s="4">
+        <v>554573</v>
+      </c>
+      <c r="E23" s="1">
         <v>12</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>12</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>12</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>12</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="1">
         <v>38880</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="1">
         <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20" customHeight="1">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
-        <v>783931</v>
-      </c>
-      <c r="C24" s="5">
-        <v>391966</v>
-      </c>
-      <c r="D24" s="5">
-        <v>783931</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="B24" s="4">
+        <v>573051</v>
+      </c>
+      <c r="C24" s="1">
+        <v>286526</v>
+      </c>
+      <c r="D24" s="4">
+        <v>573051</v>
+      </c>
+      <c r="E24" s="1">
         <v>18</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>18</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>18</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>18</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="1">
         <v>41472</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="1">
         <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="20" customHeight="1">
-      <c r="A25" s="4">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
-        <v>903432</v>
-      </c>
-      <c r="C25" s="5">
-        <v>451716</v>
-      </c>
-      <c r="D25" s="5">
-        <v>903432</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="B25" s="4">
+        <v>731912</v>
+      </c>
+      <c r="C25" s="1">
+        <v>365956</v>
+      </c>
+      <c r="D25" s="4">
+        <v>731912</v>
+      </c>
+      <c r="E25" s="1">
         <v>26</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>26</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>26</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>26</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="1">
         <v>46656</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="1">
         <v>728</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="20" customHeight="1">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
-        <v>1018996</v>
-      </c>
-      <c r="C26" s="5">
-        <v>509498</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1018996</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="B26" s="4">
+        <v>809396</v>
+      </c>
+      <c r="C26" s="1">
+        <v>404698</v>
+      </c>
+      <c r="D26" s="4">
+        <v>809396</v>
+      </c>
+      <c r="E26" s="1">
         <v>35</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>35</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>35</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>35</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="1">
         <v>51840</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="1">
         <v>788</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="20" customHeight="1">
-      <c r="A27" s="4">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
-        <v>1756098</v>
-      </c>
-      <c r="C27" s="5">
-        <v>878049</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1756098</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="B27" s="4">
+        <v>1423458</v>
+      </c>
+      <c r="C27" s="1">
+        <v>711729</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1423458</v>
+      </c>
+      <c r="E27" s="1">
         <v>47</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>47</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>47</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>47</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="1">
         <v>57024</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="1">
         <v>850</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="20" customHeight="1">
-      <c r="A28" s="4">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
-        <v>1965489</v>
-      </c>
-      <c r="C28" s="5">
-        <v>982745</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1965489</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="B28" s="4">
+        <v>1595889</v>
+      </c>
+      <c r="C28" s="1">
+        <v>797945</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1595889</v>
+      </c>
+      <c r="E28" s="1">
         <v>61</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>61</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>61</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="4">
         <v>61</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="1">
         <v>62208</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="1">
         <v>916</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="20" customHeight="1">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
-        <v>2174104</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1087052</v>
-      </c>
-      <c r="D29" s="5">
-        <v>2174104</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="B29" s="4">
+        <v>1771224</v>
+      </c>
+      <c r="C29" s="1">
+        <v>885612</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1771224</v>
+      </c>
+      <c r="E29" s="1">
         <v>78</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>78</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>78</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>78</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="1">
         <v>67392</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="1">
         <v>982</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
-        <v>2379876</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1189938</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2379876</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="B30" s="4">
+        <v>2112676</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1056338</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2112676</v>
+      </c>
+      <c r="E30" s="1">
         <v>98</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>98</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>98</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="4">
         <v>98</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="1">
         <v>72576</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="1">
         <v>1052</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="20" customHeight="1">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
-        <v>2580743</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1290372</v>
-      </c>
-      <c r="D31" s="5">
-        <v>2580743</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="B31" s="4">
+        <v>2282343</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1141172</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2282343</v>
+      </c>
+      <c r="E31" s="1">
         <v>121</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>121</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <v>121</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>121</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="1">
         <v>77760</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="1">
         <v>1124</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1">
-      <c r="A32" s="4">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
-        <v>4246249</v>
-      </c>
-      <c r="C32" s="5">
-        <v>2123125</v>
-      </c>
-      <c r="D32" s="5">
-        <v>4246249</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="B32" s="4">
+        <v>3776809</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1888405</v>
+      </c>
+      <c r="D32" s="4">
+        <v>3776809</v>
+      </c>
+      <c r="E32" s="1">
         <v>148</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>148</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>148</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>148</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="1">
         <v>82944</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="1">
         <v>1198</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="20" customHeight="1">
-      <c r="A33" s="4">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
-        <v>4623355</v>
-      </c>
-      <c r="C33" s="5">
-        <v>2311678</v>
-      </c>
-      <c r="D33" s="5">
-        <v>4623355</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="B33" s="4">
+        <v>4146555</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2073278</v>
+      </c>
+      <c r="D33" s="4">
+        <v>4146555</v>
+      </c>
+      <c r="E33" s="1">
         <v>179</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>179</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>179</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>179</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="1">
         <v>88128</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="1">
         <v>1276</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="20" customHeight="1">
-      <c r="A34" s="4">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="5">
-        <v>5004475</v>
-      </c>
-      <c r="C34" s="5">
-        <v>2502238</v>
-      </c>
-      <c r="D34" s="5">
-        <v>5004475</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="B34" s="4">
+        <v>4532475</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2266238</v>
+      </c>
+      <c r="D34" s="4">
+        <v>4532475</v>
+      </c>
+      <c r="E34" s="1">
         <v>213</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>213</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>213</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>213</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="1">
         <v>93312</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="1">
         <v>1354</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="20" customHeight="1">
-      <c r="A35" s="4">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="5">
-        <v>5388098</v>
-      </c>
-      <c r="C35" s="5">
-        <v>2694049</v>
-      </c>
-      <c r="D35" s="5">
-        <v>5388098</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="B35" s="4">
+        <v>4925538</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2462769</v>
+      </c>
+      <c r="D35" s="4">
+        <v>4925538</v>
+      </c>
+      <c r="E35" s="1">
         <v>252</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>252</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>252</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>252</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="1">
         <v>98496</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="1">
         <v>1436</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="20" customHeight="1">
-      <c r="A36" s="4">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
-        <v>5772711</v>
-      </c>
-      <c r="C36" s="5">
-        <v>2886356</v>
-      </c>
-      <c r="D36" s="5">
-        <v>5772711</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="B36" s="4">
+        <v>5333991</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2666996</v>
+      </c>
+      <c r="D36" s="4">
+        <v>5333991</v>
+      </c>
+      <c r="E36" s="1">
         <v>295</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>295</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <v>295</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="4">
         <v>295</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="1">
         <v>103680</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="1">
         <v>1520</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="20" customHeight="1">
-      <c r="A37" s="4">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
-        <v>9070004</v>
-      </c>
-      <c r="C37" s="5">
-        <v>4535002</v>
-      </c>
-      <c r="D37" s="5">
-        <v>9070004</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="B37" s="4">
+        <v>8667764</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4333882</v>
+      </c>
+      <c r="D37" s="4">
+        <v>8667764</v>
+      </c>
+      <c r="E37" s="1">
         <v>343</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>343</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <v>343</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="4">
         <v>343</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="1">
         <v>108864</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="1">
         <v>1606</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="20" customHeight="1">
-      <c r="A38" s="4">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
-        <v>9759578</v>
-      </c>
-      <c r="C38" s="5">
-        <v>4879789</v>
-      </c>
-      <c r="D38" s="5">
-        <v>9759578</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="B38" s="4">
+        <v>9410458</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4705229</v>
+      </c>
+      <c r="D38" s="4">
+        <v>9410458</v>
+      </c>
+      <c r="E38" s="1">
         <v>396</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>396</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>396</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <v>396</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="1">
         <v>114048</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="1">
         <v>1696</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="20" customHeight="1">
-      <c r="A39" s="4">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
-        <v>10465722</v>
-      </c>
-      <c r="C39" s="5">
-        <v>5232861</v>
-      </c>
-      <c r="D39" s="5">
-        <v>10465722</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="B39" s="4">
+        <v>10178842</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5089421</v>
+      </c>
+      <c r="D39" s="4">
+        <v>10178842</v>
+      </c>
+      <c r="E39" s="1">
         <v>454</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>454</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <v>454</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="4">
         <v>454</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="1">
         <v>119232</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="1">
         <v>1786</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="20" customHeight="1">
-      <c r="A40" s="4">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
-        <v>11187546</v>
-      </c>
-      <c r="C40" s="5">
-        <v>5593773</v>
-      </c>
-      <c r="D40" s="5">
-        <v>11187546</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="B40" s="4">
+        <v>10981786</v>
+      </c>
+      <c r="C40" s="1">
+        <v>5490893</v>
+      </c>
+      <c r="D40" s="4">
+        <v>10981786</v>
+      </c>
+      <c r="E40" s="1">
         <v>518</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>518</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="4">
         <v>518</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="4">
         <v>518</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="1">
         <v>124416</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="1">
         <v>1880</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="20" customHeight="1">
-      <c r="A41" s="4">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
-        <v>16476000</v>
-      </c>
-      <c r="C41" s="5">
-        <v>8238000</v>
-      </c>
-      <c r="D41" s="5">
-        <v>16476000</v>
-      </c>
-      <c r="E41" s="5">
+      <c r="B41" s="1">
+        <v>16404480</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8202240</v>
+      </c>
+      <c r="D41" s="1">
+        <v>16404480</v>
+      </c>
+      <c r="E41" s="1">
         <v>590</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <v>590</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>590</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="4">
         <v>590</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="1">
         <v>129600</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="1">
         <v>2000</v>
       </c>
     </row>
@@ -5146,8 +5280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5226,7 +5360,7 @@
       <c r="B3" s="1">
         <v>456</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>456</v>
       </c>
       <c r="D3" s="1">
@@ -5258,7 +5392,7 @@
       <c r="B4" s="1">
         <v>912</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>912</v>
       </c>
       <c r="D4" s="1">
@@ -5290,7 +5424,7 @@
       <c r="B5" s="1">
         <v>1368</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>1368</v>
       </c>
       <c r="D5" s="1">
@@ -5322,7 +5456,7 @@
       <c r="B6" s="1">
         <v>1824</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>1824</v>
       </c>
       <c r="D6" s="1">
@@ -5354,7 +5488,7 @@
       <c r="B7" s="1">
         <v>2280</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>2280</v>
       </c>
       <c r="D7" s="1">
@@ -5386,7 +5520,7 @@
       <c r="B8" s="1">
         <v>2736</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>2736</v>
       </c>
       <c r="D8" s="1">
@@ -5418,7 +5552,7 @@
       <c r="B9" s="1">
         <v>3557</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>3557</v>
       </c>
       <c r="D9" s="1">
@@ -5450,7 +5584,7 @@
       <c r="B10" s="1">
         <v>8756</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>8756</v>
       </c>
       <c r="D10" s="1">
@@ -5482,7 +5616,7 @@
       <c r="B11" s="1">
         <v>15869</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>15869</v>
       </c>
       <c r="D11" s="1">
@@ -5514,7 +5648,7 @@
       <c r="B12" s="1">
         <v>40274</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>40274</v>
       </c>
       <c r="D12" s="1">
@@ -5546,7 +5680,7 @@
       <c r="B13" s="1">
         <v>59098</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>59098</v>
       </c>
       <c r="D13" s="1">
@@ -5578,7 +5712,7 @@
       <c r="B14" s="1">
         <v>82299</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>82299</v>
       </c>
       <c r="D14" s="1">
@@ -5608,13 +5742,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>110316</v>
-      </c>
-      <c r="C15" s="4">
-        <v>110316</v>
+        <v>104236</v>
+      </c>
+      <c r="C15" s="1">
+        <v>104236</v>
       </c>
       <c r="D15" s="1">
-        <v>55158</v>
+        <v>52118</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -5640,13 +5774,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>143586</v>
-      </c>
-      <c r="C16" s="4">
-        <v>143586</v>
+        <v>131426</v>
+      </c>
+      <c r="C16" s="1">
+        <v>131426</v>
       </c>
       <c r="D16" s="1">
-        <v>71793</v>
+        <v>65713</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -5672,13 +5806,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>212183</v>
-      </c>
-      <c r="C17" s="4">
-        <v>212183</v>
+        <v>203863</v>
+      </c>
+      <c r="C17" s="1">
+        <v>203863</v>
       </c>
       <c r="D17" s="1">
-        <v>106092</v>
+        <v>101932</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -5704,13 +5838,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>260544</v>
-      </c>
-      <c r="C18" s="4">
-        <v>260544</v>
+        <v>241984</v>
+      </c>
+      <c r="C18" s="1">
+        <v>241984</v>
       </c>
       <c r="D18" s="1">
-        <v>130272</v>
+        <v>120992</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -5736,13 +5870,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>313114</v>
-      </c>
-      <c r="C19" s="4">
-        <v>313114</v>
+        <v>270074</v>
+      </c>
+      <c r="C19" s="1">
+        <v>270074</v>
       </c>
       <c r="D19" s="1">
-        <v>156557</v>
+        <v>135037</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -5768,13 +5902,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>366439</v>
-      </c>
-      <c r="C20" s="4">
-        <v>366439</v>
+        <v>294759</v>
+      </c>
+      <c r="C20" s="1">
+        <v>294759</v>
       </c>
       <c r="D20" s="1">
-        <v>183220</v>
+        <v>147380</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -5800,13 +5934,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>417066</v>
-      </c>
-      <c r="C21" s="4">
-        <v>417066</v>
+        <v>310506</v>
+      </c>
+      <c r="C21" s="1">
+        <v>310506</v>
       </c>
       <c r="D21" s="1">
-        <v>208533</v>
+        <v>155253</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -5832,13 +5966,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>700560</v>
-      </c>
-      <c r="C22" s="4">
-        <v>700560</v>
+        <v>556880</v>
+      </c>
+      <c r="C22" s="1">
+        <v>556880</v>
       </c>
       <c r="D22" s="1">
-        <v>350280</v>
+        <v>278440</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
@@ -5864,13 +5998,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>776583</v>
-      </c>
-      <c r="C23" s="4">
-        <v>776583</v>
+        <v>585383</v>
+      </c>
+      <c r="C23" s="1">
+        <v>585383</v>
       </c>
       <c r="D23" s="1">
-        <v>388292</v>
+        <v>292692</v>
       </c>
       <c r="E23" s="1">
         <v>12</v>
@@ -5896,13 +6030,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>843928</v>
-      </c>
-      <c r="C24" s="4">
-        <v>843928</v>
+        <v>604888</v>
+      </c>
+      <c r="C24" s="1">
+        <v>604888</v>
       </c>
       <c r="D24" s="1">
-        <v>421964</v>
+        <v>302444</v>
       </c>
       <c r="E24" s="1">
         <v>18</v>
@@ -5928,13 +6062,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>976734</v>
-      </c>
-      <c r="C25" s="4">
-        <v>976734</v>
+        <v>772574</v>
+      </c>
+      <c r="C25" s="1">
+        <v>772574</v>
       </c>
       <c r="D25" s="1">
-        <v>488367</v>
+        <v>386287</v>
       </c>
       <c r="E25" s="1">
         <v>26</v>
@@ -5960,13 +6094,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1107162</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1107162</v>
+        <v>854362</v>
+      </c>
+      <c r="C26" s="1">
+        <v>854362</v>
       </c>
       <c r="D26" s="1">
-        <v>553581</v>
+        <v>427181</v>
       </c>
       <c r="E26" s="1">
         <v>35</v>
@@ -5992,13 +6126,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1895659</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1895659</v>
+        <v>1502539</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1502539</v>
       </c>
       <c r="D27" s="1">
-        <v>947830</v>
+        <v>751270</v>
       </c>
       <c r="E27" s="1">
         <v>47</v>
@@ -6024,13 +6158,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>2129350</v>
-      </c>
-      <c r="C28" s="4">
-        <v>2129350</v>
+        <v>1684550</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1684550</v>
       </c>
       <c r="D28" s="1">
-        <v>1064675</v>
+        <v>842275</v>
       </c>
       <c r="E28" s="1">
         <v>61</v>
@@ -6056,13 +6190,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>2364665</v>
-      </c>
-      <c r="C29" s="4">
-        <v>2364665</v>
+        <v>1869625</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1869625</v>
       </c>
       <c r="D29" s="1">
-        <v>1182333</v>
+        <v>934813</v>
       </c>
       <c r="E29" s="1">
         <v>78</v>
@@ -6088,13 +6222,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>2599647</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2599647</v>
+        <v>2230047</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2230047</v>
       </c>
       <c r="D30" s="1">
-        <v>1299824</v>
+        <v>1115024</v>
       </c>
       <c r="E30" s="1">
         <v>98</v>
@@ -6120,13 +6254,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>2832340</v>
-      </c>
-      <c r="C31" s="4">
-        <v>2832340</v>
+        <v>2409140</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2409140</v>
       </c>
       <c r="D31" s="1">
-        <v>1416170</v>
+        <v>1204570</v>
       </c>
       <c r="E31" s="1">
         <v>121</v>
@@ -6152,13 +6286,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4614152</v>
-      </c>
-      <c r="C32" s="4">
-        <v>4614152</v>
+        <v>3986632</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3986632</v>
       </c>
       <c r="D32" s="1">
-        <v>2307076</v>
+        <v>1993316</v>
       </c>
       <c r="E32" s="1">
         <v>148</v>
@@ -6184,13 +6318,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>5039320</v>
-      </c>
-      <c r="C33" s="4">
-        <v>5039320</v>
+        <v>4376920</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4376920</v>
       </c>
       <c r="D33" s="1">
-        <v>2519660</v>
+        <v>2188460</v>
       </c>
       <c r="E33" s="1">
         <v>179</v>
@@ -6216,13 +6350,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>5472280</v>
-      </c>
-      <c r="C34" s="4">
-        <v>5472280</v>
+        <v>4784280</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4784280</v>
       </c>
       <c r="D34" s="1">
-        <v>2736140</v>
+        <v>2392140</v>
       </c>
       <c r="E34" s="1">
         <v>213</v>
@@ -6248,13 +6382,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>5911659</v>
-      </c>
-      <c r="C35" s="4">
-        <v>5911659</v>
+        <v>5199179</v>
+      </c>
+      <c r="C35" s="1">
+        <v>5199179</v>
       </c>
       <c r="D35" s="1">
-        <v>2955830</v>
+        <v>2599590</v>
       </c>
       <c r="E35" s="1">
         <v>252</v>
@@ -6280,13 +6414,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>6356084</v>
-      </c>
-      <c r="C36" s="4">
-        <v>6356084</v>
+        <v>5630324</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5630324</v>
       </c>
       <c r="D36" s="1">
-        <v>3178042</v>
+        <v>2815162</v>
       </c>
       <c r="E36" s="1">
         <v>295</v>
@@ -6312,13 +6446,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>9879226</v>
-      </c>
-      <c r="C37" s="4">
-        <v>9879226</v>
+        <v>9149306</v>
+      </c>
+      <c r="C37" s="1">
+        <v>9149306</v>
       </c>
       <c r="D37" s="1">
-        <v>4939613</v>
+        <v>4574653</v>
       </c>
       <c r="E37" s="1">
         <v>343</v>
@@ -6344,13 +6478,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>10654221</v>
-      </c>
-      <c r="C38" s="4">
-        <v>10654221</v>
+        <v>9933261</v>
+      </c>
+      <c r="C38" s="1">
+        <v>9933261</v>
       </c>
       <c r="D38" s="1">
-        <v>5327111</v>
+        <v>4966631</v>
       </c>
       <c r="E38" s="1">
         <v>396</v>
@@ -6376,13 +6510,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>11451373</v>
-      </c>
-      <c r="C39" s="4">
-        <v>11451373</v>
+        <v>10744333</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10744333</v>
       </c>
       <c r="D39" s="1">
-        <v>5725687</v>
+        <v>5372167</v>
       </c>
       <c r="E39" s="1">
         <v>454</v>
@@ -6408,13 +6542,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>12269965</v>
-      </c>
-      <c r="C40" s="4">
-        <v>12269965</v>
+        <v>11591885</v>
+      </c>
+      <c r="C40" s="1">
+        <v>11591885</v>
       </c>
       <c r="D40" s="1">
-        <v>6134983</v>
+        <v>5795943</v>
       </c>
       <c r="E40" s="1">
         <v>518</v>
@@ -6440,13 +6574,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>17884000</v>
-      </c>
-      <c r="C41" s="4">
-        <v>17884000</v>
+        <v>17315840</v>
+      </c>
+      <c r="C41" s="1">
+        <v>17315840</v>
       </c>
       <c r="D41" s="1">
-        <v>8942000</v>
+        <v>8657920</v>
       </c>
       <c r="E41" s="1">
         <v>592</v>
@@ -6484,7 +6618,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6529,13 +6663,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1">
         <v>120</v>
       </c>
       <c r="D2" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -6561,13 +6695,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="C3" s="1">
         <v>288</v>
       </c>
       <c r="D3" s="1">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -6593,13 +6727,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>960</v>
+        <v>768</v>
       </c>
       <c r="C4" s="1">
         <v>576</v>
       </c>
       <c r="D4" s="1">
-        <v>384</v>
+        <v>576</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -6625,13 +6759,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1440</v>
+        <v>1152</v>
       </c>
       <c r="C5" s="1">
         <v>864</v>
       </c>
       <c r="D5" s="1">
-        <v>576</v>
+        <v>864</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -6657,13 +6791,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1920</v>
+        <v>1536</v>
       </c>
       <c r="C6" s="1">
         <v>1152</v>
       </c>
       <c r="D6" s="1">
-        <v>768</v>
+        <v>1152</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -6689,13 +6823,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="C7" s="1">
         <v>1440</v>
       </c>
       <c r="D7" s="1">
-        <v>960</v>
+        <v>1440</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -6721,13 +6855,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2880</v>
+        <v>2304</v>
       </c>
       <c r="C8" s="1">
         <v>1728</v>
       </c>
       <c r="D8" s="1">
-        <v>1152</v>
+        <v>1728</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -6753,13 +6887,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>3744</v>
+        <v>2996</v>
       </c>
       <c r="C9" s="1">
         <v>2247</v>
       </c>
       <c r="D9" s="1">
-        <v>1498</v>
+        <v>2247</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -6785,13 +6919,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9216</v>
+        <v>7373</v>
       </c>
       <c r="C10" s="1">
         <v>5530</v>
       </c>
       <c r="D10" s="1">
-        <v>3687</v>
+        <v>5530</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -6817,13 +6951,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>16704</v>
+        <v>13364</v>
       </c>
       <c r="C11" s="1">
         <v>10023</v>
       </c>
       <c r="D11" s="1">
-        <v>6682</v>
+        <v>10023</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -6849,13 +6983,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>42394</v>
+        <v>33915</v>
       </c>
       <c r="C12" s="1">
         <v>25437</v>
       </c>
       <c r="D12" s="1">
-        <v>16958</v>
+        <v>25437</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -6881,13 +7015,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>62208</v>
+        <v>49767</v>
       </c>
       <c r="C13" s="1">
         <v>37325</v>
       </c>
       <c r="D13" s="1">
-        <v>24884</v>
+        <v>37325</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -6913,13 +7047,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>86631</v>
+        <v>69305</v>
       </c>
       <c r="C14" s="1">
         <v>51979</v>
       </c>
       <c r="D14" s="1">
-        <v>34653</v>
+        <v>51979</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -6945,13 +7079,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>116122</v>
+        <v>87778</v>
       </c>
       <c r="C15" s="1">
-        <v>69673</v>
+        <v>65833</v>
       </c>
       <c r="D15" s="1">
-        <v>46449</v>
+        <v>65833</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -6977,13 +7111,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>151143</v>
+        <v>110674</v>
       </c>
       <c r="C16" s="1">
-        <v>90686</v>
+        <v>83006</v>
       </c>
       <c r="D16" s="1">
-        <v>60457</v>
+        <v>83006</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -7009,13 +7143,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>220192</v>
+        <v>171674</v>
       </c>
       <c r="C17" s="1">
-        <v>132116</v>
+        <v>128756</v>
       </c>
       <c r="D17" s="1">
-        <v>88077</v>
+        <v>128756</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -7041,13 +7175,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>269520</v>
+        <v>203776</v>
       </c>
       <c r="C18" s="1">
-        <v>161712</v>
+        <v>152832</v>
       </c>
       <c r="D18" s="1">
-        <v>107808</v>
+        <v>152832</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -7073,13 +7207,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>322488</v>
+        <v>227431</v>
       </c>
       <c r="C19" s="1">
-        <v>193493</v>
+        <v>170573</v>
       </c>
       <c r="D19" s="1">
-        <v>128996</v>
+        <v>170573</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -7105,13 +7239,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>374672</v>
+        <v>248218</v>
       </c>
       <c r="C20" s="1">
-        <v>224804</v>
+        <v>186164</v>
       </c>
       <c r="D20" s="1">
-        <v>149869</v>
+        <v>186164</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -7137,13 +7271,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>421648</v>
+        <v>261479</v>
       </c>
       <c r="C21" s="1">
-        <v>252989</v>
+        <v>196109</v>
       </c>
       <c r="D21" s="1">
-        <v>168660</v>
+        <v>196109</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -7169,13 +7303,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>710589</v>
+        <v>468952</v>
       </c>
       <c r="C22" s="1">
-        <v>426354</v>
+        <v>351714</v>
       </c>
       <c r="D22" s="1">
-        <v>284236</v>
+        <v>351714</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
@@ -7201,13 +7335,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>777192</v>
+        <v>492954</v>
       </c>
       <c r="C23" s="1">
-        <v>466316</v>
+        <v>369716</v>
       </c>
       <c r="D23" s="1">
-        <v>310877</v>
+        <v>369716</v>
       </c>
       <c r="E23" s="1">
         <v>12</v>
@@ -7233,13 +7367,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>829924</v>
+        <v>509379</v>
       </c>
       <c r="C24" s="1">
-        <v>497954</v>
+        <v>382034</v>
       </c>
       <c r="D24" s="1">
-        <v>331970</v>
+        <v>382034</v>
       </c>
       <c r="E24" s="1">
         <v>18</v>
@@ -7265,13 +7399,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>946036</v>
+        <v>650589</v>
       </c>
       <c r="C25" s="1">
-        <v>567622</v>
+        <v>487942</v>
       </c>
       <c r="D25" s="1">
-        <v>378415</v>
+        <v>487942</v>
       </c>
       <c r="E25" s="1">
         <v>26</v>
@@ -7297,13 +7431,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1053328</v>
+        <v>719463</v>
       </c>
       <c r="C26" s="1">
-        <v>631997</v>
+        <v>539597</v>
       </c>
       <c r="D26" s="1">
-        <v>421332</v>
+        <v>539597</v>
       </c>
       <c r="E26" s="1">
         <v>35</v>
@@ -7329,13 +7463,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1846220</v>
+        <v>1265296</v>
       </c>
       <c r="C27" s="1">
-        <v>1107732</v>
+        <v>948972</v>
       </c>
       <c r="D27" s="1">
-        <v>738488</v>
+        <v>948972</v>
       </c>
       <c r="E27" s="1">
         <v>47</v>
@@ -7361,13 +7495,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>2047210</v>
+        <v>1418568</v>
       </c>
       <c r="C28" s="1">
-        <v>1228326</v>
+        <v>1063926</v>
       </c>
       <c r="D28" s="1">
-        <v>818884</v>
+        <v>1063926</v>
       </c>
       <c r="E28" s="1">
         <v>61</v>
@@ -7393,13 +7527,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>2241226</v>
+        <v>1574421</v>
       </c>
       <c r="C29" s="1">
-        <v>1344736</v>
+        <v>1180816</v>
       </c>
       <c r="D29" s="1">
-        <v>896491</v>
+        <v>1180816</v>
       </c>
       <c r="E29" s="1">
         <v>78</v>
@@ -7425,13 +7559,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>2425418</v>
+        <v>1877935</v>
       </c>
       <c r="C30" s="1">
-        <v>1455251</v>
+        <v>1408451</v>
       </c>
       <c r="D30" s="1">
-        <v>970168</v>
+        <v>1408451</v>
       </c>
       <c r="E30" s="1">
         <v>98</v>
@@ -7457,13 +7591,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>2596936</v>
+        <v>2028749</v>
       </c>
       <c r="C31" s="1">
-        <v>1558162</v>
+        <v>1521562</v>
       </c>
       <c r="D31" s="1">
-        <v>1038775</v>
+        <v>1521562</v>
       </c>
       <c r="E31" s="1">
         <v>121</v>
@@ -7489,13 +7623,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4388055</v>
+        <v>3357164</v>
       </c>
       <c r="C32" s="1">
-        <v>2632833</v>
+        <v>2517873</v>
       </c>
       <c r="D32" s="1">
-        <v>1755222</v>
+        <v>2517873</v>
       </c>
       <c r="E32" s="1">
         <v>148</v>
@@ -7521,13 +7655,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4739284</v>
+        <v>3685827</v>
       </c>
       <c r="C33" s="1">
-        <v>2843570</v>
+        <v>2764370</v>
       </c>
       <c r="D33" s="1">
-        <v>1895714</v>
+        <v>2764370</v>
       </c>
       <c r="E33" s="1">
         <v>179</v>
@@ -7553,13 +7687,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>5086084</v>
+        <v>4028867</v>
       </c>
       <c r="C34" s="1">
-        <v>3051650</v>
+        <v>3021650</v>
       </c>
       <c r="D34" s="1">
-        <v>2034434</v>
+        <v>3021650</v>
       </c>
       <c r="E34" s="1">
         <v>213</v>
@@ -7585,13 +7719,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>5426220</v>
+        <v>4378256</v>
       </c>
       <c r="C35" s="1">
-        <v>3255732</v>
+        <v>3283692</v>
       </c>
       <c r="D35" s="1">
-        <v>2170488</v>
+        <v>3283692</v>
       </c>
       <c r="E35" s="1">
         <v>252</v>
@@ -7617,13 +7751,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>5757456</v>
+        <v>4741325</v>
       </c>
       <c r="C36" s="1">
-        <v>3454474</v>
+        <v>3555994</v>
       </c>
       <c r="D36" s="1">
-        <v>2302983</v>
+        <v>3555994</v>
       </c>
       <c r="E36" s="1">
         <v>295</v>
@@ -7649,13 +7783,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>9314448</v>
+        <v>7704679</v>
       </c>
       <c r="C37" s="1">
-        <v>5588669</v>
+        <v>5778509</v>
       </c>
       <c r="D37" s="1">
-        <v>3725780</v>
+        <v>5778509</v>
       </c>
       <c r="E37" s="1">
         <v>343</v>
@@ -7681,13 +7815,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>9962864</v>
+        <v>8364852</v>
       </c>
       <c r="C38" s="1">
-        <v>5977719</v>
+        <v>6273639</v>
       </c>
       <c r="D38" s="1">
-        <v>3985146</v>
+        <v>6273639</v>
       </c>
       <c r="E38" s="1">
         <v>396</v>
@@ -7713,13 +7847,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>10618024</v>
+        <v>9047860</v>
       </c>
       <c r="C39" s="1">
-        <v>6370815</v>
+        <v>6785895</v>
       </c>
       <c r="D39" s="1">
-        <v>4247210</v>
+        <v>6785895</v>
       </c>
       <c r="E39" s="1">
         <v>454</v>
@@ -7745,13 +7879,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>11278384</v>
+        <v>9761588</v>
       </c>
       <c r="C40" s="1">
-        <v>6767031</v>
+        <v>7321191</v>
       </c>
       <c r="D40" s="1">
-        <v>4511354</v>
+        <v>7321191</v>
       </c>
       <c r="E40" s="1">
         <v>518</v>
@@ -7777,13 +7911,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>16955000</v>
+        <v>14581760</v>
       </c>
       <c r="C41" s="1">
-        <v>10173000</v>
+        <v>10936320</v>
       </c>
       <c r="D41" s="1">
-        <v>6782000</v>
+        <v>10936320</v>
       </c>
       <c r="E41" s="1">
         <v>592</v>

--- a/datas/shared/HouseLevelUp.xlsx
+++ b/datas/shared/HouseLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="34740" windowHeight="19960" tabRatio="239" activeTab="4"/>
+    <workbookView xWindow="1580" yWindow="0" windowWidth="25000" windowHeight="15600" tabRatio="347"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -247,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="276">
+  <cellStyleXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -262,6 +262,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -544,7 +554,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="276">
+  <cellStyles count="286">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -685,6 +695,11 @@
     <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -818,6 +833,11 @@
     <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1269,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1336,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -1368,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1464,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -2606,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2673,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -2705,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1">
         <v>16</v>
@@ -2737,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J4" s="1">
         <v>22</v>
@@ -2769,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="J5" s="1">
         <v>32</v>
@@ -2801,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>408</v>
+        <v>285</v>
       </c>
       <c r="J6" s="1">
         <v>44</v>
@@ -3943,8 +3963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4010,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -4042,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1">
         <v>16</v>
@@ -4074,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J4" s="1">
         <v>22</v>
@@ -4106,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="J5" s="1">
         <v>32</v>
@@ -4138,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>432</v>
+        <v>290</v>
       </c>
       <c r="J6" s="1">
         <v>44</v>
@@ -5280,8 +5300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5379,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J3" s="1">
         <v>16</v>
@@ -5443,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="J5" s="1">
         <v>32</v>
@@ -5475,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>456</v>
+        <v>295</v>
       </c>
       <c r="J6" s="1">
         <v>44</v>
@@ -6617,8 +6637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showRuler="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6684,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -6716,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J3" s="1">
         <v>16</v>
@@ -6748,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J4" s="1">
         <v>22</v>
@@ -6780,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="J5" s="1">
         <v>32</v>
@@ -6812,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>384</v>
+        <v>280</v>
       </c>
       <c r="J6" s="1">
         <v>44</v>

--- a/datas/shared/HouseLevelUp.xlsx
+++ b/datas/shared/HouseLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="0" windowWidth="25000" windowHeight="15600" tabRatio="347"/>
+    <workbookView xWindow="1580" yWindow="0" windowWidth="28040" windowHeight="15600" tabRatio="347"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -247,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="286">
+  <cellStyleXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -262,6 +262,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -554,7 +558,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="286">
+  <cellStyles count="290">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -700,6 +704,8 @@
     <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -838,6 +844,8 @@
     <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1289,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1356,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -1452,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -2627,7 +2635,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I41"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2693,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -3964,7 +3972,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I41"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4030,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -5301,7 +5309,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I41"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5367,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -6638,7 +6646,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I41"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6704,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>

--- a/datas/shared/HouseLevelUp.xlsx
+++ b/datas/shared/HouseLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="0" windowWidth="28040" windowHeight="15600" tabRatio="347"/>
+    <workbookView xWindow="1580" yWindow="0" windowWidth="28040" windowHeight="15600" tabRatio="347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -2635,7 +2635,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -3972,7 +3972,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -5309,7 +5309,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -6645,8 +6645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>

--- a/datas/shared/HouseLevelUp.xlsx
+++ b/datas/shared/HouseLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="0" windowWidth="28040" windowHeight="15600" tabRatio="347" activeTab="4"/>
+    <workbookView xWindow="5300" yWindow="2000" windowWidth="28040" windowHeight="15600" tabRatio="347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -247,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="290">
+  <cellStyleXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -262,6 +262,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -558,7 +608,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="290">
+  <cellStyles count="340">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -706,6 +756,31 @@
     <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -846,6 +921,31 @@
     <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1295,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1343,28 +1443,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1">
-        <v>150</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
+        <v>190</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -1375,13 +1475,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="C3" s="1">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="D3" s="1">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -1407,13 +1507,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>960</v>
+        <v>770</v>
       </c>
       <c r="C4" s="1">
-        <v>720</v>
+        <v>580</v>
       </c>
       <c r="D4" s="1">
-        <v>720</v>
+        <v>580</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -1439,13 +1539,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1440</v>
+        <v>1060</v>
       </c>
       <c r="C5" s="1">
-        <v>1080</v>
+        <v>790</v>
       </c>
       <c r="D5" s="1">
-        <v>1080</v>
+        <v>790</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -1471,13 +1571,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1920</v>
+        <v>1480</v>
       </c>
       <c r="C6" s="1">
-        <v>1440</v>
+        <v>1110</v>
       </c>
       <c r="D6" s="1">
-        <v>1440</v>
+        <v>1110</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -1492,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1503,13 +1603,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2400</v>
+        <v>1840</v>
       </c>
       <c r="C7" s="1">
-        <v>1800</v>
+        <v>1380</v>
       </c>
       <c r="D7" s="1">
-        <v>1800</v>
+        <v>1380</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -1524,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>960</v>
+        <v>350</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1535,13 +1635,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2880</v>
+        <v>3180</v>
       </c>
       <c r="C8" s="1">
-        <v>2160</v>
+        <v>2380</v>
       </c>
       <c r="D8" s="1">
-        <v>2160</v>
+        <v>2380</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1556,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1440</v>
+        <v>410</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1567,13 +1667,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>3744</v>
+        <v>6600</v>
       </c>
       <c r="C9" s="1">
-        <v>2808</v>
+        <v>4950</v>
       </c>
       <c r="D9" s="1">
-        <v>2808</v>
+        <v>4950</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1588,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>2880</v>
+        <v>590</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1599,13 +1699,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9216</v>
+        <v>14720</v>
       </c>
       <c r="C10" s="1">
-        <v>6912</v>
+        <v>11040</v>
       </c>
       <c r="D10" s="1">
-        <v>6912</v>
+        <v>11040</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1620,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>5760</v>
+        <v>950</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1631,13 +1731,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>16704</v>
+        <v>22460</v>
       </c>
       <c r="C11" s="1">
-        <v>12528</v>
+        <v>16840</v>
       </c>
       <c r="D11" s="1">
-        <v>12528</v>
+        <v>16840</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1652,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>8640</v>
+        <v>1310</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1663,13 +1763,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>42394</v>
+        <v>31210</v>
       </c>
       <c r="C12" s="1">
-        <v>31796</v>
+        <v>23410</v>
       </c>
       <c r="D12" s="1">
-        <v>31796</v>
+        <v>23410</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1684,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>11520</v>
+        <v>1670</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1695,13 +1795,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>62208</v>
+        <v>39730</v>
       </c>
       <c r="C13" s="1">
-        <v>46656</v>
+        <v>29800</v>
       </c>
       <c r="D13" s="1">
-        <v>46656</v>
+        <v>29800</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1716,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>14400</v>
+        <v>2030</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1727,13 +1827,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>86631</v>
+        <v>52650</v>
       </c>
       <c r="C14" s="1">
-        <v>64973</v>
+        <v>39490</v>
       </c>
       <c r="D14" s="1">
-        <v>64973</v>
+        <v>39490</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -1748,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>17280</v>
+        <v>2390</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1759,13 +1859,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>109722</v>
+        <v>107260</v>
       </c>
       <c r="C15" s="1">
-        <v>87092</v>
+        <v>80450</v>
       </c>
       <c r="D15" s="1">
-        <v>87092</v>
+        <v>80450</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -1780,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>20160</v>
+        <v>4550</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -1791,13 +1891,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>138343</v>
+        <v>148610</v>
       </c>
       <c r="C16" s="1">
-        <v>101357</v>
+        <v>111460</v>
       </c>
       <c r="D16" s="1">
-        <v>101357</v>
+        <v>111460</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -1812,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>23040</v>
+        <v>6710</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -1823,13 +1923,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>214592</v>
+        <v>194050</v>
       </c>
       <c r="C17" s="1">
-        <v>156144</v>
+        <v>145540</v>
       </c>
       <c r="D17" s="1">
-        <v>156144</v>
+        <v>145540</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -1844,7 +1944,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>25920</v>
+        <v>8870</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -1855,28 +1955,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>254720</v>
+        <v>263250</v>
       </c>
       <c r="C18" s="1">
-        <v>185640</v>
+        <v>197440</v>
       </c>
       <c r="D18" s="1">
-        <v>185640</v>
+        <v>197440</v>
       </c>
       <c r="E18" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>28800</v>
+        <v>11030</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -1887,28 +1987,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>284288</v>
+        <v>303510</v>
       </c>
       <c r="C19" s="1">
-        <v>215616</v>
+        <v>227630</v>
       </c>
       <c r="D19" s="1">
-        <v>215616</v>
+        <v>227630</v>
       </c>
       <c r="E19" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>31680</v>
+        <v>13190</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -1919,28 +2019,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>310272</v>
+        <v>319610</v>
       </c>
       <c r="C20" s="1">
-        <v>243504</v>
+        <v>239710</v>
       </c>
       <c r="D20" s="1">
-        <v>243504</v>
+        <v>239710</v>
       </c>
       <c r="E20" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G20" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H20" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>34560</v>
+        <v>15350</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -1951,28 +2051,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>326848</v>
+        <v>331440</v>
       </c>
       <c r="C21" s="1">
-        <v>266736</v>
+        <v>248580</v>
       </c>
       <c r="D21" s="1">
-        <v>266736</v>
+        <v>248580</v>
       </c>
       <c r="E21" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G21" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H21" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I21" s="1">
-        <v>37440</v>
+        <v>17510</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -1983,28 +2083,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>586189</v>
+        <v>469990</v>
       </c>
       <c r="C22" s="1">
-        <v>471442</v>
+        <v>352490</v>
       </c>
       <c r="D22" s="1">
-        <v>471442</v>
+        <v>352490</v>
       </c>
       <c r="E22" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F22" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G22" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H22" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I22" s="1">
-        <v>40320</v>
+        <v>19670</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -2015,13 +2115,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>616192</v>
+        <v>512610</v>
       </c>
       <c r="C23" s="1">
-        <v>510144</v>
+        <v>384460</v>
       </c>
       <c r="D23" s="1">
-        <v>510144</v>
+        <v>384460</v>
       </c>
       <c r="E23" s="4">
         <v>22</v>
@@ -2036,7 +2136,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="1">
-        <v>43200</v>
+        <v>21830</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -2047,28 +2147,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>636724</v>
+        <v>579990</v>
       </c>
       <c r="C24" s="1">
-        <v>539943</v>
+        <v>435000</v>
       </c>
       <c r="D24" s="1">
-        <v>539943</v>
+        <v>435000</v>
       </c>
       <c r="E24" s="4">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F24" s="4">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G24" s="4">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H24" s="4">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I24" s="1">
-        <v>46080</v>
+        <v>23990</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -2079,28 +2179,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>813236</v>
+        <v>638630</v>
       </c>
       <c r="C25" s="1">
-        <v>619527</v>
+        <v>478970</v>
       </c>
       <c r="D25" s="1">
-        <v>619527</v>
+        <v>478970</v>
       </c>
       <c r="E25" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F25" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G25" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H25" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I25" s="1">
-        <v>51840</v>
+        <v>26150</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -2111,28 +2211,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>899328</v>
+        <v>891270</v>
       </c>
       <c r="C26" s="1">
-        <v>695496</v>
+        <v>668450</v>
       </c>
       <c r="D26" s="1">
-        <v>695496</v>
+        <v>668450</v>
       </c>
       <c r="E26" s="4">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F26" s="4">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G26" s="4">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H26" s="4">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I26" s="1">
-        <v>57600</v>
+        <v>28310</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -2143,28 +2243,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1581620</v>
+        <v>892390</v>
       </c>
       <c r="C27" s="1">
-        <v>1289415</v>
+        <v>669290</v>
       </c>
       <c r="D27" s="1">
-        <v>1289415</v>
+        <v>669290</v>
       </c>
       <c r="E27" s="4">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F27" s="4">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G27" s="4">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="H27" s="4">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I27" s="1">
-        <v>63360</v>
+        <v>30470</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -2175,28 +2275,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1773210</v>
+        <v>931930</v>
       </c>
       <c r="C28" s="1">
-        <v>1443908</v>
+        <v>698950</v>
       </c>
       <c r="D28" s="1">
-        <v>1443908</v>
+        <v>698950</v>
       </c>
       <c r="E28" s="4">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F28" s="4">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G28" s="4">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="H28" s="4">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I28" s="1">
-        <v>69120</v>
+        <v>32630</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -2207,28 +2307,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1968026</v>
+        <v>958850</v>
       </c>
       <c r="C29" s="1">
-        <v>1598420</v>
+        <v>719140</v>
       </c>
       <c r="D29" s="1">
-        <v>1598420</v>
+        <v>719140</v>
       </c>
       <c r="E29" s="4">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F29" s="4">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="G29" s="4">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="H29" s="4">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="I29" s="1">
-        <v>74880</v>
+        <v>34790</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -2239,28 +2339,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>2347418</v>
+        <v>1549890</v>
       </c>
       <c r="C30" s="1">
-        <v>1751564</v>
+        <v>1162420</v>
       </c>
       <c r="D30" s="1">
-        <v>1751564</v>
+        <v>1162420</v>
       </c>
       <c r="E30" s="4">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="F30" s="4">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="G30" s="4">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="H30" s="4">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="I30" s="1">
-        <v>80640</v>
+        <v>39110</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -2271,28 +2371,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>2535936</v>
+        <v>1672020</v>
       </c>
       <c r="C31" s="1">
-        <v>1901952</v>
+        <v>1254020</v>
       </c>
       <c r="D31" s="1">
-        <v>1901952</v>
+        <v>1254020</v>
       </c>
       <c r="E31" s="4">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="F31" s="4">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="G31" s="4">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="H31" s="4">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="I31" s="1">
-        <v>86400</v>
+        <v>43430</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -2303,28 +2403,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>4196455</v>
+        <v>1874630</v>
       </c>
       <c r="C32" s="1">
-        <v>3274541</v>
+        <v>1405980</v>
       </c>
       <c r="D32" s="1">
-        <v>3274541</v>
+        <v>1405980</v>
       </c>
       <c r="E32" s="4">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="F32" s="4">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="G32" s="4">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="H32" s="4">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="I32" s="1">
-        <v>92160</v>
+        <v>47750</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -2335,28 +2435,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4607284</v>
+        <v>2078920</v>
       </c>
       <c r="C33" s="1">
-        <v>3575463</v>
+        <v>1559190</v>
       </c>
       <c r="D33" s="1">
-        <v>3575463</v>
+        <v>1559190</v>
       </c>
       <c r="E33" s="4">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="F33" s="4">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="G33" s="4">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="H33" s="4">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="I33" s="1">
-        <v>97920</v>
+        <v>52070</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -2367,28 +2467,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>5036084</v>
+        <v>3331820</v>
       </c>
       <c r="C34" s="1">
-        <v>3882063</v>
+        <v>2498860</v>
       </c>
       <c r="D34" s="1">
-        <v>3882063</v>
+        <v>2498860</v>
       </c>
       <c r="E34" s="4">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="F34" s="4">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="G34" s="4">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="H34" s="4">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="I34" s="1">
-        <v>103680</v>
+        <v>56390</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -2399,28 +2499,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>5472820</v>
+        <v>3595350</v>
       </c>
       <c r="C35" s="1">
-        <v>4193415</v>
+        <v>2696520</v>
       </c>
       <c r="D35" s="1">
-        <v>4193415</v>
+        <v>2696520</v>
       </c>
       <c r="E35" s="4">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="F35" s="4">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="G35" s="4">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="H35" s="4">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="I35" s="1">
-        <v>109440</v>
+        <v>60710</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -2431,28 +2531,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>5926656</v>
+        <v>3983680</v>
       </c>
       <c r="C36" s="1">
-        <v>4508592</v>
+        <v>2987760</v>
       </c>
       <c r="D36" s="1">
-        <v>4508592</v>
+        <v>2987760</v>
       </c>
       <c r="E36" s="4">
-        <v>353</v>
+        <v>240</v>
       </c>
       <c r="F36" s="4">
-        <v>353</v>
+        <v>240</v>
       </c>
       <c r="G36" s="4">
-        <v>353</v>
+        <v>240</v>
       </c>
       <c r="H36" s="4">
-        <v>353</v>
+        <v>240</v>
       </c>
       <c r="I36" s="1">
-        <v>115200</v>
+        <v>65030</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -2463,28 +2563,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>9630848</v>
+        <v>4378590</v>
       </c>
       <c r="C37" s="1">
-        <v>7254336</v>
+        <v>3283940</v>
       </c>
       <c r="D37" s="1">
-        <v>7254336</v>
+        <v>3283940</v>
       </c>
       <c r="E37" s="4">
-        <v>407</v>
+        <v>270</v>
       </c>
       <c r="F37" s="4">
-        <v>407</v>
+        <v>270</v>
       </c>
       <c r="G37" s="4">
-        <v>407</v>
+        <v>270</v>
       </c>
       <c r="H37" s="4">
-        <v>407</v>
+        <v>270</v>
       </c>
       <c r="I37" s="1">
-        <v>120960</v>
+        <v>69350</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -2495,28 +2595,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>10456064</v>
+        <v>6907950</v>
       </c>
       <c r="C38" s="1">
-        <v>7830648</v>
+        <v>5180960</v>
       </c>
       <c r="D38" s="1">
-        <v>7830648</v>
+        <v>5180960</v>
       </c>
       <c r="E38" s="4">
-        <v>465</v>
+        <v>310</v>
       </c>
       <c r="F38" s="4">
-        <v>465</v>
+        <v>310</v>
       </c>
       <c r="G38" s="4">
-        <v>465</v>
+        <v>310</v>
       </c>
       <c r="H38" s="4">
-        <v>465</v>
+        <v>310</v>
       </c>
       <c r="I38" s="1">
-        <v>126720</v>
+        <v>73670</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -2527,28 +2627,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>11309824</v>
+        <v>7506050</v>
       </c>
       <c r="C39" s="1">
-        <v>8424768</v>
+        <v>5629540</v>
       </c>
       <c r="D39" s="1">
-        <v>8424768</v>
+        <v>5629540</v>
       </c>
       <c r="E39" s="4">
-        <v>530</v>
+        <v>350</v>
       </c>
       <c r="F39" s="4">
-        <v>530</v>
+        <v>350</v>
       </c>
       <c r="G39" s="4">
-        <v>530</v>
+        <v>350</v>
       </c>
       <c r="H39" s="4">
-        <v>530</v>
+        <v>350</v>
       </c>
       <c r="I39" s="1">
-        <v>132480</v>
+        <v>77990</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -2559,28 +2659,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>12201984</v>
+        <v>8283650</v>
       </c>
       <c r="C40" s="1">
-        <v>9036288</v>
+        <v>6212740</v>
       </c>
       <c r="D40" s="1">
-        <v>9036288</v>
+        <v>6212740</v>
       </c>
       <c r="E40" s="4">
-        <v>600</v>
+        <v>390</v>
       </c>
       <c r="F40" s="4">
-        <v>600</v>
+        <v>390</v>
       </c>
       <c r="G40" s="4">
-        <v>600</v>
+        <v>390</v>
       </c>
       <c r="H40" s="4">
-        <v>600</v>
+        <v>390</v>
       </c>
       <c r="I40" s="1">
-        <v>138240</v>
+        <v>82310</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -2591,32 +2691,37 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>18227200</v>
+        <v>9092230</v>
       </c>
       <c r="C41" s="1">
-        <v>13476000</v>
+        <v>6819170</v>
       </c>
       <c r="D41" s="1">
-        <v>13476000</v>
-      </c>
-      <c r="E41" s="4">
-        <v>680</v>
+        <v>6819170</v>
+      </c>
+      <c r="E41" s="1">
+        <v>430</v>
       </c>
       <c r="F41" s="4">
-        <v>680</v>
+        <v>430</v>
       </c>
       <c r="G41" s="4">
-        <v>680</v>
+        <v>430</v>
       </c>
       <c r="H41" s="4">
-        <v>680</v>
+        <v>430</v>
       </c>
       <c r="I41" s="1">
-        <v>144000</v>
+        <v>86630</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
       </c>
+    </row>
+    <row r="42" spans="1:10" ht="20" customHeight="1">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2632,10 +2737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2680,28 +2785,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>171</v>
-      </c>
-      <c r="D2" s="1">
-        <v>171</v>
+        <v>200</v>
+      </c>
+      <c r="D2" s="4">
+        <v>200</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -2712,13 +2817,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D3" s="4">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2733,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
         <v>16</v>
@@ -2744,13 +2849,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>409</v>
+        <v>310</v>
       </c>
       <c r="C4" s="1">
-        <v>817</v>
+        <v>620</v>
       </c>
       <c r="D4" s="4">
-        <v>817</v>
+        <v>620</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2765,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="J4" s="1">
         <v>22</v>
@@ -2776,13 +2881,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>612</v>
+        <v>430</v>
       </c>
       <c r="C5" s="1">
-        <v>1224</v>
+        <v>850</v>
       </c>
       <c r="D5" s="4">
-        <v>1224</v>
+        <v>850</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2797,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="J5" s="1">
         <v>32</v>
@@ -2808,13 +2913,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>817</v>
+        <v>600</v>
       </c>
       <c r="C6" s="1">
-        <v>1633</v>
+        <v>1190</v>
       </c>
       <c r="D6" s="4">
-        <v>1633</v>
+        <v>1190</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -2829,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="J6" s="1">
         <v>44</v>
@@ -2840,13 +2945,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1020</v>
+        <v>740</v>
       </c>
       <c r="C7" s="1">
-        <v>2040</v>
+        <v>1470</v>
       </c>
       <c r="D7" s="4">
-        <v>2040</v>
+        <v>1470</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2861,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>816</v>
+        <v>316</v>
       </c>
       <c r="J7" s="1">
         <v>58</v>
@@ -2872,13 +2977,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1224</v>
+        <v>1270</v>
       </c>
       <c r="C8" s="1">
-        <v>2448</v>
+        <v>2540</v>
       </c>
       <c r="D8" s="4">
-        <v>2448</v>
+        <v>2540</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2893,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1224</v>
+        <v>374</v>
       </c>
       <c r="J8" s="1">
         <v>76</v>
@@ -2904,13 +3009,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1592</v>
+        <v>2640</v>
       </c>
       <c r="C9" s="1">
-        <v>3183</v>
+        <v>5280</v>
       </c>
       <c r="D9" s="4">
-        <v>3183</v>
+        <v>5280</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -2925,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>2448</v>
+        <v>518</v>
       </c>
       <c r="J9" s="1">
         <v>94</v>
@@ -2936,13 +3041,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3917</v>
+        <v>5890</v>
       </c>
       <c r="C10" s="1">
-        <v>7834</v>
+        <v>11780</v>
       </c>
       <c r="D10" s="4">
-        <v>7834</v>
+        <v>11780</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2957,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>4896</v>
+        <v>806</v>
       </c>
       <c r="J10" s="1">
         <v>116</v>
@@ -2968,13 +3073,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>7100</v>
+        <v>8990</v>
       </c>
       <c r="C11" s="1">
-        <v>14199</v>
+        <v>17970</v>
       </c>
       <c r="D11" s="4">
-        <v>14199</v>
+        <v>17970</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2989,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>7344</v>
+        <v>1094</v>
       </c>
       <c r="J11" s="1">
         <v>140</v>
@@ -3000,13 +3105,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>18018</v>
+        <v>12490</v>
       </c>
       <c r="C12" s="1">
-        <v>36035</v>
+        <v>24970</v>
       </c>
       <c r="D12" s="4">
-        <v>36035</v>
+        <v>24970</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -3021,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>9792</v>
+        <v>1382</v>
       </c>
       <c r="J12" s="1">
         <v>166</v>
@@ -3032,13 +3137,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>26439</v>
+        <v>15890</v>
       </c>
       <c r="C13" s="1">
-        <v>52877</v>
+        <v>31780</v>
       </c>
       <c r="D13" s="4">
-        <v>52877</v>
+        <v>31780</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -3053,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>12240</v>
+        <v>1670</v>
       </c>
       <c r="J13" s="1">
         <v>196</v>
@@ -3064,13 +3169,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>36818</v>
+        <v>21060</v>
       </c>
       <c r="C14" s="1">
-        <v>73636</v>
+        <v>42120</v>
       </c>
       <c r="D14" s="4">
-        <v>73636</v>
+        <v>42120</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -3085,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>14688</v>
+        <v>1958</v>
       </c>
       <c r="J14" s="1">
         <v>226</v>
@@ -3096,13 +3201,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>49352</v>
+        <v>42910</v>
       </c>
       <c r="C15" s="1">
-        <v>93264</v>
+        <v>85810</v>
       </c>
       <c r="D15" s="4">
-        <v>93264</v>
+        <v>85810</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -3117,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>17136</v>
+        <v>3686</v>
       </c>
       <c r="J15" s="1">
         <v>260</v>
@@ -3128,28 +3233,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>64236</v>
+        <v>57530</v>
       </c>
       <c r="C16" s="1">
-        <v>117592</v>
+        <v>115050</v>
       </c>
       <c r="D16" s="4">
-        <v>117592</v>
+        <v>115050</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>19584</v>
+        <v>5414</v>
       </c>
       <c r="J16" s="1">
         <v>296</v>
@@ -3160,28 +3265,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>94082</v>
+        <v>73780</v>
       </c>
       <c r="C17" s="1">
-        <v>182404</v>
+        <v>147560</v>
       </c>
       <c r="D17" s="4">
-        <v>182404</v>
+        <v>147560</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>22032</v>
+        <v>7142</v>
       </c>
       <c r="J17" s="1">
         <v>334</v>
@@ -3192,28 +3297,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>115296</v>
+        <v>97620</v>
       </c>
       <c r="C18" s="1">
-        <v>216512</v>
+        <v>195240</v>
       </c>
       <c r="D18" s="4">
-        <v>216512</v>
+        <v>195240</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>24480</v>
+        <v>8870</v>
       </c>
       <c r="J18" s="1">
         <v>376</v>
@@ -3224,28 +3329,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>138183</v>
+        <v>109890</v>
       </c>
       <c r="C19" s="1">
-        <v>241645</v>
+        <v>219770</v>
       </c>
       <c r="D19" s="4">
-        <v>241645</v>
+        <v>219770</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F19" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H19" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>26928</v>
+        <v>10598</v>
       </c>
       <c r="J19" s="1">
         <v>418</v>
@@ -3256,28 +3361,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>160986</v>
+        <v>127850</v>
       </c>
       <c r="C20" s="1">
-        <v>263732</v>
+        <v>255690</v>
       </c>
       <c r="D20" s="4">
-        <v>263732</v>
+        <v>255690</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F20" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G20" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H20" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I20" s="1">
-        <v>29376</v>
+        <v>12326</v>
       </c>
       <c r="J20" s="1">
         <v>464</v>
@@ -3288,28 +3393,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>181951</v>
+        <v>144100</v>
       </c>
       <c r="C21" s="1">
-        <v>277821</v>
+        <v>288190</v>
       </c>
       <c r="D21" s="4">
-        <v>277821</v>
+        <v>288190</v>
       </c>
       <c r="E21" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H21" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>31824</v>
+        <v>14054</v>
       </c>
       <c r="J21" s="1">
         <v>512</v>
@@ -3320,28 +3425,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>306251</v>
+        <v>191840</v>
       </c>
       <c r="C22" s="1">
-        <v>498261</v>
+        <v>383670</v>
       </c>
       <c r="D22" s="4">
-        <v>498261</v>
+        <v>383670</v>
       </c>
       <c r="E22" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F22" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G22" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H22" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I22" s="1">
-        <v>34272</v>
+        <v>15782</v>
       </c>
       <c r="J22" s="1">
         <v>562</v>
@@ -3352,28 +3457,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>336682</v>
+        <v>201210</v>
       </c>
       <c r="C23" s="1">
-        <v>523764</v>
+        <v>402410</v>
       </c>
       <c r="D23" s="4">
-        <v>523764</v>
+        <v>402410</v>
       </c>
       <c r="E23" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F23" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G23" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H23" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>36720</v>
+        <v>17510</v>
       </c>
       <c r="J23" s="1">
         <v>616</v>
@@ -3384,28 +3489,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>361968</v>
+        <v>220480</v>
       </c>
       <c r="C24" s="1">
-        <v>541215</v>
+        <v>440960</v>
       </c>
       <c r="D24" s="4">
-        <v>541215</v>
+        <v>440960</v>
       </c>
       <c r="E24" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>39168</v>
+        <v>19238</v>
       </c>
       <c r="J24" s="1">
         <v>670</v>
@@ -3416,13 +3521,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>415065</v>
+        <v>236250</v>
       </c>
       <c r="C25" s="1">
-        <v>691250</v>
+        <v>472500</v>
       </c>
       <c r="D25" s="4">
-        <v>691250</v>
+        <v>472500</v>
       </c>
       <c r="E25" s="1">
         <v>26</v>
@@ -3437,7 +3542,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="1">
-        <v>44064</v>
+        <v>20966</v>
       </c>
       <c r="J25" s="1">
         <v>728</v>
@@ -3448,28 +3553,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>465415</v>
+        <v>356510</v>
       </c>
       <c r="C26" s="1">
-        <v>764429</v>
+        <v>713020</v>
       </c>
       <c r="D26" s="4">
-        <v>764429</v>
+        <v>713020</v>
       </c>
       <c r="E26" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F26" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G26" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H26" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I26" s="1">
-        <v>48960</v>
+        <v>22694</v>
       </c>
       <c r="J26" s="1">
         <v>788</v>
@@ -3480,28 +3585,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>808269</v>
+        <v>376160</v>
       </c>
       <c r="C27" s="1">
-        <v>1344377</v>
+        <v>752310</v>
       </c>
       <c r="D27" s="4">
-        <v>1344377</v>
+        <v>752310</v>
       </c>
       <c r="E27" s="1">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F27" s="4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G27" s="4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H27" s="4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I27" s="1">
-        <v>53856</v>
+        <v>24422</v>
       </c>
       <c r="J27" s="1">
         <v>850</v>
@@ -3512,28 +3617,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>900815</v>
+        <v>411170</v>
       </c>
       <c r="C28" s="1">
-        <v>1507229</v>
+        <v>822340</v>
       </c>
       <c r="D28" s="4">
-        <v>1507229</v>
+        <v>822340</v>
       </c>
       <c r="E28" s="1">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F28" s="4">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G28" s="4">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H28" s="4">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I28" s="1">
-        <v>58752</v>
+        <v>26150</v>
       </c>
       <c r="J28" s="1">
         <v>916</v>
@@ -3544,28 +3649,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>991771</v>
+        <v>441140</v>
       </c>
       <c r="C29" s="1">
-        <v>1672822</v>
+        <v>882280</v>
       </c>
       <c r="D29" s="4">
-        <v>1672822</v>
+        <v>882280</v>
       </c>
       <c r="E29" s="1">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F29" s="4">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G29" s="4">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="H29" s="4">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I29" s="1">
-        <v>63648</v>
+        <v>27878</v>
       </c>
       <c r="J29" s="1">
         <v>982</v>
@@ -3576,28 +3681,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1080053</v>
+        <v>696760</v>
       </c>
       <c r="C30" s="1">
-        <v>1995305</v>
+        <v>1393510</v>
       </c>
       <c r="D30" s="4">
-        <v>1995305</v>
+        <v>1393510</v>
       </c>
       <c r="E30" s="1">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F30" s="4">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="G30" s="4">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H30" s="4">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="I30" s="1">
-        <v>68544</v>
+        <v>31334</v>
       </c>
       <c r="J30" s="1">
         <v>1052</v>
@@ -3608,28 +3713,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1164573</v>
+        <v>764810</v>
       </c>
       <c r="C31" s="1">
-        <v>2155546</v>
+        <v>1529620</v>
       </c>
       <c r="D31" s="4">
-        <v>2155546</v>
+        <v>1529620</v>
       </c>
       <c r="E31" s="1">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="F31" s="4">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="G31" s="4">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="H31" s="4">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="I31" s="1">
-        <v>73440</v>
+        <v>34790</v>
       </c>
       <c r="J31" s="1">
         <v>1124</v>
@@ -3640,28 +3745,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1939174</v>
+        <v>865060</v>
       </c>
       <c r="C32" s="1">
-        <v>3566987</v>
+        <v>1730110</v>
       </c>
       <c r="D32" s="4">
-        <v>3566987</v>
+        <v>1730110</v>
       </c>
       <c r="E32" s="1">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="F32" s="4">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="G32" s="4">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="H32" s="4">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="I32" s="1">
-        <v>78336</v>
+        <v>38246</v>
       </c>
       <c r="J32" s="1">
         <v>1198</v>
@@ -3672,28 +3777,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>2103696</v>
+        <v>965970</v>
       </c>
       <c r="C33" s="1">
-        <v>3916191</v>
+        <v>1931940</v>
       </c>
       <c r="D33" s="4">
-        <v>3916191</v>
+        <v>1931940</v>
       </c>
       <c r="E33" s="1">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="F33" s="4">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="G33" s="4">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="H33" s="4">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="I33" s="1">
-        <v>83232</v>
+        <v>41702</v>
       </c>
       <c r="J33" s="1">
         <v>1276</v>
@@ -3704,28 +3809,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>2268336</v>
+        <v>1428730</v>
       </c>
       <c r="C34" s="1">
-        <v>4280671</v>
+        <v>2857450</v>
       </c>
       <c r="D34" s="4">
-        <v>4280671</v>
+        <v>2857450</v>
       </c>
       <c r="E34" s="1">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="F34" s="4">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="G34" s="4">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="H34" s="4">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="I34" s="1">
-        <v>88128</v>
+        <v>45158</v>
       </c>
       <c r="J34" s="1">
         <v>1354</v>
@@ -3736,28 +3841,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>2432269</v>
+        <v>1495740</v>
       </c>
       <c r="C35" s="1">
-        <v>4651897</v>
+        <v>2991480</v>
       </c>
       <c r="D35" s="4">
-        <v>4651897</v>
+        <v>2991480</v>
       </c>
       <c r="E35" s="1">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="F35" s="4">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="G35" s="4">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="H35" s="4">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="I35" s="1">
-        <v>93024</v>
+        <v>48614</v>
       </c>
       <c r="J35" s="1">
         <v>1436</v>
@@ -3768,28 +3873,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>2594669</v>
+        <v>1612670</v>
       </c>
       <c r="C36" s="1">
-        <v>5037658</v>
+        <v>3225340</v>
       </c>
       <c r="D36" s="4">
-        <v>5037658</v>
+        <v>3225340</v>
       </c>
       <c r="E36" s="1">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="F36" s="4">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="G36" s="4">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="H36" s="4">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="I36" s="1">
-        <v>97920</v>
+        <v>52070</v>
       </c>
       <c r="J36" s="1">
         <v>1520</v>
@@ -3800,28 +3905,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>4130391</v>
+        <v>1732240</v>
       </c>
       <c r="C37" s="1">
-        <v>8186221</v>
+        <v>3464470</v>
       </c>
       <c r="D37" s="4">
-        <v>8186221</v>
+        <v>3464470</v>
       </c>
       <c r="E37" s="1">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="F37" s="4">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="G37" s="4">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="H37" s="4">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="I37" s="1">
-        <v>102816</v>
+        <v>55526</v>
       </c>
       <c r="J37" s="1">
         <v>1606</v>
@@ -3832,28 +3937,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4432468</v>
+        <v>2609580</v>
       </c>
       <c r="C38" s="1">
-        <v>8887655</v>
+        <v>5219160</v>
       </c>
       <c r="D38" s="4">
-        <v>8887655</v>
+        <v>5219160</v>
       </c>
       <c r="E38" s="1">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="F38" s="4">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="G38" s="4">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="H38" s="4">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="I38" s="1">
-        <v>107712</v>
+        <v>58982</v>
       </c>
       <c r="J38" s="1">
         <v>1696</v>
@@ -3864,28 +3969,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>4740036</v>
+        <v>2714420</v>
       </c>
       <c r="C39" s="1">
-        <v>9613351</v>
+        <v>5428840</v>
       </c>
       <c r="D39" s="4">
-        <v>9613351</v>
+        <v>5428840</v>
       </c>
       <c r="E39" s="1">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="F39" s="4">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="G39" s="4">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="H39" s="4">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="I39" s="1">
-        <v>112608</v>
+        <v>62438</v>
       </c>
       <c r="J39" s="1">
         <v>1786</v>
@@ -3896,28 +4001,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>5052564</v>
+        <v>2891060</v>
       </c>
       <c r="C40" s="1">
-        <v>10371687</v>
+        <v>5782120</v>
       </c>
       <c r="D40" s="4">
-        <v>10371687</v>
+        <v>5782120</v>
       </c>
       <c r="E40" s="1">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="F40" s="4">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="G40" s="4">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="H40" s="4">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="I40" s="1">
-        <v>117504</v>
+        <v>65894</v>
       </c>
       <c r="J40" s="1">
         <v>1880</v>
@@ -3928,32 +4033,67 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>7522001</v>
+        <v>3080100</v>
       </c>
       <c r="C41" s="1">
-        <v>15493120</v>
-      </c>
-      <c r="D41" s="4">
-        <v>15493120</v>
+        <v>6160190</v>
+      </c>
+      <c r="D41" s="1">
+        <v>6160190</v>
       </c>
       <c r="E41" s="1">
-        <v>590</v>
+        <v>402</v>
       </c>
       <c r="F41" s="4">
-        <v>590</v>
+        <v>402</v>
       </c>
       <c r="G41" s="4">
-        <v>590</v>
+        <v>402</v>
       </c>
       <c r="H41" s="4">
-        <v>590</v>
+        <v>402</v>
       </c>
       <c r="I41" s="1">
-        <v>122400</v>
+        <v>69350</v>
       </c>
       <c r="J41" s="1">
         <v>2000</v>
       </c>
+    </row>
+    <row r="42" spans="1:10" ht="20" customHeight="1">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" ht="20" customHeight="1">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="20" customHeight="1">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="20" customHeight="1">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" ht="20" customHeight="1">
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" ht="20" customHeight="1">
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" ht="20" customHeight="1">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3969,10 +4109,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4017,28 +4157,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D2" s="4">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -4049,13 +4189,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C3" s="1">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D3" s="4">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -4070,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
         <v>16</v>
@@ -4081,13 +4221,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>864</v>
+        <v>670</v>
       </c>
       <c r="C4" s="1">
-        <v>432</v>
+        <v>340</v>
       </c>
       <c r="D4" s="4">
-        <v>864</v>
+        <v>670</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -4102,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J4" s="1">
         <v>22</v>
@@ -4113,13 +4253,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>1296</v>
+        <v>920</v>
       </c>
       <c r="C5" s="1">
-        <v>648</v>
+        <v>460</v>
       </c>
       <c r="D5" s="4">
-        <v>1296</v>
+        <v>920</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -4134,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="J5" s="1">
         <v>32</v>
@@ -4145,13 +4285,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>1728</v>
+        <v>1290</v>
       </c>
       <c r="C6" s="1">
-        <v>864</v>
+        <v>650</v>
       </c>
       <c r="D6" s="4">
-        <v>1728</v>
+        <v>1290</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -4166,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="J6" s="1">
         <v>44</v>
@@ -4177,13 +4317,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>2160</v>
+        <v>1590</v>
       </c>
       <c r="C7" s="1">
-        <v>1080</v>
+        <v>800</v>
       </c>
       <c r="D7" s="4">
-        <v>2160</v>
+        <v>1590</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -4198,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>864</v>
+        <v>324</v>
       </c>
       <c r="J7" s="1">
         <v>58</v>
@@ -4209,13 +4349,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>2592</v>
+        <v>2750</v>
       </c>
       <c r="C8" s="1">
-        <v>1296</v>
+        <v>1380</v>
       </c>
       <c r="D8" s="4">
-        <v>2592</v>
+        <v>2750</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -4230,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1296</v>
+        <v>386</v>
       </c>
       <c r="J8" s="1">
         <v>76</v>
@@ -4241,13 +4381,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>3370</v>
+        <v>5720</v>
       </c>
       <c r="C9" s="1">
-        <v>1685</v>
+        <v>2860</v>
       </c>
       <c r="D9" s="4">
-        <v>3370</v>
+        <v>5720</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -4262,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>2592</v>
+        <v>542</v>
       </c>
       <c r="J9" s="1">
         <v>94</v>
@@ -4273,13 +4413,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>8295</v>
+        <v>12760</v>
       </c>
       <c r="C10" s="1">
-        <v>4148</v>
+        <v>6380</v>
       </c>
       <c r="D10" s="4">
-        <v>8295</v>
+        <v>12760</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -4294,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>5184</v>
+        <v>854</v>
       </c>
       <c r="J10" s="1">
         <v>116</v>
@@ -4305,13 +4445,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>15034</v>
+        <v>19460</v>
       </c>
       <c r="C11" s="1">
-        <v>7517</v>
+        <v>9730</v>
       </c>
       <c r="D11" s="4">
-        <v>15034</v>
+        <v>19460</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -4326,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>7776</v>
+        <v>1166</v>
       </c>
       <c r="J11" s="1">
         <v>140</v>
@@ -4337,13 +4477,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>38155</v>
+        <v>27050</v>
       </c>
       <c r="C12" s="1">
-        <v>19078</v>
+        <v>13530</v>
       </c>
       <c r="D12" s="4">
-        <v>38155</v>
+        <v>27050</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -4358,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>10368</v>
+        <v>1478</v>
       </c>
       <c r="J12" s="1">
         <v>166</v>
@@ -4369,13 +4509,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>55988</v>
+        <v>34430</v>
       </c>
       <c r="C13" s="1">
-        <v>27994</v>
+        <v>17220</v>
       </c>
       <c r="D13" s="4">
-        <v>55988</v>
+        <v>34430</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -4390,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>12960</v>
+        <v>1790</v>
       </c>
       <c r="J13" s="1">
         <v>196</v>
@@ -4401,13 +4541,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>77968</v>
+        <v>45630</v>
       </c>
       <c r="C14" s="1">
-        <v>38984</v>
+        <v>22820</v>
       </c>
       <c r="D14" s="4">
-        <v>77968</v>
+        <v>45630</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -4422,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>15552</v>
+        <v>2102</v>
       </c>
       <c r="J14" s="1">
         <v>226</v>
@@ -4433,13 +4573,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>98750</v>
+        <v>92960</v>
       </c>
       <c r="C15" s="1">
-        <v>49375</v>
+        <v>46480</v>
       </c>
       <c r="D15" s="4">
-        <v>98750</v>
+        <v>92960</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -4454,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>18144</v>
+        <v>3974</v>
       </c>
       <c r="J15" s="1">
         <v>260</v>
@@ -4465,28 +4605,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>124509</v>
+        <v>126240</v>
       </c>
       <c r="C16" s="1">
-        <v>62255</v>
+        <v>63120</v>
       </c>
       <c r="D16" s="4">
-        <v>124509</v>
+        <v>126240</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>20736</v>
+        <v>5846</v>
       </c>
       <c r="J16" s="1">
         <v>296</v>
@@ -4497,28 +4637,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>193133</v>
+        <v>163060</v>
       </c>
       <c r="C17" s="1">
-        <v>96567</v>
+        <v>81530</v>
       </c>
       <c r="D17" s="4">
-        <v>193133</v>
+        <v>163060</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>23328</v>
+        <v>7718</v>
       </c>
       <c r="J17" s="1">
         <v>334</v>
@@ -4529,28 +4669,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
-        <v>229248</v>
+        <v>217910</v>
       </c>
       <c r="C18" s="1">
-        <v>114624</v>
+        <v>108960</v>
       </c>
       <c r="D18" s="4">
-        <v>229248</v>
+        <v>217910</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>25920</v>
+        <v>9590</v>
       </c>
       <c r="J18" s="1">
         <v>376</v>
@@ -4561,28 +4701,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>255860</v>
+        <v>247680</v>
       </c>
       <c r="C19" s="1">
-        <v>127930</v>
+        <v>123840</v>
       </c>
       <c r="D19" s="4">
-        <v>255860</v>
+        <v>247680</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F19" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H19" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>28512</v>
+        <v>11462</v>
       </c>
       <c r="J19" s="1">
         <v>418</v>
@@ -4593,28 +4733,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
-        <v>279245</v>
+        <v>289800</v>
       </c>
       <c r="C20" s="1">
-        <v>139623</v>
+        <v>144900</v>
       </c>
       <c r="D20" s="4">
-        <v>279245</v>
+        <v>289800</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F20" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G20" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H20" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I20" s="1">
-        <v>31104</v>
+        <v>13334</v>
       </c>
       <c r="J20" s="1">
         <v>464</v>
@@ -4625,28 +4765,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>294164</v>
+        <v>328210</v>
       </c>
       <c r="C21" s="1">
-        <v>147082</v>
+        <v>164110</v>
       </c>
       <c r="D21" s="4">
-        <v>294164</v>
+        <v>328210</v>
       </c>
       <c r="E21" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H21" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>33696</v>
+        <v>15206</v>
       </c>
       <c r="J21" s="1">
         <v>512</v>
@@ -4657,28 +4797,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="4">
-        <v>527570</v>
+        <v>438040</v>
       </c>
       <c r="C22" s="1">
-        <v>263785</v>
+        <v>219020</v>
       </c>
       <c r="D22" s="4">
-        <v>527570</v>
+        <v>438040</v>
       </c>
       <c r="E22" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F22" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G22" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H22" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I22" s="1">
-        <v>36288</v>
+        <v>17078</v>
       </c>
       <c r="J22" s="1">
         <v>562</v>
@@ -4689,28 +4829,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="4">
-        <v>554573</v>
+        <v>464740</v>
       </c>
       <c r="C23" s="1">
-        <v>277287</v>
+        <v>232370</v>
       </c>
       <c r="D23" s="4">
-        <v>554573</v>
+        <v>464740</v>
       </c>
       <c r="E23" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F23" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G23" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H23" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>38880</v>
+        <v>18950</v>
       </c>
       <c r="J23" s="1">
         <v>616</v>
@@ -4721,28 +4861,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="4">
-        <v>573051</v>
+        <v>512900</v>
       </c>
       <c r="C24" s="1">
-        <v>286526</v>
+        <v>256450</v>
       </c>
       <c r="D24" s="4">
-        <v>573051</v>
+        <v>512900</v>
       </c>
       <c r="E24" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>41472</v>
+        <v>20822</v>
       </c>
       <c r="J24" s="1">
         <v>670</v>
@@ -4753,13 +4893,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4">
-        <v>731912</v>
+        <v>553480</v>
       </c>
       <c r="C25" s="1">
-        <v>365956</v>
+        <v>276740</v>
       </c>
       <c r="D25" s="4">
-        <v>731912</v>
+        <v>553480</v>
       </c>
       <c r="E25" s="1">
         <v>26</v>
@@ -4774,7 +4914,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="1">
-        <v>46656</v>
+        <v>22694</v>
       </c>
       <c r="J25" s="1">
         <v>728</v>
@@ -4785,28 +4925,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="4">
-        <v>809396</v>
+        <v>823630</v>
       </c>
       <c r="C26" s="1">
-        <v>404698</v>
+        <v>411820</v>
       </c>
       <c r="D26" s="4">
-        <v>809396</v>
+        <v>823630</v>
       </c>
       <c r="E26" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F26" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G26" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H26" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I26" s="1">
-        <v>51840</v>
+        <v>24566</v>
       </c>
       <c r="J26" s="1">
         <v>788</v>
@@ -4817,28 +4957,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="4">
-        <v>1423458</v>
+        <v>875800</v>
       </c>
       <c r="C27" s="1">
-        <v>711729</v>
+        <v>437900</v>
       </c>
       <c r="D27" s="4">
-        <v>1423458</v>
+        <v>875800</v>
       </c>
       <c r="E27" s="1">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F27" s="4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G27" s="4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H27" s="4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I27" s="1">
-        <v>57024</v>
+        <v>26438</v>
       </c>
       <c r="J27" s="1">
         <v>850</v>
@@ -4849,28 +4989,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="4">
-        <v>1595889</v>
+        <v>961270</v>
       </c>
       <c r="C28" s="1">
-        <v>797945</v>
+        <v>480640</v>
       </c>
       <c r="D28" s="4">
-        <v>1595889</v>
+        <v>961270</v>
       </c>
       <c r="E28" s="1">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F28" s="4">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G28" s="4">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H28" s="4">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I28" s="1">
-        <v>62208</v>
+        <v>28310</v>
       </c>
       <c r="J28" s="1">
         <v>916</v>
@@ -4881,28 +5021,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="4">
-        <v>1771224</v>
+        <v>1035810</v>
       </c>
       <c r="C29" s="1">
-        <v>885612</v>
+        <v>517910</v>
       </c>
       <c r="D29" s="4">
-        <v>1771224</v>
+        <v>1035810</v>
       </c>
       <c r="E29" s="1">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F29" s="4">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G29" s="4">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="H29" s="4">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I29" s="1">
-        <v>67392</v>
+        <v>30182</v>
       </c>
       <c r="J29" s="1">
         <v>982</v>
@@ -4913,28 +5053,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="4">
-        <v>2112676</v>
+        <v>1612040</v>
       </c>
       <c r="C30" s="1">
-        <v>1056338</v>
+        <v>806020</v>
       </c>
       <c r="D30" s="4">
-        <v>2112676</v>
+        <v>1612040</v>
       </c>
       <c r="E30" s="1">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F30" s="4">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="G30" s="4">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H30" s="4">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="I30" s="1">
-        <v>72576</v>
+        <v>33926</v>
       </c>
       <c r="J30" s="1">
         <v>1052</v>
@@ -4945,28 +5085,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="4">
-        <v>2282343</v>
+        <v>1781890</v>
       </c>
       <c r="C31" s="1">
-        <v>1141172</v>
+        <v>890950</v>
       </c>
       <c r="D31" s="4">
-        <v>2282343</v>
+        <v>1781890</v>
       </c>
       <c r="E31" s="1">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="F31" s="4">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="G31" s="4">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="H31" s="4">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="I31" s="1">
-        <v>77760</v>
+        <v>37670</v>
       </c>
       <c r="J31" s="1">
         <v>1124</v>
@@ -4977,28 +5117,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="4">
-        <v>3776809</v>
+        <v>2021480</v>
       </c>
       <c r="C32" s="1">
-        <v>1888405</v>
+        <v>1010740</v>
       </c>
       <c r="D32" s="4">
-        <v>3776809</v>
+        <v>2021480</v>
       </c>
       <c r="E32" s="1">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="F32" s="4">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="G32" s="4">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="H32" s="4">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="I32" s="1">
-        <v>82944</v>
+        <v>41414</v>
       </c>
       <c r="J32" s="1">
         <v>1198</v>
@@ -5009,28 +5149,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="4">
-        <v>4146555</v>
+        <v>2262530</v>
       </c>
       <c r="C33" s="1">
-        <v>2073278</v>
+        <v>1131270</v>
       </c>
       <c r="D33" s="4">
-        <v>4146555</v>
+        <v>2262530</v>
       </c>
       <c r="E33" s="1">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="F33" s="4">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="G33" s="4">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="H33" s="4">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="I33" s="1">
-        <v>88128</v>
+        <v>45158</v>
       </c>
       <c r="J33" s="1">
         <v>1276</v>
@@ -5041,28 +5181,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="4">
-        <v>4532475</v>
+        <v>3309970</v>
       </c>
       <c r="C34" s="1">
-        <v>2266238</v>
+        <v>1654990</v>
       </c>
       <c r="D34" s="4">
-        <v>4532475</v>
+        <v>3309970</v>
       </c>
       <c r="E34" s="1">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="F34" s="4">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="G34" s="4">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="H34" s="4">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="I34" s="1">
-        <v>93312</v>
+        <v>48902</v>
       </c>
       <c r="J34" s="1">
         <v>1354</v>
@@ -5073,28 +5213,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="4">
-        <v>4925538</v>
+        <v>3499970</v>
       </c>
       <c r="C35" s="1">
-        <v>2462769</v>
+        <v>1749990</v>
       </c>
       <c r="D35" s="4">
-        <v>4925538</v>
+        <v>3499970</v>
       </c>
       <c r="E35" s="1">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="F35" s="4">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="G35" s="4">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="H35" s="4">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="I35" s="1">
-        <v>98496</v>
+        <v>52646</v>
       </c>
       <c r="J35" s="1">
         <v>1436</v>
@@ -5105,28 +5245,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="4">
-        <v>5333991</v>
+        <v>3798120</v>
       </c>
       <c r="C36" s="1">
-        <v>2666996</v>
+        <v>1899060</v>
       </c>
       <c r="D36" s="4">
-        <v>5333991</v>
+        <v>3798120</v>
       </c>
       <c r="E36" s="1">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="F36" s="4">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="G36" s="4">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="H36" s="4">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="I36" s="1">
-        <v>103680</v>
+        <v>56390</v>
       </c>
       <c r="J36" s="1">
         <v>1520</v>
@@ -5137,28 +5277,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="4">
-        <v>8667764</v>
+        <v>4101980</v>
       </c>
       <c r="C37" s="1">
-        <v>4333882</v>
+        <v>2050990</v>
       </c>
       <c r="D37" s="4">
-        <v>8667764</v>
+        <v>4101980</v>
       </c>
       <c r="E37" s="1">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="F37" s="4">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="G37" s="4">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="H37" s="4">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="I37" s="1">
-        <v>108864</v>
+        <v>60134</v>
       </c>
       <c r="J37" s="1">
         <v>1606</v>
@@ -5169,28 +5309,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="4">
-        <v>9410458</v>
+        <v>6076490</v>
       </c>
       <c r="C38" s="1">
-        <v>4705229</v>
+        <v>3038250</v>
       </c>
       <c r="D38" s="4">
-        <v>9410458</v>
+        <v>6076490</v>
       </c>
       <c r="E38" s="1">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="F38" s="4">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="G38" s="4">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="H38" s="4">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="I38" s="1">
-        <v>114048</v>
+        <v>63878</v>
       </c>
       <c r="J38" s="1">
         <v>1696</v>
@@ -5201,28 +5341,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="4">
-        <v>10178842</v>
+        <v>6377250</v>
       </c>
       <c r="C39" s="1">
-        <v>5089421</v>
+        <v>3188630</v>
       </c>
       <c r="D39" s="4">
-        <v>10178842</v>
+        <v>6377250</v>
       </c>
       <c r="E39" s="1">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="F39" s="4">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="G39" s="4">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="H39" s="4">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="I39" s="1">
-        <v>119232</v>
+        <v>67622</v>
       </c>
       <c r="J39" s="1">
         <v>1786</v>
@@ -5232,29 +5372,29 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
-        <v>10981786</v>
+      <c r="B40" s="1">
+        <v>6833560</v>
       </c>
       <c r="C40" s="1">
-        <v>5490893</v>
-      </c>
-      <c r="D40" s="4">
-        <v>10981786</v>
+        <v>3416780</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6833560</v>
       </c>
       <c r="E40" s="1">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="F40" s="4">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="G40" s="4">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="H40" s="4">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="I40" s="1">
-        <v>124416</v>
+        <v>71366</v>
       </c>
       <c r="J40" s="1">
         <v>1880</v>
@@ -5265,32 +5405,42 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>16404480</v>
+        <v>7316730</v>
       </c>
       <c r="C41" s="1">
-        <v>8202240</v>
+        <v>3658370</v>
       </c>
       <c r="D41" s="1">
-        <v>16404480</v>
+        <v>7316730</v>
       </c>
       <c r="E41" s="1">
-        <v>590</v>
+        <v>402</v>
       </c>
       <c r="F41" s="4">
-        <v>590</v>
+        <v>402</v>
       </c>
       <c r="G41" s="4">
-        <v>590</v>
+        <v>402</v>
       </c>
       <c r="H41" s="4">
-        <v>590</v>
+        <v>402</v>
       </c>
       <c r="I41" s="1">
-        <v>129600</v>
+        <v>75110</v>
       </c>
       <c r="J41" s="1">
         <v>2000</v>
       </c>
+    </row>
+    <row r="42" spans="1:10" ht="20" customHeight="1">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" ht="20" customHeight="1">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5308,8 +5458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5354,28 +5504,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="D2" s="1">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -5386,13 +5536,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="C3" s="1">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="D3" s="1">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -5407,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
         <v>16</v>
@@ -5418,13 +5568,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>912</v>
+        <v>720</v>
       </c>
       <c r="C4" s="1">
-        <v>912</v>
+        <v>720</v>
       </c>
       <c r="D4" s="1">
-        <v>456</v>
+        <v>360</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -5439,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J4" s="1">
         <v>22</v>
@@ -5450,13 +5600,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1368</v>
+        <v>990</v>
       </c>
       <c r="C5" s="1">
-        <v>1368</v>
+        <v>990</v>
       </c>
       <c r="D5" s="1">
-        <v>684</v>
+        <v>500</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -5471,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="J5" s="1">
         <v>32</v>
@@ -5482,13 +5632,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1824</v>
+        <v>1380</v>
       </c>
       <c r="C6" s="1">
-        <v>1824</v>
+        <v>1380</v>
       </c>
       <c r="D6" s="1">
-        <v>912</v>
+        <v>690</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -5503,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="J6" s="1">
         <v>44</v>
@@ -5514,13 +5664,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2280</v>
+        <v>1720</v>
       </c>
       <c r="C7" s="1">
-        <v>2280</v>
+        <v>1720</v>
       </c>
       <c r="D7" s="1">
-        <v>1140</v>
+        <v>860</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -5535,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>912</v>
+        <v>331</v>
       </c>
       <c r="J7" s="1">
         <v>58</v>
@@ -5546,13 +5696,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2736</v>
+        <v>2960</v>
       </c>
       <c r="C8" s="1">
-        <v>2736</v>
+        <v>2960</v>
       </c>
       <c r="D8" s="1">
-        <v>1368</v>
+        <v>1480</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -5567,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1368</v>
+        <v>398</v>
       </c>
       <c r="J8" s="1">
         <v>76</v>
@@ -5578,13 +5728,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>3557</v>
+        <v>6160</v>
       </c>
       <c r="C9" s="1">
-        <v>3557</v>
+        <v>6160</v>
       </c>
       <c r="D9" s="1">
-        <v>1779</v>
+        <v>3080</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -5599,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>2736</v>
+        <v>566</v>
       </c>
       <c r="J9" s="1">
         <v>94</v>
@@ -5610,13 +5760,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>8756</v>
+        <v>13740</v>
       </c>
       <c r="C10" s="1">
-        <v>8756</v>
+        <v>13740</v>
       </c>
       <c r="D10" s="1">
-        <v>4378</v>
+        <v>6870</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -5631,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>5472</v>
+        <v>902</v>
       </c>
       <c r="J10" s="1">
         <v>116</v>
@@ -5642,13 +5792,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>15869</v>
+        <v>20960</v>
       </c>
       <c r="C11" s="1">
-        <v>15869</v>
+        <v>20960</v>
       </c>
       <c r="D11" s="1">
-        <v>7935</v>
+        <v>10480</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -5663,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>8208</v>
+        <v>1238</v>
       </c>
       <c r="J11" s="1">
         <v>140</v>
@@ -5674,13 +5824,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>40274</v>
+        <v>29130</v>
       </c>
       <c r="C12" s="1">
-        <v>40274</v>
+        <v>29130</v>
       </c>
       <c r="D12" s="1">
-        <v>20137</v>
+        <v>14570</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -5695,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>10944</v>
+        <v>1574</v>
       </c>
       <c r="J12" s="1">
         <v>166</v>
@@ -5706,13 +5856,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>59098</v>
+        <v>37080</v>
       </c>
       <c r="C13" s="1">
-        <v>59098</v>
+        <v>37080</v>
       </c>
       <c r="D13" s="1">
-        <v>29549</v>
+        <v>18540</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -5727,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>13680</v>
+        <v>1910</v>
       </c>
       <c r="J13" s="1">
         <v>196</v>
@@ -5738,13 +5888,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>82299</v>
+        <v>49140</v>
       </c>
       <c r="C14" s="1">
-        <v>82299</v>
+        <v>49140</v>
       </c>
       <c r="D14" s="1">
-        <v>41150</v>
+        <v>24570</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -5759,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>16416</v>
+        <v>2246</v>
       </c>
       <c r="J14" s="1">
         <v>226</v>
@@ -5770,13 +5920,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>104236</v>
+        <v>100110</v>
       </c>
       <c r="C15" s="1">
-        <v>104236</v>
+        <v>100110</v>
       </c>
       <c r="D15" s="1">
-        <v>52118</v>
+        <v>50060</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -5791,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>19152</v>
+        <v>4262</v>
       </c>
       <c r="J15" s="1">
         <v>260</v>
@@ -5802,28 +5952,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>131426</v>
+        <v>137420</v>
       </c>
       <c r="C16" s="1">
-        <v>131426</v>
+        <v>137420</v>
       </c>
       <c r="D16" s="1">
-        <v>65713</v>
+        <v>68710</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>21888</v>
+        <v>6278</v>
       </c>
       <c r="J16" s="1">
         <v>296</v>
@@ -5834,28 +5984,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>203863</v>
+        <v>178560</v>
       </c>
       <c r="C17" s="1">
-        <v>203863</v>
+        <v>178560</v>
       </c>
       <c r="D17" s="1">
-        <v>101932</v>
+        <v>89280</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>24624</v>
+        <v>8294</v>
       </c>
       <c r="J17" s="1">
         <v>334</v>
@@ -5866,28 +6016,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>241984</v>
+        <v>240580</v>
       </c>
       <c r="C18" s="1">
-        <v>241984</v>
+        <v>240580</v>
       </c>
       <c r="D18" s="1">
-        <v>120992</v>
+        <v>120290</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>27360</v>
+        <v>10310</v>
       </c>
       <c r="J18" s="1">
         <v>376</v>
@@ -5898,28 +6048,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>270074</v>
+        <v>275600</v>
       </c>
       <c r="C19" s="1">
-        <v>270074</v>
+        <v>275600</v>
       </c>
       <c r="D19" s="1">
-        <v>135037</v>
+        <v>137800</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F19" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H19" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>30096</v>
+        <v>12326</v>
       </c>
       <c r="J19" s="1">
         <v>418</v>
@@ -5930,28 +6080,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>294759</v>
+        <v>323900</v>
       </c>
       <c r="C20" s="1">
-        <v>294759</v>
+        <v>323900</v>
       </c>
       <c r="D20" s="1">
-        <v>147380</v>
+        <v>161950</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F20" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G20" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H20" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I20" s="1">
-        <v>32832</v>
+        <v>14342</v>
       </c>
       <c r="J20" s="1">
         <v>464</v>
@@ -5962,28 +6112,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>310506</v>
+        <v>368220</v>
       </c>
       <c r="C21" s="1">
-        <v>310506</v>
+        <v>368220</v>
       </c>
       <c r="D21" s="1">
-        <v>155253</v>
+        <v>184110</v>
       </c>
       <c r="E21" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H21" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>35568</v>
+        <v>16358</v>
       </c>
       <c r="J21" s="1">
         <v>512</v>
@@ -5994,28 +6144,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>556880</v>
+        <v>492420</v>
       </c>
       <c r="C22" s="1">
-        <v>556880</v>
+        <v>492420</v>
       </c>
       <c r="D22" s="1">
-        <v>278440</v>
+        <v>246210</v>
       </c>
       <c r="E22" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F22" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G22" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H22" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I22" s="1">
-        <v>38304</v>
+        <v>18374</v>
       </c>
       <c r="J22" s="1">
         <v>562</v>
@@ -6026,28 +6176,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>585383</v>
+        <v>527070</v>
       </c>
       <c r="C23" s="1">
-        <v>585383</v>
+        <v>527070</v>
       </c>
       <c r="D23" s="1">
-        <v>292692</v>
+        <v>263540</v>
       </c>
       <c r="E23" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F23" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G23" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H23" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>41040</v>
+        <v>20390</v>
       </c>
       <c r="J23" s="1">
         <v>616</v>
@@ -6058,28 +6208,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>604888</v>
+        <v>584850</v>
       </c>
       <c r="C24" s="1">
-        <v>604888</v>
+        <v>584850</v>
       </c>
       <c r="D24" s="1">
-        <v>302444</v>
+        <v>292430</v>
       </c>
       <c r="E24" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>43776</v>
+        <v>22406</v>
       </c>
       <c r="J24" s="1">
         <v>670</v>
@@ -6090,13 +6240,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>772574</v>
+        <v>634450</v>
       </c>
       <c r="C25" s="1">
-        <v>772574</v>
+        <v>634450</v>
       </c>
       <c r="D25" s="1">
-        <v>386287</v>
+        <v>317230</v>
       </c>
       <c r="E25" s="1">
         <v>26</v>
@@ -6111,7 +6261,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="1">
-        <v>49248</v>
+        <v>24422</v>
       </c>
       <c r="J25" s="1">
         <v>728</v>
@@ -6122,28 +6272,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>854362</v>
+        <v>934250</v>
       </c>
       <c r="C26" s="1">
-        <v>854362</v>
+        <v>934250</v>
       </c>
       <c r="D26" s="1">
-        <v>427181</v>
+        <v>467130</v>
       </c>
       <c r="E26" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F26" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G26" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H26" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I26" s="1">
-        <v>54720</v>
+        <v>26438</v>
       </c>
       <c r="J26" s="1">
         <v>788</v>
@@ -6154,28 +6304,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1502539</v>
+        <v>999290</v>
       </c>
       <c r="C27" s="1">
-        <v>1502539</v>
+        <v>999290</v>
       </c>
       <c r="D27" s="1">
-        <v>751270</v>
+        <v>499650</v>
       </c>
       <c r="E27" s="1">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F27" s="4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G27" s="4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H27" s="4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I27" s="1">
-        <v>60192</v>
+        <v>28454</v>
       </c>
       <c r="J27" s="1">
         <v>850</v>
@@ -6186,28 +6336,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1684550</v>
+        <v>1100200</v>
       </c>
       <c r="C28" s="1">
-        <v>1684550</v>
+        <v>1100200</v>
       </c>
       <c r="D28" s="1">
-        <v>842275</v>
+        <v>550100</v>
       </c>
       <c r="E28" s="1">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F28" s="4">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G28" s="4">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H28" s="4">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I28" s="1">
-        <v>65664</v>
+        <v>30470</v>
       </c>
       <c r="J28" s="1">
         <v>916</v>
@@ -6218,28 +6368,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1869625</v>
+        <v>1189330</v>
       </c>
       <c r="C29" s="1">
-        <v>1869625</v>
+        <v>1189330</v>
       </c>
       <c r="D29" s="1">
-        <v>934813</v>
+        <v>594670</v>
       </c>
       <c r="E29" s="1">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F29" s="4">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G29" s="4">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="H29" s="4">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I29" s="1">
-        <v>71136</v>
+        <v>32486</v>
       </c>
       <c r="J29" s="1">
         <v>982</v>
@@ -6250,28 +6400,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>2230047</v>
+        <v>1830560</v>
       </c>
       <c r="C30" s="1">
-        <v>2230047</v>
+        <v>1830560</v>
       </c>
       <c r="D30" s="1">
-        <v>1115024</v>
+        <v>915280</v>
       </c>
       <c r="E30" s="1">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F30" s="4">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="G30" s="4">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H30" s="4">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="I30" s="1">
-        <v>76608</v>
+        <v>36518</v>
       </c>
       <c r="J30" s="1">
         <v>1052</v>
@@ -6282,28 +6432,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>2409140</v>
+        <v>2034150</v>
       </c>
       <c r="C31" s="1">
-        <v>2409140</v>
+        <v>2034150</v>
       </c>
       <c r="D31" s="1">
-        <v>1204570</v>
+        <v>1017080</v>
       </c>
       <c r="E31" s="1">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="F31" s="4">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="G31" s="4">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="H31" s="4">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="I31" s="1">
-        <v>82080</v>
+        <v>40550</v>
       </c>
       <c r="J31" s="1">
         <v>1124</v>
@@ -6314,28 +6464,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>3986632</v>
+        <v>2312860</v>
       </c>
       <c r="C32" s="1">
-        <v>3986632</v>
+        <v>2312860</v>
       </c>
       <c r="D32" s="1">
-        <v>1993316</v>
+        <v>1156430</v>
       </c>
       <c r="E32" s="1">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="F32" s="4">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="G32" s="4">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="H32" s="4">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="I32" s="1">
-        <v>87552</v>
+        <v>44582</v>
       </c>
       <c r="J32" s="1">
         <v>1198</v>
@@ -6346,28 +6496,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4376920</v>
+        <v>2593130</v>
       </c>
       <c r="C33" s="1">
-        <v>4376920</v>
+        <v>2593130</v>
       </c>
       <c r="D33" s="1">
-        <v>2188460</v>
+        <v>1296570</v>
       </c>
       <c r="E33" s="1">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="F33" s="4">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="G33" s="4">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="H33" s="4">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="I33" s="1">
-        <v>93024</v>
+        <v>48614</v>
       </c>
       <c r="J33" s="1">
         <v>1276</v>
@@ -6378,28 +6528,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4784280</v>
+        <v>3762490</v>
       </c>
       <c r="C34" s="1">
-        <v>4784280</v>
+        <v>3762490</v>
       </c>
       <c r="D34" s="1">
-        <v>2392140</v>
+        <v>1881250</v>
       </c>
       <c r="E34" s="1">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="F34" s="4">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="G34" s="4">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="H34" s="4">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="I34" s="1">
-        <v>98496</v>
+        <v>52646</v>
       </c>
       <c r="J34" s="1">
         <v>1354</v>
@@ -6410,28 +6560,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>5199179</v>
+        <v>4008460</v>
       </c>
       <c r="C35" s="1">
-        <v>5199179</v>
+        <v>4008460</v>
       </c>
       <c r="D35" s="1">
-        <v>2599590</v>
+        <v>2004230</v>
       </c>
       <c r="E35" s="1">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="F35" s="4">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="G35" s="4">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="H35" s="4">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="I35" s="1">
-        <v>103968</v>
+        <v>56678</v>
       </c>
       <c r="J35" s="1">
         <v>1436</v>
@@ -6442,28 +6592,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>5630324</v>
+        <v>4370900</v>
       </c>
       <c r="C36" s="1">
-        <v>5630324</v>
+        <v>4370900</v>
       </c>
       <c r="D36" s="1">
-        <v>2815162</v>
+        <v>2185450</v>
       </c>
       <c r="E36" s="1">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="F36" s="4">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="G36" s="4">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="H36" s="4">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="I36" s="1">
-        <v>109440</v>
+        <v>60710</v>
       </c>
       <c r="J36" s="1">
         <v>1520</v>
@@ -6474,28 +6624,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>9149306</v>
+        <v>4739480</v>
       </c>
       <c r="C37" s="1">
-        <v>9149306</v>
+        <v>4739480</v>
       </c>
       <c r="D37" s="1">
-        <v>4574653</v>
+        <v>2369740</v>
       </c>
       <c r="E37" s="1">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="F37" s="4">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="G37" s="4">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="H37" s="4">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="I37" s="1">
-        <v>114912</v>
+        <v>64742</v>
       </c>
       <c r="J37" s="1">
         <v>1606</v>
@@ -6506,28 +6656,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>9933261</v>
+        <v>6933820</v>
       </c>
       <c r="C38" s="1">
-        <v>9933261</v>
+        <v>6933820</v>
       </c>
       <c r="D38" s="1">
-        <v>4966631</v>
+        <v>3466910</v>
       </c>
       <c r="E38" s="1">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="F38" s="4">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="G38" s="4">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="H38" s="4">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="I38" s="1">
-        <v>120384</v>
+        <v>68774</v>
       </c>
       <c r="J38" s="1">
         <v>1696</v>
@@ -6538,28 +6688,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>10744333</v>
+        <v>7325650</v>
       </c>
       <c r="C39" s="1">
-        <v>10744333</v>
+        <v>7325650</v>
       </c>
       <c r="D39" s="1">
-        <v>5372167</v>
+        <v>3662830</v>
       </c>
       <c r="E39" s="1">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="F39" s="4">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="G39" s="4">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="H39" s="4">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="I39" s="1">
-        <v>125856</v>
+        <v>72806</v>
       </c>
       <c r="J39" s="1">
         <v>1786</v>
@@ -6570,28 +6720,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>11591885</v>
+        <v>7885010</v>
       </c>
       <c r="C40" s="1">
-        <v>11591885</v>
+        <v>7885010</v>
       </c>
       <c r="D40" s="1">
-        <v>5795943</v>
+        <v>3942510</v>
       </c>
       <c r="E40" s="1">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="F40" s="4">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="G40" s="4">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="H40" s="4">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="I40" s="1">
-        <v>131328</v>
+        <v>76838</v>
       </c>
       <c r="J40" s="1">
         <v>1880</v>
@@ -6602,28 +6752,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>17315840</v>
+        <v>8473280</v>
       </c>
       <c r="C41" s="1">
-        <v>17315840</v>
+        <v>8473280</v>
       </c>
       <c r="D41" s="1">
-        <v>8657920</v>
+        <v>4236640</v>
       </c>
       <c r="E41" s="1">
-        <v>592</v>
+        <v>402</v>
       </c>
       <c r="F41" s="4">
-        <v>592</v>
+        <v>402</v>
       </c>
       <c r="G41" s="4">
-        <v>592</v>
+        <v>402</v>
       </c>
       <c r="H41" s="4">
-        <v>592</v>
+        <v>402</v>
       </c>
       <c r="I41" s="1">
-        <v>136800</v>
+        <v>80870</v>
       </c>
       <c r="J41" s="1">
         <v>2000</v>
@@ -6643,10 +6793,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6691,28 +6841,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -6723,13 +6873,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C3" s="1">
-        <v>288</v>
-      </c>
-      <c r="D3" s="1">
-        <v>288</v>
+        <v>280</v>
+      </c>
+      <c r="D3" s="4">
+        <v>280</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -6744,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1">
         <v>16</v>
@@ -6755,13 +6905,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>768</v>
+        <v>570</v>
       </c>
       <c r="C4" s="1">
-        <v>576</v>
-      </c>
-      <c r="D4" s="1">
-        <v>576</v>
+        <v>430</v>
+      </c>
+      <c r="D4" s="4">
+        <v>430</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -6776,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="J4" s="1">
         <v>22</v>
@@ -6787,13 +6937,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1152</v>
+        <v>780</v>
       </c>
       <c r="C5" s="1">
-        <v>864</v>
-      </c>
-      <c r="D5" s="1">
-        <v>864</v>
+        <v>580</v>
+      </c>
+      <c r="D5" s="4">
+        <v>580</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -6808,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="J5" s="1">
         <v>32</v>
@@ -6819,13 +6969,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1536</v>
+        <v>1090</v>
       </c>
       <c r="C6" s="1">
-        <v>1152</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1152</v>
+        <v>820</v>
+      </c>
+      <c r="D6" s="4">
+        <v>820</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -6840,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="J6" s="1">
         <v>44</v>
@@ -6851,13 +7001,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="C7" s="1">
-        <v>1440</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1440</v>
+        <v>1010</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1010</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -6872,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>768</v>
+        <v>309</v>
       </c>
       <c r="J7" s="1">
         <v>58</v>
@@ -6883,13 +7033,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2304</v>
+        <v>2330</v>
       </c>
       <c r="C8" s="1">
-        <v>1728</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1728</v>
+        <v>1750</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1750</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -6904,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1152</v>
+        <v>362</v>
       </c>
       <c r="J8" s="1">
         <v>76</v>
@@ -6915,13 +7065,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>2996</v>
+        <v>4840</v>
       </c>
       <c r="C9" s="1">
-        <v>2247</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2247</v>
+        <v>3630</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3630</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -6936,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>2304</v>
+        <v>494</v>
       </c>
       <c r="J9" s="1">
         <v>94</v>
@@ -6947,13 +7097,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>7373</v>
+        <v>10800</v>
       </c>
       <c r="C10" s="1">
-        <v>5530</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5530</v>
+        <v>8100</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8100</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -6968,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>4608</v>
+        <v>758</v>
       </c>
       <c r="J10" s="1">
         <v>116</v>
@@ -6979,13 +7129,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>13364</v>
+        <v>16470</v>
       </c>
       <c r="C11" s="1">
-        <v>10023</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10023</v>
+        <v>12350</v>
+      </c>
+      <c r="D11" s="4">
+        <v>12350</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -7000,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>6912</v>
+        <v>1022</v>
       </c>
       <c r="J11" s="1">
         <v>140</v>
@@ -7011,13 +7161,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>33915</v>
+        <v>22890</v>
       </c>
       <c r="C12" s="1">
-        <v>25437</v>
-      </c>
-      <c r="D12" s="1">
-        <v>25437</v>
+        <v>17170</v>
+      </c>
+      <c r="D12" s="4">
+        <v>17170</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -7032,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>9216</v>
+        <v>1286</v>
       </c>
       <c r="J12" s="1">
         <v>166</v>
@@ -7043,13 +7193,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>49767</v>
+        <v>29130</v>
       </c>
       <c r="C13" s="1">
-        <v>37325</v>
-      </c>
-      <c r="D13" s="1">
-        <v>37325</v>
+        <v>21850</v>
+      </c>
+      <c r="D13" s="4">
+        <v>21850</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -7064,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>11520</v>
+        <v>1550</v>
       </c>
       <c r="J13" s="1">
         <v>196</v>
@@ -7075,13 +7225,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>69305</v>
+        <v>38610</v>
       </c>
       <c r="C14" s="1">
-        <v>51979</v>
-      </c>
-      <c r="D14" s="1">
-        <v>51979</v>
+        <v>28960</v>
+      </c>
+      <c r="D14" s="4">
+        <v>28960</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -7096,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>13824</v>
+        <v>1814</v>
       </c>
       <c r="J14" s="1">
         <v>226</v>
@@ -7107,13 +7257,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>87778</v>
+        <v>78660</v>
       </c>
       <c r="C15" s="1">
-        <v>65833</v>
-      </c>
-      <c r="D15" s="1">
-        <v>65833</v>
+        <v>59000</v>
+      </c>
+      <c r="D15" s="4">
+        <v>59000</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -7128,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>16128</v>
+        <v>3398</v>
       </c>
       <c r="J15" s="1">
         <v>260</v>
@@ -7139,28 +7289,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>110674</v>
+        <v>103860</v>
       </c>
       <c r="C16" s="1">
-        <v>83006</v>
-      </c>
-      <c r="D16" s="1">
-        <v>83006</v>
+        <v>77900</v>
+      </c>
+      <c r="D16" s="4">
+        <v>77900</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>18432</v>
+        <v>4982</v>
       </c>
       <c r="J16" s="1">
         <v>296</v>
@@ -7171,28 +7321,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>171674</v>
+        <v>132070</v>
       </c>
       <c r="C17" s="1">
-        <v>128756</v>
-      </c>
-      <c r="D17" s="1">
-        <v>128756</v>
+        <v>99050</v>
+      </c>
+      <c r="D17" s="4">
+        <v>99050</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>20736</v>
+        <v>6566</v>
       </c>
       <c r="J17" s="1">
         <v>334</v>
@@ -7203,28 +7353,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>203776</v>
+        <v>172570</v>
       </c>
       <c r="C18" s="1">
-        <v>152832</v>
-      </c>
-      <c r="D18" s="1">
-        <v>152832</v>
+        <v>129430</v>
+      </c>
+      <c r="D18" s="4">
+        <v>129430</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>23040</v>
+        <v>8150</v>
       </c>
       <c r="J18" s="1">
         <v>376</v>
@@ -7235,28 +7385,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>227431</v>
+        <v>191850</v>
       </c>
       <c r="C19" s="1">
-        <v>170573</v>
-      </c>
-      <c r="D19" s="1">
-        <v>170573</v>
+        <v>143890</v>
+      </c>
+      <c r="D19" s="4">
+        <v>143890</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F19" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G19" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H19" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>25344</v>
+        <v>9734</v>
       </c>
       <c r="J19" s="1">
         <v>418</v>
@@ -7267,28 +7417,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>248218</v>
+        <v>221580</v>
       </c>
       <c r="C20" s="1">
-        <v>186164</v>
-      </c>
-      <c r="D20" s="1">
-        <v>186164</v>
+        <v>166190</v>
+      </c>
+      <c r="D20" s="4">
+        <v>166190</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F20" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G20" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H20" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I20" s="1">
-        <v>27648</v>
+        <v>11318</v>
       </c>
       <c r="J20" s="1">
         <v>464</v>
@@ -7299,28 +7449,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>261479</v>
+        <v>248180</v>
       </c>
       <c r="C21" s="1">
-        <v>196109</v>
-      </c>
-      <c r="D21" s="1">
-        <v>196109</v>
+        <v>186130</v>
+      </c>
+      <c r="D21" s="4">
+        <v>186130</v>
       </c>
       <c r="E21" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F21" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H21" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>29952</v>
+        <v>12902</v>
       </c>
       <c r="J21" s="1">
         <v>512</v>
@@ -7331,28 +7481,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>468952</v>
+        <v>329300</v>
       </c>
       <c r="C22" s="1">
-        <v>351714</v>
-      </c>
-      <c r="D22" s="1">
-        <v>351714</v>
+        <v>246980</v>
+      </c>
+      <c r="D22" s="4">
+        <v>246980</v>
       </c>
       <c r="E22" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F22" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G22" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H22" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I22" s="1">
-        <v>32256</v>
+        <v>14486</v>
       </c>
       <c r="J22" s="1">
         <v>562</v>
@@ -7363,28 +7513,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>492954</v>
+        <v>340070</v>
       </c>
       <c r="C23" s="1">
-        <v>369716</v>
-      </c>
-      <c r="D23" s="1">
-        <v>369716</v>
+        <v>255060</v>
+      </c>
+      <c r="D23" s="4">
+        <v>255060</v>
       </c>
       <c r="E23" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F23" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G23" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H23" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>34560</v>
+        <v>16070</v>
       </c>
       <c r="J23" s="1">
         <v>616</v>
@@ -7395,28 +7545,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>509379</v>
+        <v>369010</v>
       </c>
       <c r="C24" s="1">
-        <v>382034</v>
-      </c>
-      <c r="D24" s="1">
-        <v>382034</v>
+        <v>276760</v>
+      </c>
+      <c r="D24" s="4">
+        <v>276760</v>
       </c>
       <c r="E24" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>36864</v>
+        <v>17654</v>
       </c>
       <c r="J24" s="1">
         <v>670</v>
@@ -7427,13 +7577,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>650589</v>
+        <v>391530</v>
       </c>
       <c r="C25" s="1">
-        <v>487942</v>
-      </c>
-      <c r="D25" s="1">
-        <v>487942</v>
+        <v>293650</v>
+      </c>
+      <c r="D25" s="4">
+        <v>293650</v>
       </c>
       <c r="E25" s="1">
         <v>26</v>
@@ -7448,7 +7598,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="1">
-        <v>41472</v>
+        <v>19238</v>
       </c>
       <c r="J25" s="1">
         <v>728</v>
@@ -7459,28 +7609,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>719463</v>
+        <v>602400</v>
       </c>
       <c r="C26" s="1">
-        <v>539597</v>
-      </c>
-      <c r="D26" s="1">
-        <v>539597</v>
+        <v>451800</v>
+      </c>
+      <c r="D26" s="4">
+        <v>451800</v>
       </c>
       <c r="E26" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F26" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G26" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H26" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I26" s="1">
-        <v>46080</v>
+        <v>20822</v>
       </c>
       <c r="J26" s="1">
         <v>788</v>
@@ -7491,28 +7641,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1265296</v>
+        <v>628820</v>
       </c>
       <c r="C27" s="1">
-        <v>948972</v>
-      </c>
-      <c r="D27" s="1">
-        <v>948972</v>
+        <v>471610</v>
+      </c>
+      <c r="D27" s="4">
+        <v>471610</v>
       </c>
       <c r="E27" s="1">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F27" s="4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G27" s="4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H27" s="4">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I27" s="1">
-        <v>50688</v>
+        <v>22406</v>
       </c>
       <c r="J27" s="1">
         <v>850</v>
@@ -7523,28 +7673,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1418568</v>
+        <v>683420</v>
       </c>
       <c r="C28" s="1">
-        <v>1063926</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1063926</v>
+        <v>512560</v>
+      </c>
+      <c r="D28" s="4">
+        <v>512560</v>
       </c>
       <c r="E28" s="1">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F28" s="4">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G28" s="4">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H28" s="4">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I28" s="1">
-        <v>55296</v>
+        <v>23990</v>
       </c>
       <c r="J28" s="1">
         <v>916</v>
@@ -7555,28 +7705,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1574421</v>
+        <v>728760</v>
       </c>
       <c r="C29" s="1">
-        <v>1180816</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1180816</v>
+        <v>546570</v>
+      </c>
+      <c r="D29" s="4">
+        <v>546570</v>
       </c>
       <c r="E29" s="1">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F29" s="4">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G29" s="4">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="H29" s="4">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I29" s="1">
-        <v>59904</v>
+        <v>25574</v>
       </c>
       <c r="J29" s="1">
         <v>982</v>
@@ -7587,28 +7737,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1877935</v>
+        <v>1174980</v>
       </c>
       <c r="C30" s="1">
-        <v>1408451</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1408451</v>
+        <v>881240</v>
+      </c>
+      <c r="D30" s="4">
+        <v>881240</v>
       </c>
       <c r="E30" s="1">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F30" s="4">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="G30" s="4">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H30" s="4">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="I30" s="1">
-        <v>64512</v>
+        <v>28742</v>
       </c>
       <c r="J30" s="1">
         <v>1052</v>
@@ -7619,28 +7769,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>2028749</v>
+        <v>1277350</v>
       </c>
       <c r="C31" s="1">
-        <v>1521562</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1521562</v>
+        <v>958010</v>
+      </c>
+      <c r="D31" s="4">
+        <v>958010</v>
       </c>
       <c r="E31" s="1">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="F31" s="4">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="G31" s="4">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="H31" s="4">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="I31" s="1">
-        <v>69120</v>
+        <v>31910</v>
       </c>
       <c r="J31" s="1">
         <v>1124</v>
@@ -7651,28 +7801,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>3357164</v>
+        <v>1438730</v>
       </c>
       <c r="C32" s="1">
-        <v>2517873</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2517873</v>
+        <v>1079050</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1079050</v>
       </c>
       <c r="E32" s="1">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="F32" s="4">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="G32" s="4">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="H32" s="4">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="I32" s="1">
-        <v>73728</v>
+        <v>35078</v>
       </c>
       <c r="J32" s="1">
         <v>1198</v>
@@ -7683,28 +7833,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>3685827</v>
+        <v>1601340</v>
       </c>
       <c r="C33" s="1">
-        <v>2764370</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2764370</v>
+        <v>1201010</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1201010</v>
       </c>
       <c r="E33" s="1">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="F33" s="4">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="G33" s="4">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="H33" s="4">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="I33" s="1">
-        <v>78336</v>
+        <v>38246</v>
       </c>
       <c r="J33" s="1">
         <v>1276</v>
@@ -7715,28 +7865,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4028867</v>
+        <v>2404930</v>
       </c>
       <c r="C34" s="1">
-        <v>3021650</v>
-      </c>
-      <c r="D34" s="1">
-        <v>3021650</v>
+        <v>1803700</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1803700</v>
       </c>
       <c r="E34" s="1">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="F34" s="4">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="G34" s="4">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="H34" s="4">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="I34" s="1">
-        <v>82944</v>
+        <v>41414</v>
       </c>
       <c r="J34" s="1">
         <v>1354</v>
@@ -7747,28 +7897,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>4378256</v>
+        <v>2482990</v>
       </c>
       <c r="C35" s="1">
-        <v>3283692</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3283692</v>
+        <v>1862250</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1862250</v>
       </c>
       <c r="E35" s="1">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="F35" s="4">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="G35" s="4">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="H35" s="4">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="I35" s="1">
-        <v>87552</v>
+        <v>44582</v>
       </c>
       <c r="J35" s="1">
         <v>1436</v>
@@ -7779,28 +7929,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>4741325</v>
+        <v>2652570</v>
       </c>
       <c r="C36" s="1">
-        <v>3555994</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3555994</v>
+        <v>1989430</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1989430</v>
       </c>
       <c r="E36" s="1">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="F36" s="4">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="G36" s="4">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="H36" s="4">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="I36" s="1">
-        <v>92160</v>
+        <v>47750</v>
       </c>
       <c r="J36" s="1">
         <v>1520</v>
@@ -7811,28 +7961,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>7704679</v>
+        <v>2826970</v>
       </c>
       <c r="C37" s="1">
-        <v>5778509</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5778509</v>
+        <v>2120230</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2120230</v>
       </c>
       <c r="E37" s="1">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="F37" s="4">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="G37" s="4">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="H37" s="4">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="I37" s="1">
-        <v>96768</v>
+        <v>50918</v>
       </c>
       <c r="J37" s="1">
         <v>1606</v>
@@ -7843,28 +7993,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>8364852</v>
+        <v>4361830</v>
       </c>
       <c r="C38" s="1">
-        <v>6273639</v>
-      </c>
-      <c r="D38" s="1">
-        <v>6273639</v>
+        <v>3271370</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3271370</v>
       </c>
       <c r="E38" s="1">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="F38" s="4">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="G38" s="4">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="H38" s="4">
-        <v>396</v>
+        <v>264</v>
       </c>
       <c r="I38" s="1">
-        <v>101376</v>
+        <v>54086</v>
       </c>
       <c r="J38" s="1">
         <v>1696</v>
@@ -7875,28 +8025,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>9047860</v>
+        <v>4480440</v>
       </c>
       <c r="C39" s="1">
-        <v>6785895</v>
-      </c>
-      <c r="D39" s="1">
-        <v>6785895</v>
+        <v>3360330</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3360330</v>
       </c>
       <c r="E39" s="1">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="F39" s="4">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="G39" s="4">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="H39" s="4">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="I39" s="1">
-        <v>105984</v>
+        <v>57254</v>
       </c>
       <c r="J39" s="1">
         <v>1786</v>
@@ -7907,28 +8057,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>9761588</v>
+        <v>4730680</v>
       </c>
       <c r="C40" s="1">
-        <v>7321191</v>
-      </c>
-      <c r="D40" s="1">
-        <v>7321191</v>
+        <v>3548010</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3548010</v>
       </c>
       <c r="E40" s="1">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="F40" s="4">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="G40" s="4">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="H40" s="4">
-        <v>518</v>
+        <v>356</v>
       </c>
       <c r="I40" s="1">
-        <v>110592</v>
+        <v>60422</v>
       </c>
       <c r="J40" s="1">
         <v>1880</v>
@@ -7939,32 +8089,41 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>14581760</v>
+        <v>5003640</v>
       </c>
       <c r="C41" s="1">
-        <v>10936320</v>
-      </c>
-      <c r="D41" s="1">
-        <v>10936320</v>
+        <v>3752730</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3752730</v>
       </c>
       <c r="E41" s="1">
-        <v>592</v>
+        <v>402</v>
       </c>
       <c r="F41" s="4">
-        <v>592</v>
+        <v>402</v>
       </c>
       <c r="G41" s="4">
-        <v>592</v>
+        <v>402</v>
       </c>
       <c r="H41" s="4">
-        <v>592</v>
+        <v>402</v>
       </c>
       <c r="I41" s="1">
-        <v>115200</v>
+        <v>63590</v>
       </c>
       <c r="J41" s="1">
         <v>2000</v>
       </c>
+    </row>
+    <row r="42" spans="1:10" ht="20" customHeight="1">
+      <c r="D42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" ht="20" customHeight="1">
+      <c r="D43" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/datas/shared/HouseLevelUp.xlsx
+++ b/datas/shared/HouseLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="2000" windowWidth="28040" windowHeight="15600" tabRatio="347" activeTab="4"/>
+    <workbookView xWindow="700" yWindow="480" windowWidth="31420" windowHeight="19100" tabRatio="347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -247,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="340">
+  <cellStyleXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -262,6 +262,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -608,7 +618,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="340">
+  <cellStyles count="350">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -781,6 +791,11 @@
     <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -946,6 +961,11 @@
     <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1398,7 +1418,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1624,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1784,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1670</v>
+        <v>2030</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1816,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>2030</v>
+        <v>2570</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1848,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>2390</v>
+        <v>3146</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1880,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>4550</v>
+        <v>6278</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -1912,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>6710</v>
+        <v>9626</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -1944,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>8870</v>
+        <v>13190</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -1976,7 +1996,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>11030</v>
+        <v>16970</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -2008,7 +2028,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>13190</v>
+        <v>20966</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -2040,7 +2060,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>15350</v>
+        <v>25178</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -2072,7 +2092,7 @@
         <v>14</v>
       </c>
       <c r="I21" s="1">
-        <v>17510</v>
+        <v>29606</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -2104,7 +2124,7 @@
         <v>18</v>
       </c>
       <c r="I22" s="1">
-        <v>19670</v>
+        <v>34250</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -2136,7 +2156,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="1">
-        <v>21830</v>
+        <v>39110</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -2168,7 +2188,7 @@
         <v>26</v>
       </c>
       <c r="I24" s="1">
-        <v>23990</v>
+        <v>43473</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -2200,7 +2220,7 @@
         <v>30</v>
       </c>
       <c r="I25" s="1">
-        <v>26150</v>
+        <v>47923</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -2232,7 +2252,7 @@
         <v>40</v>
       </c>
       <c r="I26" s="1">
-        <v>28310</v>
+        <v>52178</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -2264,7 +2284,7 @@
         <v>50</v>
       </c>
       <c r="I27" s="1">
-        <v>30470</v>
+        <v>56476</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -2296,7 +2316,7 @@
         <v>60</v>
       </c>
       <c r="I28" s="1">
-        <v>32630</v>
+        <v>60818</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -2328,7 +2348,7 @@
         <v>70</v>
       </c>
       <c r="I29" s="1">
-        <v>34790</v>
+        <v>65203</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -2360,7 +2380,7 @@
         <v>90</v>
       </c>
       <c r="I30" s="1">
-        <v>39110</v>
+        <v>73713</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -2392,7 +2412,7 @@
         <v>110</v>
       </c>
       <c r="I31" s="1">
-        <v>43430</v>
+        <v>82310</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -2424,7 +2444,7 @@
         <v>130</v>
       </c>
       <c r="I32" s="1">
-        <v>47750</v>
+        <v>90993</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -2456,7 +2476,7 @@
         <v>150</v>
       </c>
       <c r="I33" s="1">
-        <v>52070</v>
+        <v>99763</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -2488,7 +2508,7 @@
         <v>180</v>
       </c>
       <c r="I34" s="1">
-        <v>56390</v>
+        <v>108619</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -2520,7 +2540,7 @@
         <v>210</v>
       </c>
       <c r="I35" s="1">
-        <v>60710</v>
+        <v>117561</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -2552,7 +2572,7 @@
         <v>240</v>
       </c>
       <c r="I36" s="1">
-        <v>65030</v>
+        <v>126590</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -2584,7 +2604,7 @@
         <v>270</v>
       </c>
       <c r="I37" s="1">
-        <v>69350</v>
+        <v>135705</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -2616,7 +2636,7 @@
         <v>310</v>
       </c>
       <c r="I38" s="1">
-        <v>73670</v>
+        <v>144907</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -2648,7 +2668,7 @@
         <v>350</v>
       </c>
       <c r="I39" s="1">
-        <v>77990</v>
+        <v>154195</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -2680,7 +2700,7 @@
         <v>390</v>
       </c>
       <c r="I40" s="1">
-        <v>82310</v>
+        <v>163569</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -2712,7 +2732,7 @@
         <v>430</v>
       </c>
       <c r="I41" s="1">
-        <v>86630</v>
+        <v>173030</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -2740,7 +2760,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I47"/>
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3126,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1382</v>
+        <v>1670</v>
       </c>
       <c r="J12" s="1">
         <v>166</v>
@@ -3158,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1670</v>
+        <v>2102</v>
       </c>
       <c r="J13" s="1">
         <v>196</v>
@@ -3190,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>1958</v>
+        <v>2563</v>
       </c>
       <c r="J14" s="1">
         <v>226</v>
@@ -3222,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>3686</v>
+        <v>5068</v>
       </c>
       <c r="J15" s="1">
         <v>260</v>
@@ -3254,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>5414</v>
+        <v>7747</v>
       </c>
       <c r="J16" s="1">
         <v>296</v>
@@ -3286,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>7142</v>
+        <v>10598</v>
       </c>
       <c r="J17" s="1">
         <v>334</v>
@@ -3318,7 +3338,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>8870</v>
+        <v>13622</v>
       </c>
       <c r="J18" s="1">
         <v>376</v>
@@ -3350,7 +3370,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>10598</v>
+        <v>16819</v>
       </c>
       <c r="J19" s="1">
         <v>418</v>
@@ -3382,7 +3402,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="1">
-        <v>12326</v>
+        <v>20188</v>
       </c>
       <c r="J20" s="1">
         <v>464</v>
@@ -3414,7 +3434,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>14054</v>
+        <v>23731</v>
       </c>
       <c r="J21" s="1">
         <v>512</v>
@@ -3446,7 +3466,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="1">
-        <v>15782</v>
+        <v>27446</v>
       </c>
       <c r="J22" s="1">
         <v>562</v>
@@ -3478,7 +3498,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>17510</v>
+        <v>31334</v>
       </c>
       <c r="J23" s="1">
         <v>616</v>
@@ -3510,7 +3530,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>19238</v>
+        <v>34825</v>
       </c>
       <c r="J24" s="1">
         <v>670</v>
@@ -3542,7 +3562,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="1">
-        <v>20966</v>
+        <v>38384</v>
       </c>
       <c r="J25" s="1">
         <v>728</v>
@@ -3574,7 +3594,7 @@
         <v>32</v>
       </c>
       <c r="I26" s="1">
-        <v>22694</v>
+        <v>41788</v>
       </c>
       <c r="J26" s="1">
         <v>788</v>
@@ -3606,7 +3626,7 @@
         <v>38</v>
       </c>
       <c r="I27" s="1">
-        <v>24422</v>
+        <v>45227</v>
       </c>
       <c r="J27" s="1">
         <v>850</v>
@@ -3638,7 +3658,7 @@
         <v>44</v>
       </c>
       <c r="I28" s="1">
-        <v>26150</v>
+        <v>48700</v>
       </c>
       <c r="J28" s="1">
         <v>916</v>
@@ -3670,7 +3690,7 @@
         <v>50</v>
       </c>
       <c r="I29" s="1">
-        <v>27878</v>
+        <v>52208</v>
       </c>
       <c r="J29" s="1">
         <v>982</v>
@@ -3702,7 +3722,7 @@
         <v>64</v>
       </c>
       <c r="I30" s="1">
-        <v>31334</v>
+        <v>59017</v>
       </c>
       <c r="J30" s="1">
         <v>1052</v>
@@ -3734,7 +3754,7 @@
         <v>78</v>
       </c>
       <c r="I31" s="1">
-        <v>34790</v>
+        <v>65894</v>
       </c>
       <c r="J31" s="1">
         <v>1124</v>
@@ -3766,7 +3786,7 @@
         <v>92</v>
       </c>
       <c r="I32" s="1">
-        <v>38246</v>
+        <v>72841</v>
       </c>
       <c r="J32" s="1">
         <v>1198</v>
@@ -3798,7 +3818,7 @@
         <v>106</v>
       </c>
       <c r="I33" s="1">
-        <v>41702</v>
+        <v>79856</v>
       </c>
       <c r="J33" s="1">
         <v>1276</v>
@@ -3830,7 +3850,7 @@
         <v>134</v>
       </c>
       <c r="I34" s="1">
-        <v>45158</v>
+        <v>86941</v>
       </c>
       <c r="J34" s="1">
         <v>1354</v>
@@ -3862,7 +3882,7 @@
         <v>162</v>
       </c>
       <c r="I35" s="1">
-        <v>48614</v>
+        <v>94095</v>
       </c>
       <c r="J35" s="1">
         <v>1436</v>
@@ -3894,7 +3914,7 @@
         <v>190</v>
       </c>
       <c r="I36" s="1">
-        <v>52070</v>
+        <v>101318</v>
       </c>
       <c r="J36" s="1">
         <v>1520</v>
@@ -3926,7 +3946,7 @@
         <v>218</v>
       </c>
       <c r="I37" s="1">
-        <v>55526</v>
+        <v>108610</v>
       </c>
       <c r="J37" s="1">
         <v>1606</v>
@@ -3958,7 +3978,7 @@
         <v>264</v>
       </c>
       <c r="I38" s="1">
-        <v>58982</v>
+        <v>115971</v>
       </c>
       <c r="J38" s="1">
         <v>1696</v>
@@ -3990,7 +4010,7 @@
         <v>310</v>
       </c>
       <c r="I39" s="1">
-        <v>62438</v>
+        <v>123402</v>
       </c>
       <c r="J39" s="1">
         <v>1786</v>
@@ -4022,7 +4042,7 @@
         <v>356</v>
       </c>
       <c r="I40" s="1">
-        <v>65894</v>
+        <v>130901</v>
       </c>
       <c r="J40" s="1">
         <v>1880</v>
@@ -4054,7 +4074,7 @@
         <v>402</v>
       </c>
       <c r="I41" s="1">
-        <v>69350</v>
+        <v>138470</v>
       </c>
       <c r="J41" s="1">
         <v>2000</v>
@@ -4111,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4498,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1478</v>
+        <v>1790</v>
       </c>
       <c r="J12" s="1">
         <v>166</v>
@@ -4530,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1790</v>
+        <v>2258</v>
       </c>
       <c r="J13" s="1">
         <v>196</v>
@@ -4562,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>2102</v>
+        <v>2757</v>
       </c>
       <c r="J14" s="1">
         <v>226</v>
@@ -4594,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>3974</v>
+        <v>5472</v>
       </c>
       <c r="J15" s="1">
         <v>260</v>
@@ -4626,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>5846</v>
+        <v>8373</v>
       </c>
       <c r="J16" s="1">
         <v>296</v>
@@ -4658,7 +4678,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>7718</v>
+        <v>11462</v>
       </c>
       <c r="J17" s="1">
         <v>334</v>
@@ -4690,7 +4710,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>9590</v>
+        <v>14738</v>
       </c>
       <c r="J18" s="1">
         <v>376</v>
@@ -4722,7 +4742,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>11462</v>
+        <v>18201</v>
       </c>
       <c r="J19" s="1">
         <v>418</v>
@@ -4754,7 +4774,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="1">
-        <v>13334</v>
+        <v>21852</v>
       </c>
       <c r="J20" s="1">
         <v>464</v>
@@ -4786,7 +4806,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>15206</v>
+        <v>25689</v>
       </c>
       <c r="J21" s="1">
         <v>512</v>
@@ -4818,7 +4838,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="1">
-        <v>17078</v>
+        <v>29714</v>
       </c>
       <c r="J22" s="1">
         <v>562</v>
@@ -4850,7 +4870,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>18950</v>
+        <v>33926</v>
       </c>
       <c r="J23" s="1">
         <v>616</v>
@@ -4882,7 +4902,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>20822</v>
+        <v>37707</v>
       </c>
       <c r="J24" s="1">
         <v>670</v>
@@ -4914,7 +4934,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="1">
-        <v>22694</v>
+        <v>41564</v>
       </c>
       <c r="J25" s="1">
         <v>728</v>
@@ -4946,7 +4966,7 @@
         <v>32</v>
       </c>
       <c r="I26" s="1">
-        <v>24566</v>
+        <v>45252</v>
       </c>
       <c r="J26" s="1">
         <v>788</v>
@@ -4978,7 +4998,7 @@
         <v>38</v>
       </c>
       <c r="I27" s="1">
-        <v>26438</v>
+        <v>48977</v>
       </c>
       <c r="J27" s="1">
         <v>850</v>
@@ -5010,7 +5030,7 @@
         <v>44</v>
       </c>
       <c r="I28" s="1">
-        <v>28310</v>
+        <v>52740</v>
       </c>
       <c r="J28" s="1">
         <v>916</v>
@@ -5042,7 +5062,7 @@
         <v>50</v>
       </c>
       <c r="I29" s="1">
-        <v>30182</v>
+        <v>56540</v>
       </c>
       <c r="J29" s="1">
         <v>982</v>
@@ -5074,7 +5094,7 @@
         <v>64</v>
       </c>
       <c r="I30" s="1">
-        <v>33926</v>
+        <v>63915</v>
       </c>
       <c r="J30" s="1">
         <v>1052</v>
@@ -5106,7 +5126,7 @@
         <v>78</v>
       </c>
       <c r="I31" s="1">
-        <v>37670</v>
+        <v>71366</v>
       </c>
       <c r="J31" s="1">
         <v>1124</v>
@@ -5138,7 +5158,7 @@
         <v>92</v>
       </c>
       <c r="I32" s="1">
-        <v>41414</v>
+        <v>78891</v>
       </c>
       <c r="J32" s="1">
         <v>1198</v>
@@ -5170,7 +5190,7 @@
         <v>106</v>
       </c>
       <c r="I33" s="1">
-        <v>45158</v>
+        <v>86492</v>
       </c>
       <c r="J33" s="1">
         <v>1276</v>
@@ -5202,7 +5222,7 @@
         <v>134</v>
       </c>
       <c r="I34" s="1">
-        <v>48902</v>
+        <v>94167</v>
       </c>
       <c r="J34" s="1">
         <v>1354</v>
@@ -5234,7 +5254,7 @@
         <v>162</v>
       </c>
       <c r="I35" s="1">
-        <v>52646</v>
+        <v>101917</v>
       </c>
       <c r="J35" s="1">
         <v>1436</v>
@@ -5266,7 +5286,7 @@
         <v>190</v>
       </c>
       <c r="I36" s="1">
-        <v>56390</v>
+        <v>109742</v>
       </c>
       <c r="J36" s="1">
         <v>1520</v>
@@ -5298,7 +5318,7 @@
         <v>218</v>
       </c>
       <c r="I37" s="1">
-        <v>60134</v>
+        <v>117642</v>
       </c>
       <c r="J37" s="1">
         <v>1606</v>
@@ -5330,7 +5350,7 @@
         <v>264</v>
       </c>
       <c r="I38" s="1">
-        <v>63878</v>
+        <v>125617</v>
       </c>
       <c r="J38" s="1">
         <v>1696</v>
@@ -5362,7 +5382,7 @@
         <v>310</v>
       </c>
       <c r="I39" s="1">
-        <v>67622</v>
+        <v>133666</v>
       </c>
       <c r="J39" s="1">
         <v>1786</v>
@@ -5394,7 +5414,7 @@
         <v>356</v>
       </c>
       <c r="I40" s="1">
-        <v>71366</v>
+        <v>141791</v>
       </c>
       <c r="J40" s="1">
         <v>1880</v>
@@ -5426,7 +5446,7 @@
         <v>402</v>
       </c>
       <c r="I41" s="1">
-        <v>75110</v>
+        <v>149990</v>
       </c>
       <c r="J41" s="1">
         <v>2000</v>
@@ -5459,7 +5479,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I43"/>
+      <selection activeCell="I2" sqref="I2:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5845,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1574</v>
+        <v>1910</v>
       </c>
       <c r="J12" s="1">
         <v>166</v>
@@ -5877,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1910</v>
+        <v>2414</v>
       </c>
       <c r="J13" s="1">
         <v>196</v>
@@ -5909,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>2246</v>
+        <v>2952</v>
       </c>
       <c r="J14" s="1">
         <v>226</v>
@@ -5941,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>4262</v>
+        <v>5875</v>
       </c>
       <c r="J15" s="1">
         <v>260</v>
@@ -5973,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>6278</v>
+        <v>9000</v>
       </c>
       <c r="J16" s="1">
         <v>296</v>
@@ -6005,7 +6025,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>8294</v>
+        <v>12326</v>
       </c>
       <c r="J17" s="1">
         <v>334</v>
@@ -6037,7 +6057,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>10310</v>
+        <v>15854</v>
       </c>
       <c r="J18" s="1">
         <v>376</v>
@@ -6069,7 +6089,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>12326</v>
+        <v>19584</v>
       </c>
       <c r="J19" s="1">
         <v>418</v>
@@ -6101,7 +6121,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="1">
-        <v>14342</v>
+        <v>23515</v>
       </c>
       <c r="J20" s="1">
         <v>464</v>
@@ -6133,7 +6153,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>16358</v>
+        <v>27648</v>
       </c>
       <c r="J21" s="1">
         <v>512</v>
@@ -6165,7 +6185,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="1">
-        <v>18374</v>
+        <v>31982</v>
       </c>
       <c r="J22" s="1">
         <v>562</v>
@@ -6197,7 +6217,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>20390</v>
+        <v>36518</v>
       </c>
       <c r="J23" s="1">
         <v>616</v>
@@ -6229,7 +6249,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>22406</v>
+        <v>40590</v>
       </c>
       <c r="J24" s="1">
         <v>670</v>
@@ -6261,7 +6281,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="1">
-        <v>24422</v>
+        <v>44743</v>
       </c>
       <c r="J25" s="1">
         <v>728</v>
@@ -6293,7 +6313,7 @@
         <v>32</v>
       </c>
       <c r="I26" s="1">
-        <v>26438</v>
+        <v>48715</v>
       </c>
       <c r="J26" s="1">
         <v>788</v>
@@ -6325,7 +6345,7 @@
         <v>38</v>
       </c>
       <c r="I27" s="1">
-        <v>28454</v>
+        <v>52727</v>
       </c>
       <c r="J27" s="1">
         <v>850</v>
@@ -6357,7 +6377,7 @@
         <v>44</v>
       </c>
       <c r="I28" s="1">
-        <v>30470</v>
+        <v>56779</v>
       </c>
       <c r="J28" s="1">
         <v>916</v>
@@ -6389,7 +6409,7 @@
         <v>50</v>
       </c>
       <c r="I29" s="1">
-        <v>32486</v>
+        <v>60871</v>
       </c>
       <c r="J29" s="1">
         <v>982</v>
@@ -6421,7 +6441,7 @@
         <v>64</v>
       </c>
       <c r="I30" s="1">
-        <v>36518</v>
+        <v>68814</v>
       </c>
       <c r="J30" s="1">
         <v>1052</v>
@@ -6453,7 +6473,7 @@
         <v>78</v>
       </c>
       <c r="I31" s="1">
-        <v>40550</v>
+        <v>76838</v>
       </c>
       <c r="J31" s="1">
         <v>1124</v>
@@ -6485,7 +6505,7 @@
         <v>92</v>
       </c>
       <c r="I32" s="1">
-        <v>44582</v>
+        <v>84942</v>
       </c>
       <c r="J32" s="1">
         <v>1198</v>
@@ -6517,7 +6537,7 @@
         <v>106</v>
       </c>
       <c r="I33" s="1">
-        <v>48614</v>
+        <v>93127</v>
       </c>
       <c r="J33" s="1">
         <v>1276</v>
@@ -6549,7 +6569,7 @@
         <v>134</v>
       </c>
       <c r="I34" s="1">
-        <v>52646</v>
+        <v>101393</v>
       </c>
       <c r="J34" s="1">
         <v>1354</v>
@@ -6581,7 +6601,7 @@
         <v>162</v>
       </c>
       <c r="I35" s="1">
-        <v>56678</v>
+        <v>109739</v>
       </c>
       <c r="J35" s="1">
         <v>1436</v>
@@ -6613,7 +6633,7 @@
         <v>190</v>
       </c>
       <c r="I36" s="1">
-        <v>60710</v>
+        <v>118166</v>
       </c>
       <c r="J36" s="1">
         <v>1520</v>
@@ -6645,7 +6665,7 @@
         <v>218</v>
       </c>
       <c r="I37" s="1">
-        <v>64742</v>
+        <v>126674</v>
       </c>
       <c r="J37" s="1">
         <v>1606</v>
@@ -6677,7 +6697,7 @@
         <v>264</v>
       </c>
       <c r="I38" s="1">
-        <v>68774</v>
+        <v>135262</v>
       </c>
       <c r="J38" s="1">
         <v>1696</v>
@@ -6709,7 +6729,7 @@
         <v>310</v>
       </c>
       <c r="I39" s="1">
-        <v>72806</v>
+        <v>143930</v>
       </c>
       <c r="J39" s="1">
         <v>1786</v>
@@ -6741,7 +6761,7 @@
         <v>356</v>
       </c>
       <c r="I40" s="1">
-        <v>76838</v>
+        <v>152680</v>
       </c>
       <c r="J40" s="1">
         <v>1880</v>
@@ -6773,7 +6793,7 @@
         <v>402</v>
       </c>
       <c r="I41" s="1">
-        <v>80870</v>
+        <v>161510</v>
       </c>
       <c r="J41" s="1">
         <v>2000</v>
@@ -6795,8 +6815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I45"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7182,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1286</v>
+        <v>1550</v>
       </c>
       <c r="J12" s="1">
         <v>166</v>
@@ -7214,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1550</v>
+        <v>1946</v>
       </c>
       <c r="J13" s="1">
         <v>196</v>
@@ -7246,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>1814</v>
+        <v>2368</v>
       </c>
       <c r="J14" s="1">
         <v>226</v>
@@ -7278,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>3398</v>
+        <v>4665</v>
       </c>
       <c r="J15" s="1">
         <v>260</v>
@@ -7310,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>4982</v>
+        <v>7120</v>
       </c>
       <c r="J16" s="1">
         <v>296</v>
@@ -7342,7 +7362,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>6566</v>
+        <v>9734</v>
       </c>
       <c r="J17" s="1">
         <v>334</v>
@@ -7374,7 +7394,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>8150</v>
+        <v>12506</v>
       </c>
       <c r="J18" s="1">
         <v>376</v>
@@ -7406,7 +7426,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>9734</v>
+        <v>15436</v>
       </c>
       <c r="J19" s="1">
         <v>418</v>
@@ -7438,7 +7458,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="1">
-        <v>11318</v>
+        <v>18525</v>
       </c>
       <c r="J20" s="1">
         <v>464</v>
@@ -7470,7 +7490,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>12902</v>
+        <v>21772</v>
       </c>
       <c r="J21" s="1">
         <v>512</v>
@@ -7502,7 +7522,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="1">
-        <v>14486</v>
+        <v>25178</v>
       </c>
       <c r="J22" s="1">
         <v>562</v>
@@ -7534,7 +7554,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>16070</v>
+        <v>28742</v>
       </c>
       <c r="J23" s="1">
         <v>616</v>
@@ -7566,7 +7586,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>17654</v>
+        <v>31942</v>
       </c>
       <c r="J24" s="1">
         <v>670</v>
@@ -7598,7 +7618,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="1">
-        <v>19238</v>
+        <v>35205</v>
       </c>
       <c r="J25" s="1">
         <v>728</v>
@@ -7630,7 +7650,7 @@
         <v>32</v>
       </c>
       <c r="I26" s="1">
-        <v>20822</v>
+        <v>38325</v>
       </c>
       <c r="J26" s="1">
         <v>788</v>
@@ -7662,7 +7682,7 @@
         <v>38</v>
       </c>
       <c r="I27" s="1">
-        <v>22406</v>
+        <v>41477</v>
       </c>
       <c r="J27" s="1">
         <v>850</v>
@@ -7694,7 +7714,7 @@
         <v>44</v>
       </c>
       <c r="I28" s="1">
-        <v>23990</v>
+        <v>44661</v>
       </c>
       <c r="J28" s="1">
         <v>916</v>
@@ -7726,7 +7746,7 @@
         <v>50</v>
       </c>
       <c r="I29" s="1">
-        <v>25574</v>
+        <v>47877</v>
       </c>
       <c r="J29" s="1">
         <v>982</v>
@@ -7758,7 +7778,7 @@
         <v>64</v>
       </c>
       <c r="I30" s="1">
-        <v>28742</v>
+        <v>54118</v>
       </c>
       <c r="J30" s="1">
         <v>1052</v>
@@ -7790,7 +7810,7 @@
         <v>78</v>
       </c>
       <c r="I31" s="1">
-        <v>31910</v>
+        <v>60422</v>
       </c>
       <c r="J31" s="1">
         <v>1124</v>
@@ -7822,7 +7842,7 @@
         <v>92</v>
       </c>
       <c r="I32" s="1">
-        <v>35078</v>
+        <v>66790</v>
       </c>
       <c r="J32" s="1">
         <v>1198</v>
@@ -7854,7 +7874,7 @@
         <v>106</v>
       </c>
       <c r="I33" s="1">
-        <v>38246</v>
+        <v>73221</v>
       </c>
       <c r="J33" s="1">
         <v>1276</v>
@@ -7886,7 +7906,7 @@
         <v>134</v>
       </c>
       <c r="I34" s="1">
-        <v>41414</v>
+        <v>79715</v>
       </c>
       <c r="J34" s="1">
         <v>1354</v>
@@ -7918,7 +7938,7 @@
         <v>162</v>
       </c>
       <c r="I35" s="1">
-        <v>44582</v>
+        <v>86273</v>
       </c>
       <c r="J35" s="1">
         <v>1436</v>
@@ -7950,7 +7970,7 @@
         <v>190</v>
       </c>
       <c r="I36" s="1">
-        <v>47750</v>
+        <v>92894</v>
       </c>
       <c r="J36" s="1">
         <v>1520</v>
@@ -7982,7 +8002,7 @@
         <v>218</v>
       </c>
       <c r="I37" s="1">
-        <v>50918</v>
+        <v>99578</v>
       </c>
       <c r="J37" s="1">
         <v>1606</v>
@@ -8014,7 +8034,7 @@
         <v>264</v>
       </c>
       <c r="I38" s="1">
-        <v>54086</v>
+        <v>106326</v>
       </c>
       <c r="J38" s="1">
         <v>1696</v>
@@ -8046,7 +8066,7 @@
         <v>310</v>
       </c>
       <c r="I39" s="1">
-        <v>57254</v>
+        <v>113138</v>
       </c>
       <c r="J39" s="1">
         <v>1786</v>
@@ -8078,7 +8098,7 @@
         <v>356</v>
       </c>
       <c r="I40" s="1">
-        <v>60422</v>
+        <v>120012</v>
       </c>
       <c r="J40" s="1">
         <v>1880</v>
@@ -8110,7 +8130,7 @@
         <v>402</v>
       </c>
       <c r="I41" s="1">
-        <v>63590</v>
+        <v>126950</v>
       </c>
       <c r="J41" s="1">
         <v>2000</v>

--- a/datas/shared/HouseLevelUp.xlsx
+++ b/datas/shared/HouseLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="480" windowWidth="31420" windowHeight="19100" tabRatio="347" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -247,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="350">
+  <cellStyleXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -262,6 +262,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -618,7 +620,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="350">
+  <cellStyles count="352">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -796,6 +798,7 @@
     <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -966,6 +969,7 @@
     <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1418,7 +1422,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I42"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1484,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -2760,7 +2764,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I42"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2826,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -4131,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I42"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4198,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -5479,7 +5483,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I49"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5545,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -6815,8 +6819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6882,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>

--- a/datas/shared/HouseLevelUp.xlsx
+++ b/datas/shared/HouseLevelUp.xlsx
@@ -247,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="352">
+  <cellStyleXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -262,6 +262,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -620,7 +622,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="352">
+  <cellStyles count="354">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -799,6 +801,7 @@
     <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -970,6 +973,7 @@
     <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1488,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -2830,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -4202,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -5483,7 +5487,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5549,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -6819,8 +6823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6886,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
